--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3587ED-8F70-4923-B373-8B9DAB3E50A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A4C13D-F420-472E-9E4A-BAF62CDABA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -163,7 +152,119 @@
     <t>播放音效2</t>
   </si>
   <si>
-    <t>ResAudio_2</t>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>持续时间(s),-1表示永久</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>isLoop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否循环播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_dead</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放音效3</t>
+  </si>
+  <si>
+    <t>播放音效4</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olo</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oe</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ine</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ircle</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_solo</t>
+  </si>
+  <si>
+    <t>ResAudio_aoe</t>
+  </si>
+  <si>
+    <t>ResAudio_line</t>
+  </si>
+  <si>
+    <t>ResAudio_circle</t>
   </si>
 </sst>
 </file>
@@ -571,22 +672,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,8 +707,12 @@
       <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -623,7 +730,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,8 +740,8 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -652,7 +759,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -670,8 +777,12 @@
       <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -689,7 +800,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -701,8 +812,8 @@
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -720,7 +831,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -738,8 +849,12 @@
       <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -757,7 +872,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -775,24 +890,136 @@
       <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>PlayAudio_2</v>
+        <v>PlayAudio_dead</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>PlayAudio_solo</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:D11" si="0">B9&amp;"_"&amp;C9</f>
+        <v>PlayAudio_aoe</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAudio_line</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAudio_circle</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A4C13D-F420-472E-9E4A-BAF62CDABA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC0C073-07FA-4E54-AFA1-A380850A74D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -265,6 +276,14 @@
   </si>
   <si>
     <t>ResAudio_circle</t>
+  </si>
+  <si>
+    <t>isOnlySelfShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否进自己可见</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,24 +691,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="6" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,15 +724,17 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -729,8 +750,9 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
+      <c r="Z1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -742,7 +764,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2"/>
+      <c r="J2" s="3"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -758,8 +780,9 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -775,15 +798,17 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -799,8 +824,9 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -814,7 +840,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4"/>
+      <c r="J4" s="4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -830,8 +856,9 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -847,15 +874,17 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -871,8 +900,9 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -887,17 +917,20 @@
         <v>16</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="8" t="b">
+      <c r="J6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -912,17 +945,20 @@
         <v>19</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>2</v>
       </c>
-      <c r="I7" s="8" t="b">
+      <c r="J7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -937,17 +973,20 @@
         <v>16</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="8" t="b">
+      <c r="J8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -962,17 +1001,20 @@
         <v>19</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>3</v>
       </c>
-      <c r="I9" s="8" t="b">
+      <c r="J9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -987,17 +1029,20 @@
         <v>28</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>-1</v>
       </c>
-      <c r="I10" s="8" t="b">
+      <c r="J10" s="8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1012,13 +1057,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>-1</v>
       </c>
-      <c r="I11" s="8" t="b">
+      <c r="J11" s="8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC0C073-07FA-4E54-AFA1-A380850A74D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC15DC75-566E-4733-9552-D8044DF90337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="620">
   <si>
     <t>##var</t>
   </si>
@@ -87,10 +76,31 @@
     </r>
   </si>
   <si>
+    <t>isOnlySelfShow</t>
+  </si>
+  <si>
+    <t>res_id</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>isLoop</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string#ref=ResAudioCfgCategory</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##group</t>
@@ -132,73 +142,45 @@
     <t>描述</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>是否进自己可见</t>
   </si>
   <si>
     <t>资源id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(s),-1表示永久</t>
+  </si>
+  <si>
+    <t>是否循环播放</t>
   </si>
   <si>
     <t>PlayAudio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>播放音效1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#ref=ResAudioCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ResAudio_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
   </si>
   <si>
     <t>播放音效2</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>持续时间(s),-1表示永久</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>isLoop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否循环播放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResAudio_dead</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放音效3</t>
-  </si>
-  <si>
-    <t>播放音效4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>s</t>
     </r>
     <r>
@@ -212,10 +194,20 @@
       </rPr>
       <t>olo</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_solo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>a</t>
     </r>
     <r>
@@ -229,10 +221,20 @@
       </rPr>
       <t>oe</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_aoe</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>l</t>
     </r>
     <r>
@@ -246,10 +248,20 @@
       </rPr>
       <t>ine</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_line</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>c</t>
     </r>
     <r>
@@ -263,27 +275,1763 @@
       </rPr>
       <t>ircle</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResAudio_solo</t>
-  </si>
-  <si>
-    <t>ResAudio_aoe</t>
-  </si>
-  <si>
-    <t>ResAudio_line</t>
   </si>
   <si>
     <t>ResAudio_circle</t>
   </si>
   <si>
-    <t>isOnlySelfShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否进自己可见</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>FireTowerDragon1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerDragon1</t>
+  </si>
+  <si>
+    <t>龙击炮开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerDragon1</t>
+  </si>
+  <si>
+    <t>FireTowerDragon2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerDragon2</t>
+  </si>
+  <si>
+    <t>龙击炮开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerDragon2</t>
+  </si>
+  <si>
+    <t>FireTowerDragon3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerDragon3</t>
+  </si>
+  <si>
+    <t>龙击炮开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerDragon3</t>
+  </si>
+  <si>
+    <t>FireTowerIce1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerIce1</t>
+  </si>
+  <si>
+    <t>冰魔塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerIce1</t>
+  </si>
+  <si>
+    <t>FireTowerIce2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerIce2</t>
+  </si>
+  <si>
+    <t>冰魔塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerIce2</t>
+  </si>
+  <si>
+    <t>FireTowerIce3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerIce3</t>
+  </si>
+  <si>
+    <t>冰魔塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerIce3</t>
+  </si>
+  <si>
+    <t>FireTowerArrow1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerArrow1</t>
+  </si>
+  <si>
+    <t>弩箭塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerArrow1</t>
+  </si>
+  <si>
+    <t>FireTowerArrow2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerArrow2</t>
+  </si>
+  <si>
+    <t>弩箭塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerArrow2</t>
+  </si>
+  <si>
+    <t>FireTowerArrow3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerArrow3</t>
+  </si>
+  <si>
+    <t>弩箭塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerArrow3</t>
+  </si>
+  <si>
+    <t>FireTowerCannon1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerCannon1</t>
+  </si>
+  <si>
+    <t>加农炮开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerCannon1</t>
+  </si>
+  <si>
+    <t>FireTowerCannon2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerCannon2</t>
+  </si>
+  <si>
+    <t>加农炮开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerCannon2</t>
+  </si>
+  <si>
+    <t>FireTowerCannon3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerCannon3</t>
+  </si>
+  <si>
+    <t>加农炮开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerCannon3</t>
+  </si>
+  <si>
+    <t>FireTowerFlame1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFlame1</t>
+  </si>
+  <si>
+    <t>火焰塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFlame1</t>
+  </si>
+  <si>
+    <t>FireTowerFlame2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFlame2</t>
+  </si>
+  <si>
+    <t>火焰塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFlame2</t>
+  </si>
+  <si>
+    <t>FireTowerFlame3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFlame3</t>
+  </si>
+  <si>
+    <t>火焰塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFlame3</t>
+  </si>
+  <si>
+    <t>FireTowerToxMist1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerToxMist1</t>
+  </si>
+  <si>
+    <t>毒雾塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerToxMist1</t>
+  </si>
+  <si>
+    <t>FireTowerToxMist2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerToxMist2</t>
+  </si>
+  <si>
+    <t>毒雾塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerToxMist2</t>
+  </si>
+  <si>
+    <t>FireTowerToxMist3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerToxMist3</t>
+  </si>
+  <si>
+    <t>毒雾塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerToxMist3</t>
+  </si>
+  <si>
+    <t>FireTowerThunder1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerThunder1</t>
+  </si>
+  <si>
+    <t>雷电塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerThunder1</t>
+  </si>
+  <si>
+    <t>FireTowerThunder2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerThunder2</t>
+  </si>
+  <si>
+    <t>雷电塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerThunder2</t>
+  </si>
+  <si>
+    <t>FireTowerThunder3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerThunder3</t>
+  </si>
+  <si>
+    <t>雷电塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerThunder3</t>
+  </si>
+  <si>
+    <t>FireTowerTimeSwift1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerTimeSwift1</t>
+  </si>
+  <si>
+    <t>加速塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerTimeSwift1</t>
+  </si>
+  <si>
+    <t>FireTowerTimeSwift2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerTimeSwift2</t>
+  </si>
+  <si>
+    <t>加速塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerTimeSwift2</t>
+  </si>
+  <si>
+    <t>FireTowerTimeSwift3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerTimeSwift3</t>
+  </si>
+  <si>
+    <t>加速塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerTimeSwift3</t>
+  </si>
+  <si>
+    <t>FireTowerMystOrb1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerMystOrb1</t>
+  </si>
+  <si>
+    <t>奥术天球开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerMystOrb1</t>
+  </si>
+  <si>
+    <t>FireTowerMystOrb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerMystOrb2</t>
+  </si>
+  <si>
+    <t>奥术天球开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerMystOrb2</t>
+  </si>
+  <si>
+    <t>FireTowerMystOrb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerMystOrb3</t>
+  </si>
+  <si>
+    <t>奥术天球开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerMystOrb3</t>
+  </si>
+  <si>
+    <t>FireTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>炼金塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>FireTowerAlchemy2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerAlchemy2</t>
+  </si>
+  <si>
+    <t>炼金塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerAlchemy2</t>
+  </si>
+  <si>
+    <t>FireTowerAlchemy3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerAlchemy3</t>
+  </si>
+  <si>
+    <t>炼金塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerAlchemy3</t>
+  </si>
+  <si>
+    <t>FireTowerScorpio1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerScorpio1</t>
+  </si>
+  <si>
+    <t>毒蝎塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerScorpio1</t>
+  </si>
+  <si>
+    <t>FireTowerScorpio2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerScorpio2</t>
+  </si>
+  <si>
+    <t>毒蝎塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerScorpio2</t>
+  </si>
+  <si>
+    <t>FireTowerScorpio3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerScorpio3</t>
+  </si>
+  <si>
+    <t>毒蝎塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerScorpio3</t>
+  </si>
+  <si>
+    <t>FireTowerBreaker1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBreaker1</t>
+  </si>
+  <si>
+    <t>破甲诅咒开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBreaker1</t>
+  </si>
+  <si>
+    <t>FireTowerBreaker2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBreaker2</t>
+  </si>
+  <si>
+    <t>破甲诅咒开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBreaker2</t>
+  </si>
+  <si>
+    <t>FireTowerBreaker3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBreaker3</t>
+  </si>
+  <si>
+    <t>破甲诅咒开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBreaker3</t>
+  </si>
+  <si>
+    <t>FireTowerEnchanter1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerEnchanter1</t>
+  </si>
+  <si>
+    <t>附魔塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerEnchanter1</t>
+  </si>
+  <si>
+    <t>FireTowerEnchanter2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerEnchanter2</t>
+  </si>
+  <si>
+    <t>附魔塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerEnchanter2</t>
+  </si>
+  <si>
+    <t>FireTowerEnchanter3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerEnchanter3</t>
+  </si>
+  <si>
+    <t>附魔塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerEnchanter3</t>
+  </si>
+  <si>
+    <t>FireTowerIceArrow1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerIceArrow1</t>
+  </si>
+  <si>
+    <t>冰刺箭开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerIceArrow1</t>
+  </si>
+  <si>
+    <t>FireTowerIceArrow2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerIceArrow2</t>
+  </si>
+  <si>
+    <t>冰刺箭开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerIceArrow2</t>
+  </si>
+  <si>
+    <t>FireTowerIceArrow3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerIceArrow3</t>
+  </si>
+  <si>
+    <t>冰刺箭开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerIceArrow3</t>
+  </si>
+  <si>
+    <t>FireTowerDizzyOrb1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerDizzyOrb1</t>
+  </si>
+  <si>
+    <t>水球塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerDizzyOrb1</t>
+  </si>
+  <si>
+    <t>FireTowerDizzyOrb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerDizzyOrb2</t>
+  </si>
+  <si>
+    <t>水球塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerDizzyOrb2</t>
+  </si>
+  <si>
+    <t>FireTowerDizzyOrb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerDizzyOrb3</t>
+  </si>
+  <si>
+    <t>水球塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerDizzyOrb3</t>
+  </si>
+  <si>
+    <t>FireTowerTesla1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerTesla1</t>
+  </si>
+  <si>
+    <t>电磁塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerTesla1</t>
+  </si>
+  <si>
+    <t>FireTowerTesla2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerTesla2</t>
+  </si>
+  <si>
+    <t>电磁塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerTesla2</t>
+  </si>
+  <si>
+    <t>FireTowerTesla3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerTesla3</t>
+  </si>
+  <si>
+    <t>电磁塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerTesla3</t>
+  </si>
+  <si>
+    <t>FireTowerCritTotem1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerCritTotem1</t>
+  </si>
+  <si>
+    <t>暴击图腾开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerCritTotem1</t>
+  </si>
+  <si>
+    <t>FireTowerCritTotem2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerCritTotem2</t>
+  </si>
+  <si>
+    <t>暴击图腾开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerCritTotem2</t>
+  </si>
+  <si>
+    <t>FireTowerCritTotem3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerCritTotem3</t>
+  </si>
+  <si>
+    <t>暴击图腾开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerCritTotem3</t>
+  </si>
+  <si>
+    <t>FireTowerHellFire1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerHellFire1</t>
+  </si>
+  <si>
+    <t>奥术精灵开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerHellFire1</t>
+  </si>
+  <si>
+    <t>FireTowerHellFire2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerHellFire2</t>
+  </si>
+  <si>
+    <t>奥术精灵开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerHellFire2</t>
+  </si>
+  <si>
+    <t>FireTowerHellFire3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerHellFire3</t>
+  </si>
+  <si>
+    <t>奥术精灵开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerHellFire3</t>
+  </si>
+  <si>
+    <t>FireTowerOvercharge1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerOvercharge1</t>
+  </si>
+  <si>
+    <t>连击斧开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerOvercharge1</t>
+  </si>
+  <si>
+    <t>FireTowerOvercharge2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerOvercharge2</t>
+  </si>
+  <si>
+    <t>连击斧开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerOvercharge2</t>
+  </si>
+  <si>
+    <t>FireTowerOvercharge3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerOvercharge3</t>
+  </si>
+  <si>
+    <t>连击斧开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerOvercharge3</t>
+  </si>
+  <si>
+    <t>FireTowerAmplifyCurse1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerAmplifyCurse1</t>
+  </si>
+  <si>
+    <t>灾厄塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerAmplifyCurse1</t>
+  </si>
+  <si>
+    <t>FireTowerAmplifyCurse2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerAmplifyCurse2</t>
+  </si>
+  <si>
+    <t>灾厄塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerAmplifyCurse2</t>
+  </si>
+  <si>
+    <t>FireTowerAmplifyCurse3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerAmplifyCurse3</t>
+  </si>
+  <si>
+    <t>灾厄塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerAmplifyCurse3</t>
+  </si>
+  <si>
+    <t>FireTowerThief1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerThief1</t>
+  </si>
+  <si>
+    <t>窃贼哥布林开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerThief1</t>
+  </si>
+  <si>
+    <t>FireTowerThief2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerThief2</t>
+  </si>
+  <si>
+    <t>窃贼哥布林开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerThief2</t>
+  </si>
+  <si>
+    <t>FireTowerThief3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerThief3</t>
+  </si>
+  <si>
+    <t>窃贼哥布林开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerThief3</t>
+  </si>
+  <si>
+    <t>FireTowerSting1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerSting1</t>
+  </si>
+  <si>
+    <t>鱼刺塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerSting1</t>
+  </si>
+  <si>
+    <t>FireTowerSting2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerSting2</t>
+  </si>
+  <si>
+    <t>鱼刺塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerSting2</t>
+  </si>
+  <si>
+    <t>FireTowerSting3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerSting3</t>
+  </si>
+  <si>
+    <t>鱼刺塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerSting3</t>
+  </si>
+  <si>
+    <t>FireTowerRocket1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerRocket1</t>
+  </si>
+  <si>
+    <t>火箭塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerRocket1</t>
+  </si>
+  <si>
+    <t>FireTowerRocket2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerRocket2</t>
+  </si>
+  <si>
+    <t>火箭塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerRocket2</t>
+  </si>
+  <si>
+    <t>FireTowerRocket3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerRocket3</t>
+  </si>
+  <si>
+    <t>火箭塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerRocket3</t>
+  </si>
+  <si>
+    <t>FireTowerFireOrb1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFireOrb1</t>
+  </si>
+  <si>
+    <t>火球塔开火音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFireOrb1</t>
+  </si>
+  <si>
+    <t>FireTowerFireOrb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFireOrb2</t>
+  </si>
+  <si>
+    <t>火球塔开火音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFireOrb2</t>
+  </si>
+  <si>
+    <t>FireTowerFireOrb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFireOrb3</t>
+  </si>
+  <si>
+    <t>火球塔开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFireOrb3</t>
+  </si>
+  <si>
+    <t>HitTowerArrow1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerArrow1</t>
+  </si>
+  <si>
+    <t>弩箭塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerArrow1</t>
+  </si>
+  <si>
+    <t>HitTowerArrow2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerArrow2</t>
+  </si>
+  <si>
+    <t>弩箭塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerArrow2</t>
+  </si>
+  <si>
+    <t>HitTowerArrow3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerArrow3</t>
+  </si>
+  <si>
+    <t>弩箭塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerArrow3</t>
+  </si>
+  <si>
+    <t>HitTowerCannon1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerCannon1</t>
+  </si>
+  <si>
+    <t>加农炮命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerCannon1</t>
+  </si>
+  <si>
+    <t>HitTowerCannon2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerCannon2</t>
+  </si>
+  <si>
+    <t>加农炮命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerCannon2</t>
+  </si>
+  <si>
+    <t>HitTowerCannon3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerCannon3</t>
+  </si>
+  <si>
+    <t>加农炮命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerCannon3</t>
+  </si>
+  <si>
+    <t>HitTowerFlame1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFlame1</t>
+  </si>
+  <si>
+    <t>火焰塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFlame1</t>
+  </si>
+  <si>
+    <t>HitTowerFlame2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFlame2</t>
+  </si>
+  <si>
+    <t>火焰塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFlame2</t>
+  </si>
+  <si>
+    <t>HitTowerFlame3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFlame3</t>
+  </si>
+  <si>
+    <t>火焰塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFlame3</t>
+  </si>
+  <si>
+    <t>HitTowerToxMist1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerToxMist1</t>
+  </si>
+  <si>
+    <t>毒雾塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerToxMist1</t>
+  </si>
+  <si>
+    <t>HitTowerToxMist2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerToxMist2</t>
+  </si>
+  <si>
+    <t>毒雾塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerToxMist2</t>
+  </si>
+  <si>
+    <t>HitTowerToxMist3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerToxMist3</t>
+  </si>
+  <si>
+    <t>毒雾塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerToxMist3</t>
+  </si>
+  <si>
+    <t>HitTowerDragon1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerDragon1</t>
+  </si>
+  <si>
+    <t>龙击炮命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerDragon1</t>
+  </si>
+  <si>
+    <t>HitTowerDragon2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerDragon2</t>
+  </si>
+  <si>
+    <t>龙击炮命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerDragon2</t>
+  </si>
+  <si>
+    <t>HitTowerDragon3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerDragon3</t>
+  </si>
+  <si>
+    <t>龙击炮命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerDragon3</t>
+  </si>
+  <si>
+    <t>HitTowerThunder1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerThunder1</t>
+  </si>
+  <si>
+    <t>雷电塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerThunder1</t>
+  </si>
+  <si>
+    <t>HitTowerThunder2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerThunder2</t>
+  </si>
+  <si>
+    <t>雷电塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerThunder2</t>
+  </si>
+  <si>
+    <t>HitTowerThunder3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerThunder3</t>
+  </si>
+  <si>
+    <t>雷电塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerThunder3</t>
+  </si>
+  <si>
+    <t>HitTowerIce1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerIce1</t>
+  </si>
+  <si>
+    <t>冰魔塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerIce1</t>
+  </si>
+  <si>
+    <t>HitTowerIce2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerIce2</t>
+  </si>
+  <si>
+    <t>冰魔塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerIce2</t>
+  </si>
+  <si>
+    <t>HitTowerIce3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerIce3</t>
+  </si>
+  <si>
+    <t>冰魔塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerIce3</t>
+  </si>
+  <si>
+    <t>HitTowerTimeSwift1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerTimeSwift1</t>
+  </si>
+  <si>
+    <t>加速塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerTimeSwift1</t>
+  </si>
+  <si>
+    <t>HitTowerTimeSwift2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerTimeSwift2</t>
+  </si>
+  <si>
+    <t>加速塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerTimeSwift2</t>
+  </si>
+  <si>
+    <t>HitTowerTimeSwift3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerTimeSwift3</t>
+  </si>
+  <si>
+    <t>加速塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerTimeSwift3</t>
+  </si>
+  <si>
+    <t>HitTowerMystOrb1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerMystOrb1</t>
+  </si>
+  <si>
+    <t>奥术天球命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerMystOrb1</t>
+  </si>
+  <si>
+    <t>HitTowerMystOrb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerMystOrb2</t>
+  </si>
+  <si>
+    <t>奥术天球命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerMystOrb2</t>
+  </si>
+  <si>
+    <t>HitTowerMystOrb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerMystOrb3</t>
+  </si>
+  <si>
+    <t>奥术天球命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerMystOrb3</t>
+  </si>
+  <si>
+    <t>HitTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>炼金塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>HitTowerAlchemy2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerAlchemy2</t>
+  </si>
+  <si>
+    <t>炼金塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerAlchemy2</t>
+  </si>
+  <si>
+    <t>HitTowerAlchemy3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerAlchemy3</t>
+  </si>
+  <si>
+    <t>炼金塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerAlchemy3</t>
+  </si>
+  <si>
+    <t>HitTowerScorpio1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerScorpio1</t>
+  </si>
+  <si>
+    <t>毒蝎塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerScorpio1</t>
+  </si>
+  <si>
+    <t>HitTowerScorpio2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerScorpio2</t>
+  </si>
+  <si>
+    <t>毒蝎塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerScorpio2</t>
+  </si>
+  <si>
+    <t>HitTowerScorpio3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerScorpio3</t>
+  </si>
+  <si>
+    <t>毒蝎塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerScorpio3</t>
+  </si>
+  <si>
+    <t>HitTowerBreaker1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBreaker1</t>
+  </si>
+  <si>
+    <t>破甲诅咒命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBreaker1</t>
+  </si>
+  <si>
+    <t>HitTowerBreaker2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBreaker2</t>
+  </si>
+  <si>
+    <t>破甲诅咒命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBreaker2</t>
+  </si>
+  <si>
+    <t>HitTowerBreaker3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBreaker3</t>
+  </si>
+  <si>
+    <t>破甲诅咒命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBreaker3</t>
+  </si>
+  <si>
+    <t>HitTowerEnchanter1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerEnchanter1</t>
+  </si>
+  <si>
+    <t>附魔塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerEnchanter1</t>
+  </si>
+  <si>
+    <t>HitTowerEnchanter2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerEnchanter2</t>
+  </si>
+  <si>
+    <t>附魔塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerEnchanter2</t>
+  </si>
+  <si>
+    <t>HitTowerEnchanter3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerEnchanter3</t>
+  </si>
+  <si>
+    <t>附魔塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerEnchanter3</t>
+  </si>
+  <si>
+    <t>HitTowerIceArrow1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerIceArrow1</t>
+  </si>
+  <si>
+    <t>冰刺箭命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerIceArrow1</t>
+  </si>
+  <si>
+    <t>HitTowerIceArrow2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerIceArrow2</t>
+  </si>
+  <si>
+    <t>冰刺箭命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerIceArrow2</t>
+  </si>
+  <si>
+    <t>HitTowerIceArrow3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerIceArrow3</t>
+  </si>
+  <si>
+    <t>冰刺箭命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerIceArrow3</t>
+  </si>
+  <si>
+    <t>HitTowerDizzyOrb1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerDizzyOrb1</t>
+  </si>
+  <si>
+    <t>水球塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerDizzyOrb1</t>
+  </si>
+  <si>
+    <t>HitTowerDizzyOrb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerDizzyOrb2</t>
+  </si>
+  <si>
+    <t>水球塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerDizzyOrb2</t>
+  </si>
+  <si>
+    <t>HitTowerDizzyOrb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerDizzyOrb3</t>
+  </si>
+  <si>
+    <t>水球塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerDizzyOrb3</t>
+  </si>
+  <si>
+    <t>HitTowerTesla1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerTesla1</t>
+  </si>
+  <si>
+    <t>电磁塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerTesla1</t>
+  </si>
+  <si>
+    <t>HitTowerTesla2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerTesla2</t>
+  </si>
+  <si>
+    <t>电磁塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerTesla2</t>
+  </si>
+  <si>
+    <t>HitTowerTesla3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerTesla3</t>
+  </si>
+  <si>
+    <t>电磁塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerTesla3</t>
+  </si>
+  <si>
+    <t>HitTowerCritTotem1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerCritTotem1</t>
+  </si>
+  <si>
+    <t>暴击图腾命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerCritTotem1</t>
+  </si>
+  <si>
+    <t>HitTowerCritTotem2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerCritTotem2</t>
+  </si>
+  <si>
+    <t>暴击图腾命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerCritTotem2</t>
+  </si>
+  <si>
+    <t>HitTowerCritTotem3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerCritTotem3</t>
+  </si>
+  <si>
+    <t>暴击图腾命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerCritTotem3</t>
+  </si>
+  <si>
+    <t>HitTowerHellFire1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerHellFire1</t>
+  </si>
+  <si>
+    <t>奥术精灵命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerHellFire1</t>
+  </si>
+  <si>
+    <t>HitTowerHellFire2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerHellFire2</t>
+  </si>
+  <si>
+    <t>奥术精灵命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerHellFire2</t>
+  </si>
+  <si>
+    <t>HitTowerHellFire3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerHellFire3</t>
+  </si>
+  <si>
+    <t>奥术精灵命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerHellFire3</t>
+  </si>
+  <si>
+    <t>HitTowerOvercharge1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerOvercharge1</t>
+  </si>
+  <si>
+    <t>连击斧命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerOvercharge1</t>
+  </si>
+  <si>
+    <t>HitTowerOvercharge2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerOvercharge2</t>
+  </si>
+  <si>
+    <t>连击斧命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerOvercharge2</t>
+  </si>
+  <si>
+    <t>HitTowerOvercharge3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerOvercharge3</t>
+  </si>
+  <si>
+    <t>连击斧命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerOvercharge3</t>
+  </si>
+  <si>
+    <t>HitTowerAmplifyCurse1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerAmplifyCurse1</t>
+  </si>
+  <si>
+    <t>灾厄塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerAmplifyCurse1</t>
+  </si>
+  <si>
+    <t>HitTowerAmplifyCurse2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerAmplifyCurse2</t>
+  </si>
+  <si>
+    <t>灾厄塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerAmplifyCurse2</t>
+  </si>
+  <si>
+    <t>HitTowerAmplifyCurse3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerAmplifyCurse3</t>
+  </si>
+  <si>
+    <t>灾厄塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerAmplifyCurse3</t>
+  </si>
+  <si>
+    <t>HitTowerThief1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerThief1</t>
+  </si>
+  <si>
+    <t>窃贼哥布林命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerThief1</t>
+  </si>
+  <si>
+    <t>HitTowerThief2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerThief2</t>
+  </si>
+  <si>
+    <t>窃贼哥布林命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerThief2</t>
+  </si>
+  <si>
+    <t>HitTowerThief3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerThief3</t>
+  </si>
+  <si>
+    <t>窃贼哥布林命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerThief3</t>
+  </si>
+  <si>
+    <t>HitTowerSting1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerSting1</t>
+  </si>
+  <si>
+    <t>鱼刺塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerSting1</t>
+  </si>
+  <si>
+    <t>HitTowerSting2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerSting2</t>
+  </si>
+  <si>
+    <t>鱼刺塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerSting2</t>
+  </si>
+  <si>
+    <t>HitTowerSting3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerSting3</t>
+  </si>
+  <si>
+    <t>鱼刺塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerSting3</t>
+  </si>
+  <si>
+    <t>HitTowerRocket1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerRocket1</t>
+  </si>
+  <si>
+    <t>火箭塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerRocket1</t>
+  </si>
+  <si>
+    <t>HitTowerRocket2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerRocket2</t>
+  </si>
+  <si>
+    <t>火箭塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerRocket2</t>
+  </si>
+  <si>
+    <t>HitTowerRocket3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerRocket3</t>
+  </si>
+  <si>
+    <t>火箭塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerRocket3</t>
+  </si>
+  <si>
+    <t>HitTowerFireOrb1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFireOrb1</t>
+  </si>
+  <si>
+    <t>火球塔命中音效1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFireOrb1</t>
+  </si>
+  <si>
+    <t>HitTowerFireOrb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFireOrb2</t>
+  </si>
+  <si>
+    <t>火球塔命中音效2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFireOrb2</t>
+  </si>
+  <si>
+    <t>HitTowerFireOrb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFireOrb3</t>
+  </si>
+  <si>
+    <t>火球塔命中音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFireOrb3</t>
+  </si>
+  <si>
+    <t>弩箭开火音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农开火音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰塔开火音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔开火音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossAppear</t>
+  </si>
+  <si>
+    <t>播放boss出场音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_BossAppear</t>
   </si>
 </sst>
 </file>
@@ -315,15 +2063,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -332,6 +2073,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -393,32 +2141,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,24 +2442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,16 +2476,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
@@ -752,7 +2504,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -782,32 +2534,32 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -826,16 +2578,16 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -858,32 +2610,32 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -902,9 +2654,9 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>15</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -913,165 +2665,3937 @@
         <f>B6&amp;"_"&amp;C6</f>
         <v>PlayAudio_1</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>PlayAudio_dead</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>PlayAudio_solo</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D11" si="0">B9&amp;"_"&amp;C9</f>
+        <f t="shared" ref="D9:D12" si="0">B9&amp;"_"&amp;C9</f>
         <v>PlayAudio_aoe</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="E9" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7">
         <v>3</v>
       </c>
-      <c r="J9" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
+      <c r="J9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>PlayAudio_line</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="E10" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7">
         <v>-1</v>
       </c>
-      <c r="J10" s="8" t="b">
+      <c r="J10" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>PlayAudio_circle</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>617</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAudio_BossAppear</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>619</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="8">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="8" t="b">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2</v>
+      </c>
+      <c r="J25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2</v>
+      </c>
+      <c r="J27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2</v>
+      </c>
+      <c r="J29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2</v>
+      </c>
+      <c r="J32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="7">
+        <v>2</v>
+      </c>
+      <c r="J38" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2</v>
+      </c>
+      <c r="J39" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2</v>
+      </c>
+      <c r="J41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>152</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2</v>
+      </c>
+      <c r="J42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2</v>
+      </c>
+      <c r="J43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2</v>
+      </c>
+      <c r="J44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" s="7">
+        <v>2</v>
+      </c>
+      <c r="J45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2</v>
+      </c>
+      <c r="J46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>180</v>
+      </c>
+      <c r="I49" s="7">
+        <v>2</v>
+      </c>
+      <c r="J49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2</v>
+      </c>
+      <c r="J50" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>188</v>
+      </c>
+      <c r="I51" s="7">
+        <v>2</v>
+      </c>
+      <c r="J51" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>192</v>
+      </c>
+      <c r="I52" s="7">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="7">
+        <v>2</v>
+      </c>
+      <c r="J53" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2</v>
+      </c>
+      <c r="J54" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>204</v>
+      </c>
+      <c r="I55" s="7">
+        <v>2</v>
+      </c>
+      <c r="J55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" s="7">
+        <v>2</v>
+      </c>
+      <c r="J56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" t="s">
+        <v>211</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" s="7">
+        <v>2</v>
+      </c>
+      <c r="J57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2</v>
+      </c>
+      <c r="J58" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2</v>
+      </c>
+      <c r="J59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="7">
+        <v>2</v>
+      </c>
+      <c r="J60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="7">
+        <v>2</v>
+      </c>
+      <c r="J61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2</v>
+      </c>
+      <c r="J62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>235</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63" s="7">
+        <v>2</v>
+      </c>
+      <c r="J63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>240</v>
+      </c>
+      <c r="I64" s="7">
+        <v>2</v>
+      </c>
+      <c r="J64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>244</v>
+      </c>
+      <c r="I65" s="7">
+        <v>2</v>
+      </c>
+      <c r="J65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>248</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2</v>
+      </c>
+      <c r="J66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>252</v>
+      </c>
+      <c r="I67" s="7">
+        <v>2</v>
+      </c>
+      <c r="J67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" t="s">
+        <v>255</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" s="7">
+        <v>2</v>
+      </c>
+      <c r="J68" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>260</v>
+      </c>
+      <c r="I69" s="7">
+        <v>2</v>
+      </c>
+      <c r="J69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>264</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72" t="s">
+        <v>271</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>272</v>
+      </c>
+      <c r="I72" s="7">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>276</v>
+      </c>
+      <c r="I73" s="7">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" t="s">
+        <v>279</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>280</v>
+      </c>
+      <c r="I74" s="7">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" t="s">
+        <v>283</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>284</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" t="s">
+        <v>287</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2</v>
+      </c>
+      <c r="J76" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" t="s">
+        <v>291</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" s="7">
+        <v>2</v>
+      </c>
+      <c r="J77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>296</v>
+      </c>
+      <c r="I78" s="7">
+        <v>2</v>
+      </c>
+      <c r="J78" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" t="s">
+        <v>299</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2</v>
+      </c>
+      <c r="J79" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E80" t="s">
+        <v>303</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" s="7">
+        <v>2</v>
+      </c>
+      <c r="J80" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
+        <v>306</v>
+      </c>
+      <c r="E81" t="s">
+        <v>307</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>308</v>
+      </c>
+      <c r="I81" s="7">
+        <v>2</v>
+      </c>
+      <c r="J81" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>312</v>
+      </c>
+      <c r="I82" s="7">
+        <v>2</v>
+      </c>
+      <c r="J82" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" t="s">
+        <v>314</v>
+      </c>
+      <c r="E83" t="s">
+        <v>315</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>316</v>
+      </c>
+      <c r="I83" s="7">
+        <v>2</v>
+      </c>
+      <c r="J83" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" t="s">
+        <v>319</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>320</v>
+      </c>
+      <c r="I84" s="7">
+        <v>2</v>
+      </c>
+      <c r="J84" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="D85" t="s">
+        <v>322</v>
+      </c>
+      <c r="E85" t="s">
+        <v>323</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>324</v>
+      </c>
+      <c r="I85" s="7">
+        <v>2</v>
+      </c>
+      <c r="J85" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" t="s">
+        <v>326</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>328</v>
+      </c>
+      <c r="I87" s="7">
+        <v>2</v>
+      </c>
+      <c r="J87" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>332</v>
+      </c>
+      <c r="I88" s="7">
+        <v>2</v>
+      </c>
+      <c r="J88" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>336</v>
+      </c>
+      <c r="I89" s="7">
+        <v>2</v>
+      </c>
+      <c r="J89" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>340</v>
+      </c>
+      <c r="I90" s="7">
+        <v>2</v>
+      </c>
+      <c r="J90" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" t="s">
+        <v>342</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" s="7">
+        <v>2</v>
+      </c>
+      <c r="J91" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>345</v>
+      </c>
+      <c r="D92" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>348</v>
+      </c>
+      <c r="I92" s="7">
+        <v>2</v>
+      </c>
+      <c r="J92" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>352</v>
+      </c>
+      <c r="I93" s="7">
+        <v>2</v>
+      </c>
+      <c r="J93" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>356</v>
+      </c>
+      <c r="I94" s="7">
+        <v>2</v>
+      </c>
+      <c r="J94" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>357</v>
+      </c>
+      <c r="D95" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>360</v>
+      </c>
+      <c r="I95" s="7">
+        <v>2</v>
+      </c>
+      <c r="J95" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" t="s">
+        <v>362</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>364</v>
+      </c>
+      <c r="I96" s="7">
+        <v>2</v>
+      </c>
+      <c r="J96" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>368</v>
+      </c>
+      <c r="I97" s="7">
+        <v>2</v>
+      </c>
+      <c r="J97" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>369</v>
+      </c>
+      <c r="D98" t="s">
+        <v>370</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>372</v>
+      </c>
+      <c r="I98" s="7">
+        <v>2</v>
+      </c>
+      <c r="J98" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" t="s">
+        <v>374</v>
+      </c>
+      <c r="E99" t="s">
+        <v>375</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>376</v>
+      </c>
+      <c r="I99" s="7">
+        <v>2</v>
+      </c>
+      <c r="J99" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>377</v>
+      </c>
+      <c r="D100" t="s">
+        <v>378</v>
+      </c>
+      <c r="E100" t="s">
+        <v>379</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>380</v>
+      </c>
+      <c r="I100" s="7">
+        <v>2</v>
+      </c>
+      <c r="J100" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>381</v>
+      </c>
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" t="s">
+        <v>383</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>384</v>
+      </c>
+      <c r="I101" s="7">
+        <v>2</v>
+      </c>
+      <c r="J101" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>388</v>
+      </c>
+      <c r="I102" s="7">
+        <v>2</v>
+      </c>
+      <c r="J102" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" t="s">
+        <v>390</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>392</v>
+      </c>
+      <c r="I103" s="7">
+        <v>2</v>
+      </c>
+      <c r="J103" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" t="s">
+        <v>394</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>396</v>
+      </c>
+      <c r="I104" s="7">
+        <v>2</v>
+      </c>
+      <c r="J104" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>397</v>
+      </c>
+      <c r="D105" t="s">
+        <v>398</v>
+      </c>
+      <c r="E105" t="s">
+        <v>399</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>400</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2</v>
+      </c>
+      <c r="J105" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>401</v>
+      </c>
+      <c r="D106" t="s">
+        <v>402</v>
+      </c>
+      <c r="E106" t="s">
+        <v>403</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>404</v>
+      </c>
+      <c r="I106" s="7">
+        <v>2</v>
+      </c>
+      <c r="J106" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" t="s">
+        <v>407</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>408</v>
+      </c>
+      <c r="I107" s="7">
+        <v>2</v>
+      </c>
+      <c r="J107" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="s">
+        <v>409</v>
+      </c>
+      <c r="D108" t="s">
+        <v>410</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>412</v>
+      </c>
+      <c r="I108" s="7">
+        <v>2</v>
+      </c>
+      <c r="J108" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>413</v>
+      </c>
+      <c r="D109" t="s">
+        <v>414</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>416</v>
+      </c>
+      <c r="I109" s="7">
+        <v>2</v>
+      </c>
+      <c r="J109" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" t="s">
+        <v>417</v>
+      </c>
+      <c r="D110" t="s">
+        <v>418</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>420</v>
+      </c>
+      <c r="I110" s="7">
+        <v>2</v>
+      </c>
+      <c r="J110" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
+        <v>421</v>
+      </c>
+      <c r="D111" t="s">
+        <v>422</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>424</v>
+      </c>
+      <c r="I111" s="7">
+        <v>2</v>
+      </c>
+      <c r="J111" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s">
+        <v>425</v>
+      </c>
+      <c r="D112" t="s">
+        <v>426</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>428</v>
+      </c>
+      <c r="I112" s="7">
+        <v>2</v>
+      </c>
+      <c r="J112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>429</v>
+      </c>
+      <c r="D113" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>432</v>
+      </c>
+      <c r="I113" s="7">
+        <v>2</v>
+      </c>
+      <c r="J113" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>433</v>
+      </c>
+      <c r="D114" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>436</v>
+      </c>
+      <c r="I114" s="7">
+        <v>2</v>
+      </c>
+      <c r="J114" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>440</v>
+      </c>
+      <c r="I115" s="7">
+        <v>2</v>
+      </c>
+      <c r="J115" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" t="s">
+        <v>441</v>
+      </c>
+      <c r="D116" t="s">
+        <v>442</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>444</v>
+      </c>
+      <c r="I116" s="7">
+        <v>2</v>
+      </c>
+      <c r="J116" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>445</v>
+      </c>
+      <c r="D117" t="s">
+        <v>446</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>448</v>
+      </c>
+      <c r="I117" s="7">
+        <v>2</v>
+      </c>
+      <c r="J117" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>449</v>
+      </c>
+      <c r="D118" t="s">
+        <v>450</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>452</v>
+      </c>
+      <c r="I118" s="7">
+        <v>2</v>
+      </c>
+      <c r="J118" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>453</v>
+      </c>
+      <c r="D119" t="s">
+        <v>454</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>456</v>
+      </c>
+      <c r="I119" s="7">
+        <v>2</v>
+      </c>
+      <c r="J119" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>457</v>
+      </c>
+      <c r="D120" t="s">
+        <v>458</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>460</v>
+      </c>
+      <c r="I120" s="7">
+        <v>2</v>
+      </c>
+      <c r="J120" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s">
+        <v>461</v>
+      </c>
+      <c r="D121" t="s">
+        <v>462</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>464</v>
+      </c>
+      <c r="I121" s="7">
+        <v>2</v>
+      </c>
+      <c r="J121" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" t="s">
+        <v>466</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>468</v>
+      </c>
+      <c r="I122" s="7">
+        <v>2</v>
+      </c>
+      <c r="J122" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>469</v>
+      </c>
+      <c r="D123" t="s">
+        <v>470</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>472</v>
+      </c>
+      <c r="I123" s="7">
+        <v>2</v>
+      </c>
+      <c r="J123" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>473</v>
+      </c>
+      <c r="D124" t="s">
+        <v>474</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>476</v>
+      </c>
+      <c r="I124" s="7">
+        <v>2</v>
+      </c>
+      <c r="J124" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>477</v>
+      </c>
+      <c r="D125" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>480</v>
+      </c>
+      <c r="I125" s="7">
+        <v>2</v>
+      </c>
+      <c r="J125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>481</v>
+      </c>
+      <c r="D126" t="s">
+        <v>482</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>484</v>
+      </c>
+      <c r="I126" s="7">
+        <v>2</v>
+      </c>
+      <c r="J126" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" t="s">
+        <v>485</v>
+      </c>
+      <c r="D127" t="s">
+        <v>486</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>488</v>
+      </c>
+      <c r="I127" s="7">
+        <v>2</v>
+      </c>
+      <c r="J127" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>489</v>
+      </c>
+      <c r="D128" t="s">
+        <v>490</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>492</v>
+      </c>
+      <c r="I128" s="7">
+        <v>2</v>
+      </c>
+      <c r="J128" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" t="s">
+        <v>493</v>
+      </c>
+      <c r="D129" t="s">
+        <v>494</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>496</v>
+      </c>
+      <c r="I129" s="7">
+        <v>2</v>
+      </c>
+      <c r="J129" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" t="s">
+        <v>497</v>
+      </c>
+      <c r="D130" t="s">
+        <v>498</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>500</v>
+      </c>
+      <c r="I130" s="7">
+        <v>2</v>
+      </c>
+      <c r="J130" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" t="s">
+        <v>501</v>
+      </c>
+      <c r="D131" t="s">
+        <v>502</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>504</v>
+      </c>
+      <c r="I131" s="7">
+        <v>2</v>
+      </c>
+      <c r="J131" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" t="s">
+        <v>505</v>
+      </c>
+      <c r="D132" t="s">
+        <v>506</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>508</v>
+      </c>
+      <c r="I132" s="7">
+        <v>2</v>
+      </c>
+      <c r="J132" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" t="s">
+        <v>510</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>512</v>
+      </c>
+      <c r="I133" s="7">
+        <v>2</v>
+      </c>
+      <c r="J133" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>513</v>
+      </c>
+      <c r="D134" t="s">
+        <v>514</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>516</v>
+      </c>
+      <c r="I134" s="7">
+        <v>2</v>
+      </c>
+      <c r="J134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>517</v>
+      </c>
+      <c r="D135" t="s">
+        <v>518</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>520</v>
+      </c>
+      <c r="I135" s="7">
+        <v>2</v>
+      </c>
+      <c r="J135" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" t="s">
+        <v>521</v>
+      </c>
+      <c r="D136" t="s">
+        <v>522</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>524</v>
+      </c>
+      <c r="I136" s="7">
+        <v>2</v>
+      </c>
+      <c r="J136" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>525</v>
+      </c>
+      <c r="D137" t="s">
+        <v>526</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>528</v>
+      </c>
+      <c r="I137" s="7">
+        <v>2</v>
+      </c>
+      <c r="J137" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>529</v>
+      </c>
+      <c r="D138" t="s">
+        <v>530</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>532</v>
+      </c>
+      <c r="I138" s="7">
+        <v>2</v>
+      </c>
+      <c r="J138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>533</v>
+      </c>
+      <c r="D139" t="s">
+        <v>534</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>536</v>
+      </c>
+      <c r="I139" s="7">
+        <v>2</v>
+      </c>
+      <c r="J139" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" t="s">
+        <v>537</v>
+      </c>
+      <c r="D140" t="s">
+        <v>538</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>540</v>
+      </c>
+      <c r="I140" s="7">
+        <v>2</v>
+      </c>
+      <c r="J140" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>541</v>
+      </c>
+      <c r="D141" t="s">
+        <v>542</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>544</v>
+      </c>
+      <c r="I141" s="7">
+        <v>2</v>
+      </c>
+      <c r="J141" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" t="s">
+        <v>545</v>
+      </c>
+      <c r="D142" t="s">
+        <v>546</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>548</v>
+      </c>
+      <c r="I142" s="7">
+        <v>2</v>
+      </c>
+      <c r="J142" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>549</v>
+      </c>
+      <c r="D143" t="s">
+        <v>550</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>552</v>
+      </c>
+      <c r="I143" s="7">
+        <v>2</v>
+      </c>
+      <c r="J143" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>553</v>
+      </c>
+      <c r="D144" t="s">
+        <v>554</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>556</v>
+      </c>
+      <c r="I144" s="7">
+        <v>2</v>
+      </c>
+      <c r="J144" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>557</v>
+      </c>
+      <c r="D145" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>560</v>
+      </c>
+      <c r="I145" s="7">
+        <v>2</v>
+      </c>
+      <c r="J145" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>561</v>
+      </c>
+      <c r="D146" t="s">
+        <v>562</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>564</v>
+      </c>
+      <c r="I146" s="7">
+        <v>2</v>
+      </c>
+      <c r="J146" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>565</v>
+      </c>
+      <c r="D147" t="s">
+        <v>566</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>568</v>
+      </c>
+      <c r="I147" s="7">
+        <v>2</v>
+      </c>
+      <c r="J147" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" t="s">
+        <v>569</v>
+      </c>
+      <c r="D148" t="s">
+        <v>570</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>572</v>
+      </c>
+      <c r="I148" s="7">
+        <v>2</v>
+      </c>
+      <c r="J148" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>573</v>
+      </c>
+      <c r="D149" t="s">
+        <v>574</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>576</v>
+      </c>
+      <c r="I149" s="7">
+        <v>2</v>
+      </c>
+      <c r="J149" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" t="s">
+        <v>577</v>
+      </c>
+      <c r="D150" t="s">
+        <v>578</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>580</v>
+      </c>
+      <c r="I150" s="7">
+        <v>2</v>
+      </c>
+      <c r="J150" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" t="s">
+        <v>581</v>
+      </c>
+      <c r="D151" t="s">
+        <v>582</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>584</v>
+      </c>
+      <c r="I151" s="7">
+        <v>2</v>
+      </c>
+      <c r="J151" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" t="s">
+        <v>585</v>
+      </c>
+      <c r="D152" t="s">
+        <v>586</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>588</v>
+      </c>
+      <c r="I152" s="7">
+        <v>2</v>
+      </c>
+      <c r="J152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" t="s">
+        <v>589</v>
+      </c>
+      <c r="D153" t="s">
+        <v>590</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>592</v>
+      </c>
+      <c r="I153" s="7">
+        <v>2</v>
+      </c>
+      <c r="J153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" t="s">
+        <v>593</v>
+      </c>
+      <c r="D154" t="s">
+        <v>594</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>596</v>
+      </c>
+      <c r="I154" s="7">
+        <v>2</v>
+      </c>
+      <c r="J154" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D155" t="s">
+        <v>598</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>600</v>
+      </c>
+      <c r="I155" s="7">
+        <v>2</v>
+      </c>
+      <c r="J155" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" t="s">
+        <v>601</v>
+      </c>
+      <c r="D156" t="s">
+        <v>602</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>604</v>
+      </c>
+      <c r="I156" s="7">
+        <v>2</v>
+      </c>
+      <c r="J156" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>605</v>
+      </c>
+      <c r="D157" t="s">
+        <v>606</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>608</v>
+      </c>
+      <c r="I157" s="7">
+        <v>2</v>
+      </c>
+      <c r="J157" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>609</v>
+      </c>
+      <c r="D158" t="s">
+        <v>610</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>612</v>
+      </c>
+      <c r="I158" s="7">
+        <v>2</v>
+      </c>
+      <c r="J158" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC15DC75-566E-4733-9552-D8044DF90337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A302F7-E666-4ADB-BDB0-195CD5FB0E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="638">
   <si>
     <t>##var</t>
   </si>
@@ -2032,6 +2032,66 @@
   </si>
   <si>
     <t>ResAudio_BossAppear</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>炸弹开火音效1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹开火音效2</t>
+  </si>
+  <si>
+    <t>炸弹开火音效3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>炸弹命中音效1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹命中音效2</t>
+  </si>
+  <si>
+    <t>炸弹命中音效3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBomb3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBomb3</t>
   </si>
 </sst>
 </file>
@@ -2442,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86:I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2676,7 +2736,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="7" t="b">
         <v>0</v>
@@ -2704,7 +2764,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="7" t="b">
         <v>0</v>
@@ -2732,7 +2792,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="7" t="b">
         <v>0</v>
@@ -2870,7 +2930,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="7" t="b">
         <v>0</v>
@@ -2896,7 +2956,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="7" t="b">
         <v>0</v>
@@ -2922,7 +2982,7 @@
         <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="7" t="b">
         <v>0</v>
@@ -2948,7 +3008,7 @@
         <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="7" t="b">
         <v>0</v>
@@ -2974,7 +3034,7 @@
         <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="7" t="b">
         <v>0</v>
@@ -3000,7 +3060,7 @@
         <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="7" t="b">
         <v>0</v>
@@ -3026,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="7" t="b">
         <v>0</v>
@@ -3052,7 +3112,7 @@
         <v>68</v>
       </c>
       <c r="I21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="7" t="b">
         <v>0</v>
@@ -3078,7 +3138,7 @@
         <v>72</v>
       </c>
       <c r="I22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="7" t="b">
         <v>0</v>
@@ -3104,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="I23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="7" t="b">
         <v>0</v>
@@ -3130,7 +3190,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="7" t="b">
         <v>0</v>
@@ -3156,7 +3216,7 @@
         <v>84</v>
       </c>
       <c r="I25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="7" t="b">
         <v>0</v>
@@ -3182,7 +3242,7 @@
         <v>88</v>
       </c>
       <c r="I26" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="7" t="b">
         <v>0</v>
@@ -3208,7 +3268,7 @@
         <v>92</v>
       </c>
       <c r="I27" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="7" t="b">
         <v>0</v>
@@ -3234,7 +3294,7 @@
         <v>96</v>
       </c>
       <c r="I28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="7" t="b">
         <v>0</v>
@@ -3260,7 +3320,7 @@
         <v>100</v>
       </c>
       <c r="I29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="7" t="b">
         <v>0</v>
@@ -3286,7 +3346,7 @@
         <v>104</v>
       </c>
       <c r="I30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="7" t="b">
         <v>0</v>
@@ -3312,7 +3372,7 @@
         <v>108</v>
       </c>
       <c r="I31" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" s="7" t="b">
         <v>0</v>
@@ -3338,7 +3398,7 @@
         <v>112</v>
       </c>
       <c r="I32" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" s="7" t="b">
         <v>0</v>
@@ -3364,7 +3424,7 @@
         <v>116</v>
       </c>
       <c r="I33" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" s="7" t="b">
         <v>0</v>
@@ -3390,7 +3450,7 @@
         <v>120</v>
       </c>
       <c r="I34" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="7" t="b">
         <v>0</v>
@@ -3416,7 +3476,7 @@
         <v>124</v>
       </c>
       <c r="I35" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" s="7" t="b">
         <v>0</v>
@@ -3442,7 +3502,7 @@
         <v>128</v>
       </c>
       <c r="I36" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" s="7" t="b">
         <v>0</v>
@@ -3468,7 +3528,7 @@
         <v>132</v>
       </c>
       <c r="I37" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" s="7" t="b">
         <v>0</v>
@@ -3494,7 +3554,7 @@
         <v>136</v>
       </c>
       <c r="I38" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" s="7" t="b">
         <v>0</v>
@@ -3520,7 +3580,7 @@
         <v>140</v>
       </c>
       <c r="I39" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="7" t="b">
         <v>0</v>
@@ -3546,7 +3606,7 @@
         <v>144</v>
       </c>
       <c r="I40" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="7" t="b">
         <v>0</v>
@@ -3572,7 +3632,7 @@
         <v>148</v>
       </c>
       <c r="I41" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="7" t="b">
         <v>0</v>
@@ -3598,7 +3658,7 @@
         <v>152</v>
       </c>
       <c r="I42" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" s="7" t="b">
         <v>0</v>
@@ -3624,7 +3684,7 @@
         <v>156</v>
       </c>
       <c r="I43" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" s="7" t="b">
         <v>0</v>
@@ -3650,7 +3710,7 @@
         <v>160</v>
       </c>
       <c r="I44" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" s="7" t="b">
         <v>0</v>
@@ -3676,7 +3736,7 @@
         <v>164</v>
       </c>
       <c r="I45" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="7" t="b">
         <v>0</v>
@@ -3702,7 +3762,7 @@
         <v>168</v>
       </c>
       <c r="I46" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" s="7" t="b">
         <v>0</v>
@@ -3728,7 +3788,7 @@
         <v>172</v>
       </c>
       <c r="I47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="7" t="b">
         <v>0</v>
@@ -3754,7 +3814,7 @@
         <v>176</v>
       </c>
       <c r="I48" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" s="7" t="b">
         <v>0</v>
@@ -3780,7 +3840,7 @@
         <v>180</v>
       </c>
       <c r="I49" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" s="7" t="b">
         <v>0</v>
@@ -3806,7 +3866,7 @@
         <v>184</v>
       </c>
       <c r="I50" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" s="7" t="b">
         <v>0</v>
@@ -3832,7 +3892,7 @@
         <v>188</v>
       </c>
       <c r="I51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" s="7" t="b">
         <v>0</v>
@@ -3858,7 +3918,7 @@
         <v>192</v>
       </c>
       <c r="I52" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" s="7" t="b">
         <v>0</v>
@@ -3884,7 +3944,7 @@
         <v>196</v>
       </c>
       <c r="I53" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" s="7" t="b">
         <v>0</v>
@@ -3910,7 +3970,7 @@
         <v>200</v>
       </c>
       <c r="I54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" s="7" t="b">
         <v>0</v>
@@ -3936,7 +3996,7 @@
         <v>204</v>
       </c>
       <c r="I55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" s="7" t="b">
         <v>0</v>
@@ -3962,7 +4022,7 @@
         <v>208</v>
       </c>
       <c r="I56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" s="7" t="b">
         <v>0</v>
@@ -3988,7 +4048,7 @@
         <v>212</v>
       </c>
       <c r="I57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" s="7" t="b">
         <v>0</v>
@@ -4014,7 +4074,7 @@
         <v>216</v>
       </c>
       <c r="I58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" s="7" t="b">
         <v>0</v>
@@ -4040,7 +4100,7 @@
         <v>220</v>
       </c>
       <c r="I59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" s="7" t="b">
         <v>0</v>
@@ -4066,7 +4126,7 @@
         <v>224</v>
       </c>
       <c r="I60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" s="7" t="b">
         <v>0</v>
@@ -4092,7 +4152,7 @@
         <v>228</v>
       </c>
       <c r="I61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" s="7" t="b">
         <v>0</v>
@@ -4118,7 +4178,7 @@
         <v>232</v>
       </c>
       <c r="I62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="7" t="b">
         <v>0</v>
@@ -4144,7 +4204,7 @@
         <v>236</v>
       </c>
       <c r="I63" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" s="7" t="b">
         <v>0</v>
@@ -4170,7 +4230,7 @@
         <v>240</v>
       </c>
       <c r="I64" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" s="7" t="b">
         <v>0</v>
@@ -4196,7 +4256,7 @@
         <v>244</v>
       </c>
       <c r="I65" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" s="7" t="b">
         <v>0</v>
@@ -4222,7 +4282,7 @@
         <v>248</v>
       </c>
       <c r="I66" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" s="7" t="b">
         <v>0</v>
@@ -4248,7 +4308,7 @@
         <v>252</v>
       </c>
       <c r="I67" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" s="7" t="b">
         <v>0</v>
@@ -4274,7 +4334,7 @@
         <v>256</v>
       </c>
       <c r="I68" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" s="7" t="b">
         <v>0</v>
@@ -4300,7 +4360,7 @@
         <v>260</v>
       </c>
       <c r="I69" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" s="7" t="b">
         <v>0</v>
@@ -4326,7 +4386,7 @@
         <v>264</v>
       </c>
       <c r="I70" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" s="7" t="b">
         <v>0</v>
@@ -4352,7 +4412,7 @@
         <v>268</v>
       </c>
       <c r="I71" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71" s="7" t="b">
         <v>0</v>
@@ -4378,7 +4438,7 @@
         <v>272</v>
       </c>
       <c r="I72" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" s="7" t="b">
         <v>0</v>
@@ -4404,7 +4464,7 @@
         <v>276</v>
       </c>
       <c r="I73" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" s="7" t="b">
         <v>0</v>
@@ -4430,7 +4490,7 @@
         <v>280</v>
       </c>
       <c r="I74" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" s="7" t="b">
         <v>0</v>
@@ -4456,7 +4516,7 @@
         <v>284</v>
       </c>
       <c r="I75" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" s="7" t="b">
         <v>0</v>
@@ -4482,7 +4542,7 @@
         <v>288</v>
       </c>
       <c r="I76" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" s="7" t="b">
         <v>0</v>
@@ -4508,7 +4568,7 @@
         <v>292</v>
       </c>
       <c r="I77" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" s="7" t="b">
         <v>0</v>
@@ -4534,7 +4594,7 @@
         <v>296</v>
       </c>
       <c r="I78" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" s="7" t="b">
         <v>0</v>
@@ -4560,7 +4620,7 @@
         <v>300</v>
       </c>
       <c r="I79" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" s="7" t="b">
         <v>0</v>
@@ -4586,7 +4646,7 @@
         <v>304</v>
       </c>
       <c r="I80" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" s="7" t="b">
         <v>0</v>
@@ -4612,7 +4672,7 @@
         <v>308</v>
       </c>
       <c r="I81" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" s="7" t="b">
         <v>0</v>
@@ -4638,7 +4698,7 @@
         <v>312</v>
       </c>
       <c r="I82" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" s="7" t="b">
         <v>0</v>
@@ -4664,7 +4724,7 @@
         <v>316</v>
       </c>
       <c r="I83" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83" s="7" t="b">
         <v>0</v>
@@ -4690,7 +4750,7 @@
         <v>320</v>
       </c>
       <c r="I84" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84" s="7" t="b">
         <v>0</v>
@@ -4716,87 +4776,69 @@
         <v>324</v>
       </c>
       <c r="I85" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85" s="7" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D86" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J86" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" t="s">
-        <v>325</v>
-      </c>
-      <c r="D87" t="s">
-        <v>326</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>327</v>
+      <c r="D87" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>624</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
-      <c r="H87" t="s">
-        <v>328</v>
+      <c r="H87" s="5" t="s">
+        <v>627</v>
       </c>
       <c r="I87" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J87" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" t="s">
-        <v>329</v>
-      </c>
-      <c r="D88" t="s">
-        <v>330</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>331</v>
+      <c r="D88" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
-      <c r="H88" t="s">
-        <v>332</v>
+      <c r="H88" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="I88" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J88" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" t="s">
-        <v>333</v>
-      </c>
-      <c r="D89" t="s">
-        <v>334</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>336</v>
-      </c>
-      <c r="I89" s="7">
-        <v>2</v>
-      </c>
-      <c r="J89" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4805,22 +4847,22 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I90" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" s="7" t="b">
         <v>0</v>
@@ -4831,22 +4873,22 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I91" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" s="7" t="b">
         <v>0</v>
@@ -4857,22 +4899,22 @@
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I92" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" s="7" t="b">
         <v>0</v>
@@ -4883,22 +4925,22 @@
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I93" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" s="7" t="b">
         <v>0</v>
@@ -4909,22 +4951,22 @@
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D94" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I94" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" s="7" t="b">
         <v>0</v>
@@ -4935,22 +4977,22 @@
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D95" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I95" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" s="7" t="b">
         <v>0</v>
@@ -4961,22 +5003,22 @@
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I96" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" s="7" t="b">
         <v>0</v>
@@ -4987,22 +5029,22 @@
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D97" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="I97" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" s="7" t="b">
         <v>0</v>
@@ -5013,22 +5055,22 @@
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I98" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98" s="7" t="b">
         <v>0</v>
@@ -5039,22 +5081,22 @@
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
-      </c>
-      <c r="E99" t="s">
-        <v>375</v>
+        <v>362</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I99" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99" s="7" t="b">
         <v>0</v>
@@ -5065,22 +5107,22 @@
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D100" t="s">
-        <v>378</v>
-      </c>
-      <c r="E100" t="s">
-        <v>379</v>
+        <v>366</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="I100" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" s="7" t="b">
         <v>0</v>
@@ -5091,22 +5133,22 @@
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D101" t="s">
-        <v>382</v>
-      </c>
-      <c r="E101" t="s">
-        <v>383</v>
+        <v>370</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="I101" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" s="7" t="b">
         <v>0</v>
@@ -5117,22 +5159,22 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D102" t="s">
-        <v>386</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>387</v>
+        <v>374</v>
+      </c>
+      <c r="E102" t="s">
+        <v>375</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I102" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" s="7" t="b">
         <v>0</v>
@@ -5143,22 +5185,22 @@
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D103" t="s">
-        <v>390</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>391</v>
+        <v>378</v>
+      </c>
+      <c r="E103" t="s">
+        <v>379</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I103" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" s="7" t="b">
         <v>0</v>
@@ -5169,22 +5211,22 @@
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>394</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>395</v>
+        <v>382</v>
+      </c>
+      <c r="E104" t="s">
+        <v>383</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="I104" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" s="7" t="b">
         <v>0</v>
@@ -5195,22 +5237,22 @@
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D105" t="s">
-        <v>398</v>
-      </c>
-      <c r="E105" t="s">
-        <v>399</v>
+        <v>386</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I105" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" s="7" t="b">
         <v>0</v>
@@ -5221,22 +5263,22 @@
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D106" t="s">
-        <v>402</v>
-      </c>
-      <c r="E106" t="s">
-        <v>403</v>
+        <v>390</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="I106" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" s="7" t="b">
         <v>0</v>
@@ -5247,22 +5289,22 @@
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D107" t="s">
-        <v>406</v>
-      </c>
-      <c r="E107" t="s">
-        <v>407</v>
+        <v>394</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="I107" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" s="7" t="b">
         <v>0</v>
@@ -5273,22 +5315,22 @@
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D108" t="s">
-        <v>410</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>411</v>
+        <v>398</v>
+      </c>
+      <c r="E108" t="s">
+        <v>399</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="I108" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" s="7" t="b">
         <v>0</v>
@@ -5299,22 +5341,22 @@
         <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
-        <v>414</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>415</v>
+        <v>402</v>
+      </c>
+      <c r="E109" t="s">
+        <v>403</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="I109" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" s="7" t="b">
         <v>0</v>
@@ -5325,22 +5367,22 @@
         <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D110" t="s">
-        <v>418</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>419</v>
+        <v>406</v>
+      </c>
+      <c r="E110" t="s">
+        <v>407</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="I110" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" s="7" t="b">
         <v>0</v>
@@ -5351,22 +5393,22 @@
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D111" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I111" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111" s="7" t="b">
         <v>0</v>
@@ -5377,22 +5419,22 @@
         <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="I112" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112" s="7" t="b">
         <v>0</v>
@@ -5403,22 +5445,22 @@
         <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D113" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I113" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" s="7" t="b">
         <v>0</v>
@@ -5429,22 +5471,22 @@
         <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D114" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="I114" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" s="7" t="b">
         <v>0</v>
@@ -5455,22 +5497,22 @@
         <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D115" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I115" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" s="7" t="b">
         <v>0</v>
@@ -5481,22 +5523,22 @@
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D116" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="I116" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" s="7" t="b">
         <v>0</v>
@@ -5507,22 +5549,22 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D117" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I117" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" s="7" t="b">
         <v>0</v>
@@ -5533,22 +5575,22 @@
         <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D118" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I118" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" s="7" t="b">
         <v>0</v>
@@ -5559,22 +5601,22 @@
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D119" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="I119" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119" s="7" t="b">
         <v>0</v>
@@ -5585,22 +5627,22 @@
         <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D120" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I120" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" s="7" t="b">
         <v>0</v>
@@ -5611,22 +5653,22 @@
         <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D121" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="I121" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" s="7" t="b">
         <v>0</v>
@@ -5637,22 +5679,22 @@
         <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D122" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="I122" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" s="7" t="b">
         <v>0</v>
@@ -5663,22 +5705,22 @@
         <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I123" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" s="7" t="b">
         <v>0</v>
@@ -5689,22 +5731,22 @@
         <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D124" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I124" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J124" s="7" t="b">
         <v>0</v>
@@ -5715,22 +5757,22 @@
         <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D125" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="I125" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J125" s="7" t="b">
         <v>0</v>
@@ -5741,22 +5783,22 @@
         <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D126" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="I126" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" s="7" t="b">
         <v>0</v>
@@ -5767,22 +5809,22 @@
         <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D127" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="I127" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" s="7" t="b">
         <v>0</v>
@@ -5793,22 +5835,22 @@
         <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D128" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I128" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" s="7" t="b">
         <v>0</v>
@@ -5819,22 +5861,22 @@
         <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="I129" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" s="7" t="b">
         <v>0</v>
@@ -5845,22 +5887,22 @@
         <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D130" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I130" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130" s="7" t="b">
         <v>0</v>
@@ -5871,22 +5913,22 @@
         <v>23</v>
       </c>
       <c r="C131" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D131" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="I131" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" s="7" t="b">
         <v>0</v>
@@ -5897,22 +5939,22 @@
         <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D132" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="I132" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" s="7" t="b">
         <v>0</v>
@@ -5923,22 +5965,22 @@
         <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D133" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="I133" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" s="7" t="b">
         <v>0</v>
@@ -5949,22 +5991,22 @@
         <v>23</v>
       </c>
       <c r="C134" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D134" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I134" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" s="7" t="b">
         <v>0</v>
@@ -5975,22 +6017,22 @@
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D135" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="I135" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" s="7" t="b">
         <v>0</v>
@@ -6001,22 +6043,22 @@
         <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D136" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="I136" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" s="7" t="b">
         <v>0</v>
@@ -6027,22 +6069,22 @@
         <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="D137" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="I137" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" s="7" t="b">
         <v>0</v>
@@ -6053,22 +6095,22 @@
         <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D138" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="I138" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" s="7" t="b">
         <v>0</v>
@@ -6079,22 +6121,22 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D139" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="I139" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" s="7" t="b">
         <v>0</v>
@@ -6105,22 +6147,22 @@
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D140" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="I140" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" s="7" t="b">
         <v>0</v>
@@ -6131,22 +6173,22 @@
         <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D141" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="I141" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" s="7" t="b">
         <v>0</v>
@@ -6157,22 +6199,22 @@
         <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D142" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="I142" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" s="7" t="b">
         <v>0</v>
@@ -6183,22 +6225,22 @@
         <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D143" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="G143" t="b">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="I143" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" s="7" t="b">
         <v>0</v>
@@ -6209,22 +6251,22 @@
         <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D144" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="I144" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" s="7" t="b">
         <v>0</v>
@@ -6235,22 +6277,22 @@
         <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="D145" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I145" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" s="7" t="b">
         <v>0</v>
@@ -6261,22 +6303,22 @@
         <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D146" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="G146" t="b">
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="I146" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J146" s="7" t="b">
         <v>0</v>
@@ -6287,22 +6329,22 @@
         <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D147" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="I147" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J147" s="7" t="b">
         <v>0</v>
@@ -6313,22 +6355,22 @@
         <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D148" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="I148" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J148" s="7" t="b">
         <v>0</v>
@@ -6339,22 +6381,22 @@
         <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D149" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="I149" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" s="7" t="b">
         <v>0</v>
@@ -6365,22 +6407,22 @@
         <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D150" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="I150" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J150" s="7" t="b">
         <v>0</v>
@@ -6391,22 +6433,22 @@
         <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D151" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="I151" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J151" s="7" t="b">
         <v>0</v>
@@ -6417,22 +6459,22 @@
         <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D152" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="I152" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J152" s="7" t="b">
         <v>0</v>
@@ -6443,22 +6485,22 @@
         <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D153" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="I153" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J153" s="7" t="b">
         <v>0</v>
@@ -6469,22 +6511,22 @@
         <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D154" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="I154" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J154" s="7" t="b">
         <v>0</v>
@@ -6495,22 +6537,22 @@
         <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D155" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="I155" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" s="7" t="b">
         <v>0</v>
@@ -6521,22 +6563,22 @@
         <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D156" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I156" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" s="7" t="b">
         <v>0</v>
@@ -6547,22 +6589,22 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D157" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="I157" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J157" s="7" t="b">
         <v>0</v>
@@ -6573,24 +6615,162 @@
         <v>23</v>
       </c>
       <c r="C158" t="s">
+        <v>597</v>
+      </c>
+      <c r="D158" t="s">
+        <v>598</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>600</v>
+      </c>
+      <c r="I158" s="7">
+        <v>3</v>
+      </c>
+      <c r="J158" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>601</v>
+      </c>
+      <c r="D159" t="s">
+        <v>602</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>604</v>
+      </c>
+      <c r="I159" s="7">
+        <v>3</v>
+      </c>
+      <c r="J159" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" t="s">
+        <v>605</v>
+      </c>
+      <c r="D160" t="s">
+        <v>606</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>608</v>
+      </c>
+      <c r="I160" s="7">
+        <v>3</v>
+      </c>
+      <c r="J160" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" t="s">
         <v>609</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D161" t="s">
         <v>610</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E161" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
         <v>612</v>
       </c>
-      <c r="I158" s="7">
-        <v>2</v>
-      </c>
-      <c r="J158" s="7" t="b">
+      <c r="I161" s="7">
+        <v>3</v>
+      </c>
+      <c r="J161" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D162" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I162" s="7">
+        <v>3</v>
+      </c>
+      <c r="J162" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D163" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I163" s="7">
+        <v>3</v>
+      </c>
+      <c r="J163" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D164" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="I164" s="7">
+        <v>3</v>
+      </c>
+      <c r="J164" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A302F7-E666-4ADB-BDB0-195CD5FB0E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247817E-D1A6-4B6E-9005-17F4BDFBC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="647">
   <si>
     <t>##var</t>
   </si>
@@ -142,9 +153,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>是否进自己可见</t>
-  </si>
-  <si>
     <t>资源id</t>
   </si>
   <si>
@@ -856,42 +864,6 @@
     <t>ResAudio_FireTowerTesla3</t>
   </si>
   <si>
-    <t>FireTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>PlayAudio_FireTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>暴击图腾开火音效1</t>
-  </si>
-  <si>
-    <t>ResAudio_FireTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>FireTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>PlayAudio_FireTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>暴击图腾开火音效2</t>
-  </si>
-  <si>
-    <t>ResAudio_FireTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>FireTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>PlayAudio_FireTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>暴击图腾开火音效3</t>
-  </si>
-  <si>
-    <t>ResAudio_FireTowerCritTotem3</t>
-  </si>
-  <si>
     <t>FireTowerHellFire1</t>
   </si>
   <si>
@@ -1718,42 +1690,6 @@
   </si>
   <si>
     <t>ResAudio_HitTowerTesla3</t>
-  </si>
-  <si>
-    <t>HitTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>PlayAudio_HitTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>暴击图腾命中音效1</t>
-  </si>
-  <si>
-    <t>ResAudio_HitTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>HitTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>PlayAudio_HitTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>暴击图腾命中音效2</t>
-  </si>
-  <si>
-    <t>ResAudio_HitTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>HitTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>PlayAudio_HitTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>暴击图腾命中音效3</t>
-  </si>
-  <si>
-    <t>ResAudio_HitTowerCritTotem3</t>
   </si>
   <si>
     <t>HitTowerHellFire1</t>
@@ -2092,6 +2028,109 @@
   </si>
   <si>
     <t>ResAudio_HitTowerBomb3</t>
+  </si>
+  <si>
+    <t>水晶命中音效1</t>
+  </si>
+  <si>
+    <t>水晶命中音效2</t>
+  </si>
+  <si>
+    <t>水晶命中音效3</t>
+  </si>
+  <si>
+    <t>FireTowerFire1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFire1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFire1</t>
+  </si>
+  <si>
+    <t>FireTowerFire2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFire2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFire2</t>
+  </si>
+  <si>
+    <t>FireTowerFire3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFire3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFire3</t>
+  </si>
+  <si>
+    <t>HitTowerFire1</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFire1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFire1</t>
+  </si>
+  <si>
+    <t>HitTowerFire2</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFire2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFire2</t>
+  </si>
+  <si>
+    <t>HitTowerFire3</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerFire3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFire3</t>
+  </si>
+  <si>
+    <t>水晶开火音效1</t>
+  </si>
+  <si>
+    <t>水晶开火音效2</t>
+  </si>
+  <si>
+    <t>水晶开火音效3</t>
+  </si>
+  <si>
+    <t>魔像开火音效1</t>
+  </si>
+  <si>
+    <t>魔像开火音效2</t>
+  </si>
+  <si>
+    <t>魔像开火音效3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>是否仅自己可见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2502,25 +2541,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z164"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86:I88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2603,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2633,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2677,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2709,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2686,16 +2725,16 @@
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -2714,9 +2753,9 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2726,126 +2765,126 @@
         <v>PlayAudio_1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
-      <c r="J6" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>PlayAudio_dead</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>PlayAudio_solo</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9:D12" si="0">B9&amp;"_"&amp;C9</f>
         <v>PlayAudio_aoe</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3</v>
-      </c>
-      <c r="J9" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>PlayAudio_line</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
         <v>-1</v>
@@ -2854,26 +2893,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>PlayAudio_circle</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
         <v>-1</v>
@@ -2882,26 +2921,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>PlayAudio_BossAppear</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="I12" s="7">
         <v>10</v>
@@ -2910,1871 +2949,1871 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="7">
-        <v>3</v>
-      </c>
-      <c r="J15" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="7">
-        <v>3</v>
-      </c>
-      <c r="J17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" s="7">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="7">
-        <v>3</v>
-      </c>
-      <c r="J18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="7">
-        <v>3</v>
-      </c>
-      <c r="J19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>63</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" s="7">
+        <v>3</v>
+      </c>
+      <c r="J20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="7">
-        <v>3</v>
-      </c>
-      <c r="J20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>67</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" s="7">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="7">
-        <v>3</v>
-      </c>
-      <c r="J21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" s="7">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="7">
-        <v>3</v>
-      </c>
-      <c r="J22" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>75</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" s="7">
+        <v>3</v>
+      </c>
+      <c r="J23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="7">
-        <v>3</v>
-      </c>
-      <c r="J23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>78</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>79</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" s="7">
+        <v>3</v>
+      </c>
+      <c r="J24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="7">
-        <v>3</v>
-      </c>
-      <c r="J24" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>83</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" s="7">
+        <v>3</v>
+      </c>
+      <c r="J25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="7">
-        <v>3</v>
-      </c>
-      <c r="J25" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>87</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="J26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="7">
-        <v>3</v>
-      </c>
-      <c r="J26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>90</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>91</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" s="7">
+        <v>3</v>
+      </c>
+      <c r="J27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="7">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+      <c r="J28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="7">
-        <v>3</v>
-      </c>
-      <c r="J28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>99</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" s="7">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="7">
-        <v>3</v>
-      </c>
-      <c r="J29" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" s="7">
+        <v>3</v>
+      </c>
+      <c r="J30" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="7">
-        <v>3</v>
-      </c>
-      <c r="J30" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>105</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>106</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>107</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+      <c r="J31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="7">
-        <v>3</v>
-      </c>
-      <c r="J31" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>110</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>111</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" s="7">
+        <v>3</v>
+      </c>
+      <c r="J32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="7">
-        <v>3</v>
-      </c>
-      <c r="J32" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>114</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>115</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" s="7">
+        <v>3</v>
+      </c>
+      <c r="J33" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="7">
-        <v>3</v>
-      </c>
-      <c r="J33" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>118</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>119</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" s="7">
+        <v>3</v>
+      </c>
+      <c r="J34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="7">
-        <v>3</v>
-      </c>
-      <c r="J34" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>122</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>123</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" s="7">
+        <v>3</v>
+      </c>
+      <c r="J35" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="7">
-        <v>3</v>
-      </c>
-      <c r="J35" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>126</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>127</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" s="7">
+        <v>3</v>
+      </c>
+      <c r="J36" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="7">
-        <v>3</v>
-      </c>
-      <c r="J36" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>130</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>131</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" s="7">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="I37" s="7">
-        <v>3</v>
-      </c>
-      <c r="J37" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>135</v>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" s="7">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="7">
-        <v>3</v>
-      </c>
-      <c r="J38" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>138</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>139</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" s="7">
+        <v>3</v>
+      </c>
+      <c r="J39" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
         <v>140</v>
       </c>
-      <c r="I39" s="7">
-        <v>3</v>
-      </c>
-      <c r="J39" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>141</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>143</v>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" s="7">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
         <v>144</v>
       </c>
-      <c r="I40" s="7">
-        <v>3</v>
-      </c>
-      <c r="J40" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>146</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>147</v>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" s="7">
+        <v>3</v>
+      </c>
+      <c r="J41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="7">
-        <v>3</v>
-      </c>
-      <c r="J41" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>149</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>150</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>151</v>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" s="7">
+        <v>3</v>
+      </c>
+      <c r="J42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="I42" s="7">
-        <v>3</v>
-      </c>
-      <c r="J42" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>153</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>154</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>155</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" s="7">
+        <v>3</v>
+      </c>
+      <c r="J43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="7">
-        <v>3</v>
-      </c>
-      <c r="J43" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>157</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>158</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>159</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" s="7">
+        <v>3</v>
+      </c>
+      <c r="J44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="I44" s="7">
-        <v>3</v>
-      </c>
-      <c r="J44" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>161</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>162</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>163</v>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" s="7">
+        <v>3</v>
+      </c>
+      <c r="J45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
         <v>164</v>
       </c>
-      <c r="I45" s="7">
-        <v>3</v>
-      </c>
-      <c r="J45" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>165</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>166</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>167</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" s="7">
+        <v>3</v>
+      </c>
+      <c r="J46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="7">
-        <v>3</v>
-      </c>
-      <c r="J46" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>170</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>171</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" s="7">
+        <v>3</v>
+      </c>
+      <c r="J47" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="7">
-        <v>3</v>
-      </c>
-      <c r="J47" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>173</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>174</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>175</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" s="7">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
         <v>176</v>
       </c>
-      <c r="I48" s="7">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>177</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>178</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>179</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" s="7">
+        <v>3</v>
+      </c>
+      <c r="J49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
         <v>180</v>
       </c>
-      <c r="I49" s="7">
-        <v>3</v>
-      </c>
-      <c r="J49" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>181</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>182</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>183</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" s="7">
+        <v>3</v>
+      </c>
+      <c r="J50" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="I50" s="7">
-        <v>3</v>
-      </c>
-      <c r="J50" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>185</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>186</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
         <v>187</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" s="7">
+        <v>3</v>
+      </c>
+      <c r="J51" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
         <v>188</v>
       </c>
-      <c r="I51" s="7">
-        <v>3</v>
-      </c>
-      <c r="J51" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>189</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>190</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>191</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" s="7">
+        <v>3</v>
+      </c>
+      <c r="J52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
         <v>192</v>
       </c>
-      <c r="I52" s="7">
-        <v>3</v>
-      </c>
-      <c r="J52" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>193</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>194</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>195</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" s="7">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
         <v>196</v>
       </c>
-      <c r="I53" s="7">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>197</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>198</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
         <v>199</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" s="7">
+        <v>3</v>
+      </c>
+      <c r="J54" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
         <v>200</v>
       </c>
-      <c r="I54" s="7">
-        <v>3</v>
-      </c>
-      <c r="J54" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>201</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>202</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
         <v>203</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I55" s="7">
+        <v>3</v>
+      </c>
+      <c r="J55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
         <v>204</v>
       </c>
-      <c r="I55" s="7">
-        <v>3</v>
-      </c>
-      <c r="J55" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>205</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>206</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>207</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="I56" s="7">
+        <v>3</v>
+      </c>
+      <c r="J56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
         <v>208</v>
       </c>
-      <c r="I56" s="7">
-        <v>3</v>
-      </c>
-      <c r="J56" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>209</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>210</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>211</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I57" s="7">
+        <v>3</v>
+      </c>
+      <c r="J57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
         <v>212</v>
       </c>
-      <c r="I57" s="7">
-        <v>3</v>
-      </c>
-      <c r="J57" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>213</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>214</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
         <v>215</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" s="7">
+        <v>3</v>
+      </c>
+      <c r="J58" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
         <v>216</v>
       </c>
-      <c r="I58" s="7">
-        <v>3</v>
-      </c>
-      <c r="J58" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>217</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>218</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>219</v>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" s="7">
+        <v>3</v>
+      </c>
+      <c r="J59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
         <v>220</v>
       </c>
-      <c r="I59" s="7">
-        <v>3</v>
-      </c>
-      <c r="J59" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>221</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>222</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
         <v>223</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="I60" s="7">
+        <v>3</v>
+      </c>
+      <c r="J60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
         <v>224</v>
       </c>
-      <c r="I60" s="7">
-        <v>3</v>
-      </c>
-      <c r="J60" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>225</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>226</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
         <v>227</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" s="7">
+        <v>3</v>
+      </c>
+      <c r="J61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>616</v>
+      </c>
+      <c r="D62" t="s">
+        <v>617</v>
+      </c>
+      <c r="E62" t="s">
+        <v>634</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>618</v>
+      </c>
+      <c r="I62" s="7">
+        <v>3</v>
+      </c>
+      <c r="J62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>619</v>
+      </c>
+      <c r="D63" t="s">
+        <v>620</v>
+      </c>
+      <c r="E63" t="s">
+        <v>635</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>621</v>
+      </c>
+      <c r="I63" s="7">
+        <v>3</v>
+      </c>
+      <c r="J63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D64" t="s">
+        <v>623</v>
+      </c>
+      <c r="E64" t="s">
+        <v>636</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>624</v>
+      </c>
+      <c r="I64" s="7">
+        <v>3</v>
+      </c>
+      <c r="J64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
         <v>228</v>
       </c>
-      <c r="I61" s="7">
-        <v>3</v>
-      </c>
-      <c r="J61" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D65" t="s">
         <v>229</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E65" t="s">
         <v>230</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>231</v>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I65" s="7">
+        <v>3</v>
+      </c>
+      <c r="J65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
         <v>232</v>
       </c>
-      <c r="I62" s="7">
-        <v>3</v>
-      </c>
-      <c r="J62" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D66" t="s">
         <v>233</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E66" t="s">
         <v>234</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
         <v>235</v>
       </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I66" s="7">
+        <v>3</v>
+      </c>
+      <c r="J66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
         <v>236</v>
       </c>
-      <c r="I63" s="7">
-        <v>3</v>
-      </c>
-      <c r="J63" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D67" t="s">
         <v>237</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E67" t="s">
         <v>238</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
         <v>239</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I67" s="7">
+        <v>3</v>
+      </c>
+      <c r="J67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
         <v>240</v>
       </c>
-      <c r="I64" s="7">
-        <v>3</v>
-      </c>
-      <c r="J64" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D68" t="s">
         <v>241</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E68" t="s">
         <v>242</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>243</v>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I68" s="7">
+        <v>3</v>
+      </c>
+      <c r="J68" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
         <v>244</v>
       </c>
-      <c r="I65" s="7">
-        <v>3</v>
-      </c>
-      <c r="J65" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D69" t="s">
         <v>245</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E69" t="s">
         <v>246</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
         <v>247</v>
       </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I69" s="7">
+        <v>3</v>
+      </c>
+      <c r="J69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
         <v>248</v>
       </c>
-      <c r="I66" s="7">
-        <v>3</v>
-      </c>
-      <c r="J66" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D70" t="s">
         <v>249</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E70" t="s">
         <v>250</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
         <v>251</v>
       </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I70" s="7">
+        <v>3</v>
+      </c>
+      <c r="J70" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
         <v>252</v>
       </c>
-      <c r="I67" s="7">
-        <v>3</v>
-      </c>
-      <c r="J67" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D71" t="s">
         <v>253</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E71" t="s">
         <v>254</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
         <v>255</v>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I71" s="7">
+        <v>3</v>
+      </c>
+      <c r="J71" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
         <v>256</v>
       </c>
-      <c r="I68" s="7">
-        <v>3</v>
-      </c>
-      <c r="J68" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D72" t="s">
         <v>257</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E72" t="s">
         <v>258</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
         <v>259</v>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="I72" s="7">
+        <v>3</v>
+      </c>
+      <c r="J72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
         <v>260</v>
       </c>
-      <c r="I69" s="7">
-        <v>3</v>
-      </c>
-      <c r="J69" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D73" t="s">
         <v>261</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E73" t="s">
         <v>262</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
         <v>263</v>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I73" s="7">
+        <v>3</v>
+      </c>
+      <c r="J73" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
         <v>264</v>
       </c>
-      <c r="I70" s="7">
-        <v>3</v>
-      </c>
-      <c r="J70" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D74" t="s">
         <v>265</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E74" t="s">
         <v>266</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
         <v>267</v>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I74" s="7">
+        <v>3</v>
+      </c>
+      <c r="J74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
         <v>268</v>
       </c>
-      <c r="I71" s="7">
-        <v>3</v>
-      </c>
-      <c r="J71" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D75" t="s">
         <v>269</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E75" t="s">
         <v>270</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
         <v>271</v>
       </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I75" s="7">
+        <v>3</v>
+      </c>
+      <c r="J75" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
         <v>272</v>
       </c>
-      <c r="I72" s="7">
-        <v>3</v>
-      </c>
-      <c r="J72" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D76" t="s">
         <v>273</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E76" t="s">
         <v>274</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
         <v>275</v>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="I76" s="7">
+        <v>3</v>
+      </c>
+      <c r="J76" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
         <v>276</v>
       </c>
-      <c r="I73" s="7">
-        <v>3</v>
-      </c>
-      <c r="J73" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D77" t="s">
         <v>277</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E77" t="s">
         <v>278</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
         <v>279</v>
       </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="I77" s="7">
+        <v>3</v>
+      </c>
+      <c r="J77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
         <v>280</v>
       </c>
-      <c r="I74" s="7">
-        <v>3</v>
-      </c>
-      <c r="J74" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D78" t="s">
         <v>281</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E78" t="s">
         <v>282</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
         <v>283</v>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I78" s="7">
+        <v>3</v>
+      </c>
+      <c r="J78" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
         <v>284</v>
       </c>
-      <c r="I75" s="7">
-        <v>3</v>
-      </c>
-      <c r="J75" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D79" t="s">
         <v>285</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
         <v>287</v>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="I79" s="7">
+        <v>3</v>
+      </c>
+      <c r="J79" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
         <v>288</v>
       </c>
-      <c r="I76" s="7">
-        <v>3</v>
-      </c>
-      <c r="J76" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D80" t="s">
         <v>289</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E80" t="s">
         <v>290</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>291</v>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I80" s="7">
+        <v>3</v>
+      </c>
+      <c r="J80" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="7">
-        <v>3</v>
-      </c>
-      <c r="J77" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D81" t="s">
         <v>293</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E81" t="s">
         <v>294</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
         <v>295</v>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="I81" s="7">
+        <v>3</v>
+      </c>
+      <c r="J81" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
         <v>296</v>
       </c>
-      <c r="I78" s="7">
-        <v>3</v>
-      </c>
-      <c r="J78" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D82" t="s">
         <v>297</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E82" t="s">
         <v>298</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
         <v>299</v>
       </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I82" s="7">
+        <v>3</v>
+      </c>
+      <c r="J82" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
         <v>300</v>
       </c>
-      <c r="I79" s="7">
-        <v>3</v>
-      </c>
-      <c r="J79" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D83" t="s">
         <v>301</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E83" t="s">
         <v>302</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
         <v>303</v>
       </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I83" s="7">
+        <v>3</v>
+      </c>
+      <c r="J83" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
         <v>304</v>
       </c>
-      <c r="I80" s="7">
-        <v>3</v>
-      </c>
-      <c r="J80" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D84" t="s">
         <v>305</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E84" t="s">
         <v>306</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
         <v>307</v>
       </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I84" s="7">
+        <v>3</v>
+      </c>
+      <c r="J84" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
         <v>308</v>
       </c>
-      <c r="I81" s="7">
-        <v>3</v>
-      </c>
-      <c r="J81" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D85" t="s">
         <v>309</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E85" t="s">
         <v>310</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
         <v>311</v>
       </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>312</v>
-      </c>
-      <c r="I82" s="7">
-        <v>3</v>
-      </c>
-      <c r="J82" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" t="s">
-        <v>313</v>
-      </c>
-      <c r="D83" t="s">
-        <v>314</v>
-      </c>
-      <c r="E83" t="s">
-        <v>315</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>316</v>
-      </c>
-      <c r="I83" s="7">
-        <v>3</v>
-      </c>
-      <c r="J83" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" t="s">
-        <v>317</v>
-      </c>
-      <c r="D84" t="s">
-        <v>318</v>
-      </c>
-      <c r="E84" t="s">
-        <v>319</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>320</v>
-      </c>
-      <c r="I84" s="7">
-        <v>3</v>
-      </c>
-      <c r="J84" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" t="s">
-        <v>321</v>
-      </c>
-      <c r="D85" t="s">
-        <v>322</v>
-      </c>
-      <c r="E85" t="s">
-        <v>323</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>324</v>
-      </c>
       <c r="I85" s="7">
         <v>3</v>
       </c>
@@ -4782,18 +4821,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D86" s="7" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="I86" s="7">
         <v>0.5</v>
@@ -4802,18 +4841,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D87" s="7" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="I87" s="7">
         <v>0.5</v>
@@ -4822,18 +4861,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D88" s="7" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="I88" s="7">
         <v>0.5</v>
@@ -4842,1935 +4881,1995 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J89" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D90" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J90" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D91" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J91" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" t="s">
+        <v>313</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>315</v>
+      </c>
+      <c r="I93" s="7">
+        <v>3</v>
+      </c>
+      <c r="J93" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>319</v>
+      </c>
+      <c r="I94" s="7">
+        <v>3</v>
+      </c>
+      <c r="J94" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>323</v>
+      </c>
+      <c r="I95" s="7">
+        <v>3</v>
+      </c>
+      <c r="J95" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" t="s">
         <v>325</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E96" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
         <v>327</v>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I96" s="7">
+        <v>3</v>
+      </c>
+      <c r="J96" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
         <v>328</v>
       </c>
-      <c r="I90" s="7">
-        <v>3</v>
-      </c>
-      <c r="J90" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D97" t="s">
         <v>329</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E97" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
         <v>331</v>
       </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I97" s="7">
+        <v>3</v>
+      </c>
+      <c r="J97" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
         <v>332</v>
       </c>
-      <c r="I91" s="7">
-        <v>3</v>
-      </c>
-      <c r="J91" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D98" t="s">
         <v>333</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E98" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
         <v>335</v>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I98" s="7">
+        <v>3</v>
+      </c>
+      <c r="J98" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
         <v>336</v>
       </c>
-      <c r="I92" s="7">
-        <v>3</v>
-      </c>
-      <c r="J92" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D99" t="s">
         <v>337</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E99" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
         <v>339</v>
       </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I99" s="7">
+        <v>3</v>
+      </c>
+      <c r="J99" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
         <v>340</v>
       </c>
-      <c r="I93" s="7">
-        <v>3</v>
-      </c>
-      <c r="J93" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D100" t="s">
         <v>341</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E100" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
         <v>343</v>
       </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I100" s="7">
+        <v>3</v>
+      </c>
+      <c r="J100" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
         <v>344</v>
       </c>
-      <c r="I94" s="7">
-        <v>3</v>
-      </c>
-      <c r="J94" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D101" t="s">
         <v>345</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E101" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
         <v>347</v>
       </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I101" s="7">
+        <v>3</v>
+      </c>
+      <c r="J101" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
         <v>348</v>
       </c>
-      <c r="I95" s="7">
-        <v>3</v>
-      </c>
-      <c r="J95" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D102" t="s">
         <v>349</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E102" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
         <v>351</v>
       </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I102" s="7">
+        <v>3</v>
+      </c>
+      <c r="J102" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
         <v>352</v>
       </c>
-      <c r="I96" s="7">
-        <v>3</v>
-      </c>
-      <c r="J96" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D103" t="s">
         <v>353</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E103" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
         <v>355</v>
       </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I103" s="7">
+        <v>3</v>
+      </c>
+      <c r="J103" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
         <v>356</v>
       </c>
-      <c r="I97" s="7">
-        <v>3</v>
-      </c>
-      <c r="J97" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D104" t="s">
         <v>357</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E104" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
         <v>359</v>
       </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I104" s="7">
+        <v>3</v>
+      </c>
+      <c r="J104" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
         <v>360</v>
       </c>
-      <c r="I98" s="7">
-        <v>3</v>
-      </c>
-      <c r="J98" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D105" t="s">
         <v>361</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E105" t="s">
         <v>362</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
         <v>363</v>
       </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I105" s="7">
+        <v>3</v>
+      </c>
+      <c r="J105" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
         <v>364</v>
       </c>
-      <c r="I99" s="7">
-        <v>3</v>
-      </c>
-      <c r="J99" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D106" t="s">
         <v>365</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E106" t="s">
         <v>366</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
         <v>367</v>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I106" s="7">
+        <v>3</v>
+      </c>
+      <c r="J106" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
         <v>368</v>
       </c>
-      <c r="I100" s="7">
-        <v>3</v>
-      </c>
-      <c r="J100" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D107" t="s">
         <v>369</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E107" t="s">
         <v>370</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
         <v>371</v>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I107" s="7">
+        <v>3</v>
+      </c>
+      <c r="J107" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
         <v>372</v>
       </c>
-      <c r="I101" s="7">
-        <v>3</v>
-      </c>
-      <c r="J101" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D108" t="s">
         <v>373</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E108" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E102" t="s">
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
         <v>375</v>
       </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I108" s="7">
+        <v>3</v>
+      </c>
+      <c r="J108" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
         <v>376</v>
       </c>
-      <c r="I102" s="7">
-        <v>3</v>
-      </c>
-      <c r="J102" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D109" t="s">
         <v>377</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E109" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
         <v>379</v>
       </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I109" s="7">
+        <v>3</v>
+      </c>
+      <c r="J109" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
         <v>380</v>
       </c>
-      <c r="I103" s="7">
-        <v>3</v>
-      </c>
-      <c r="J103" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D110" t="s">
         <v>381</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E110" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
         <v>383</v>
       </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I110" s="7">
+        <v>3</v>
+      </c>
+      <c r="J110" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
         <v>384</v>
       </c>
-      <c r="I104" s="7">
-        <v>3</v>
-      </c>
-      <c r="J104" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D111" t="s">
         <v>385</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E111" t="s">
         <v>386</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
         <v>387</v>
       </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I111" s="7">
+        <v>3</v>
+      </c>
+      <c r="J111" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
         <v>388</v>
       </c>
-      <c r="I105" s="7">
-        <v>3</v>
-      </c>
-      <c r="J105" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D112" t="s">
         <v>389</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E112" t="s">
         <v>390</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
         <v>391</v>
       </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I112" s="7">
+        <v>3</v>
+      </c>
+      <c r="J112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
         <v>392</v>
       </c>
-      <c r="I106" s="7">
-        <v>3</v>
-      </c>
-      <c r="J106" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D113" t="s">
         <v>393</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E113" t="s">
         <v>394</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
         <v>395</v>
       </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="I113" s="7">
+        <v>3</v>
+      </c>
+      <c r="J113" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
         <v>396</v>
       </c>
-      <c r="I107" s="7">
-        <v>3</v>
-      </c>
-      <c r="J107" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D114" t="s">
         <v>397</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E114" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
         <v>399</v>
       </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="I114" s="7">
+        <v>3</v>
+      </c>
+      <c r="J114" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
         <v>400</v>
       </c>
-      <c r="I108" s="7">
-        <v>3</v>
-      </c>
-      <c r="J108" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D115" t="s">
         <v>401</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E115" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E109" t="s">
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
         <v>403</v>
       </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I115" s="7">
+        <v>3</v>
+      </c>
+      <c r="J115" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
         <v>404</v>
       </c>
-      <c r="I109" s="7">
-        <v>3</v>
-      </c>
-      <c r="J109" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D116" t="s">
         <v>405</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E116" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E110" t="s">
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
         <v>407</v>
       </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I116" s="7">
+        <v>3</v>
+      </c>
+      <c r="J116" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
         <v>408</v>
       </c>
-      <c r="I110" s="7">
-        <v>3</v>
-      </c>
-      <c r="J110" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D117" t="s">
         <v>409</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E117" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
         <v>411</v>
       </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="I117" s="7">
+        <v>1</v>
+      </c>
+      <c r="J117" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
         <v>412</v>
       </c>
-      <c r="I111" s="7">
-        <v>3</v>
-      </c>
-      <c r="J111" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D118" t="s">
         <v>413</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E118" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
         <v>415</v>
       </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I118" s="7">
+        <v>1</v>
+      </c>
+      <c r="J118" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
         <v>416</v>
       </c>
-      <c r="I112" s="7">
-        <v>3</v>
-      </c>
-      <c r="J112" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D119" t="s">
         <v>417</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E119" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
         <v>419</v>
       </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="I119" s="7">
+        <v>1</v>
+      </c>
+      <c r="J119" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
         <v>420</v>
       </c>
-      <c r="I113" s="7">
-        <v>3</v>
-      </c>
-      <c r="J113" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="D120" t="s">
         <v>421</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E120" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
         <v>423</v>
       </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="I120" s="7">
+        <v>3</v>
+      </c>
+      <c r="J120" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
         <v>424</v>
       </c>
-      <c r="I114" s="7">
-        <v>3</v>
-      </c>
-      <c r="J114" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D121" t="s">
         <v>425</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E121" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
         <v>427</v>
       </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I121" s="7">
+        <v>3</v>
+      </c>
+      <c r="J121" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
         <v>428</v>
       </c>
-      <c r="I115" s="7">
-        <v>3</v>
-      </c>
-      <c r="J115" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D122" t="s">
         <v>429</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E122" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
         <v>431</v>
       </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="I122" s="7">
+        <v>3</v>
+      </c>
+      <c r="J122" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
         <v>432</v>
       </c>
-      <c r="I116" s="7">
-        <v>3</v>
-      </c>
-      <c r="J116" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D123" t="s">
         <v>433</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E123" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
         <v>435</v>
       </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I123" s="7">
+        <v>3</v>
+      </c>
+      <c r="J123" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
         <v>436</v>
       </c>
-      <c r="I117" s="7">
-        <v>3</v>
-      </c>
-      <c r="J117" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D124" t="s">
         <v>437</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E124" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
         <v>439</v>
       </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I124" s="7">
+        <v>3</v>
+      </c>
+      <c r="J124" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
         <v>440</v>
       </c>
-      <c r="I118" s="7">
-        <v>3</v>
-      </c>
-      <c r="J118" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D125" t="s">
         <v>441</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E125" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
         <v>443</v>
       </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I125" s="7">
+        <v>3</v>
+      </c>
+      <c r="J125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
         <v>444</v>
       </c>
-      <c r="I119" s="7">
-        <v>3</v>
-      </c>
-      <c r="J119" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D126" t="s">
         <v>445</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E126" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
         <v>447</v>
       </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="I126" s="7">
+        <v>3</v>
+      </c>
+      <c r="J126" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
         <v>448</v>
       </c>
-      <c r="I120" s="7">
-        <v>3</v>
-      </c>
-      <c r="J120" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D127" t="s">
         <v>449</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E127" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
         <v>451</v>
       </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I127" s="7">
+        <v>3</v>
+      </c>
+      <c r="J127" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
         <v>452</v>
       </c>
-      <c r="I121" s="7">
-        <v>3</v>
-      </c>
-      <c r="J121" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D128" t="s">
         <v>453</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E128" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
         <v>455</v>
       </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="I128" s="7">
+        <v>3</v>
+      </c>
+      <c r="J128" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
         <v>456</v>
       </c>
-      <c r="I122" s="7">
-        <v>3</v>
-      </c>
-      <c r="J122" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D129" t="s">
         <v>457</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E129" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
         <v>459</v>
       </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I129" s="7">
+        <v>3</v>
+      </c>
+      <c r="J129" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
         <v>460</v>
       </c>
-      <c r="I123" s="7">
-        <v>3</v>
-      </c>
-      <c r="J123" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="D130" t="s">
         <v>461</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E130" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
         <v>463</v>
       </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="I130" s="7">
+        <v>3</v>
+      </c>
+      <c r="J130" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
         <v>464</v>
       </c>
-      <c r="I124" s="7">
-        <v>3</v>
-      </c>
-      <c r="J124" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="D131" t="s">
         <v>465</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E131" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
         <v>467</v>
       </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="I131" s="7">
+        <v>3</v>
+      </c>
+      <c r="J131" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
         <v>468</v>
       </c>
-      <c r="I125" s="7">
-        <v>3</v>
-      </c>
-      <c r="J125" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D132" t="s">
         <v>469</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E132" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
         <v>471</v>
       </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="I132" s="7">
+        <v>3</v>
+      </c>
+      <c r="J132" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
         <v>472</v>
       </c>
-      <c r="I126" s="7">
-        <v>3</v>
-      </c>
-      <c r="J126" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D133" t="s">
         <v>473</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E133" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
         <v>475</v>
       </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="I133" s="7">
+        <v>3</v>
+      </c>
+      <c r="J133" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
         <v>476</v>
       </c>
-      <c r="I127" s="7">
-        <v>3</v>
-      </c>
-      <c r="J127" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D134" t="s">
         <v>477</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E134" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
         <v>479</v>
       </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="I134" s="7">
+        <v>3</v>
+      </c>
+      <c r="J134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
         <v>480</v>
       </c>
-      <c r="I128" s="7">
-        <v>3</v>
-      </c>
-      <c r="J128" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D135" t="s">
         <v>481</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E135" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
         <v>483</v>
       </c>
-      <c r="G129" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="I135" s="7">
+        <v>3</v>
+      </c>
+      <c r="J135" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
         <v>484</v>
       </c>
-      <c r="I129" s="7">
-        <v>3</v>
-      </c>
-      <c r="J129" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D136" t="s">
         <v>485</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E136" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
         <v>487</v>
       </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="I136" s="7">
+        <v>3</v>
+      </c>
+      <c r="J136" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
         <v>488</v>
       </c>
-      <c r="I130" s="7">
-        <v>3</v>
-      </c>
-      <c r="J130" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D137" t="s">
         <v>489</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E137" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
         <v>491</v>
       </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="I137" s="7">
+        <v>3</v>
+      </c>
+      <c r="J137" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
         <v>492</v>
       </c>
-      <c r="I131" s="7">
-        <v>3</v>
-      </c>
-      <c r="J131" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D138" t="s">
         <v>493</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E138" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
         <v>495</v>
       </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="I138" s="7">
+        <v>3</v>
+      </c>
+      <c r="J138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
         <v>496</v>
       </c>
-      <c r="I132" s="7">
-        <v>3</v>
-      </c>
-      <c r="J132" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>23</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D139" t="s">
         <v>497</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E139" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
         <v>499</v>
       </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="I139" s="7">
+        <v>3</v>
+      </c>
+      <c r="J139" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
         <v>500</v>
       </c>
-      <c r="I133" s="7">
-        <v>3</v>
-      </c>
-      <c r="J133" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D140" t="s">
         <v>501</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E140" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
         <v>503</v>
       </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="I140" s="7">
+        <v>3</v>
+      </c>
+      <c r="J140" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>625</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>627</v>
+      </c>
+      <c r="I141" s="7">
+        <v>3</v>
+      </c>
+      <c r="J141" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>628</v>
+      </c>
+      <c r="D142" t="s">
+        <v>629</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>630</v>
+      </c>
+      <c r="I142" s="7">
+        <v>3</v>
+      </c>
+      <c r="J142" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>631</v>
+      </c>
+      <c r="D143" t="s">
+        <v>632</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>633</v>
+      </c>
+      <c r="I143" s="7">
+        <v>3</v>
+      </c>
+      <c r="J143" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
         <v>504</v>
       </c>
-      <c r="I134" s="7">
-        <v>3</v>
-      </c>
-      <c r="J134" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D144" t="s">
         <v>505</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E144" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
         <v>507</v>
       </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="I144" s="7">
+        <v>3</v>
+      </c>
+      <c r="J144" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
         <v>508</v>
       </c>
-      <c r="I135" s="7">
-        <v>3</v>
-      </c>
-      <c r="J135" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D145" t="s">
         <v>509</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E145" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
         <v>511</v>
       </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="I145" s="7">
+        <v>3</v>
+      </c>
+      <c r="J145" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
         <v>512</v>
       </c>
-      <c r="I136" s="7">
-        <v>3</v>
-      </c>
-      <c r="J136" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D146" t="s">
         <v>513</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E146" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
         <v>515</v>
       </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="I146" s="7">
+        <v>3</v>
+      </c>
+      <c r="J146" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
         <v>516</v>
       </c>
-      <c r="I137" s="7">
-        <v>3</v>
-      </c>
-      <c r="J137" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D147" t="s">
         <v>517</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E147" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
         <v>519</v>
       </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="I147" s="7">
+        <v>3</v>
+      </c>
+      <c r="J147" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
         <v>520</v>
       </c>
-      <c r="I138" s="7">
-        <v>3</v>
-      </c>
-      <c r="J138" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D148" t="s">
         <v>521</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E148" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
         <v>523</v>
       </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="I148" s="7">
+        <v>3</v>
+      </c>
+      <c r="J148" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
         <v>524</v>
       </c>
-      <c r="I139" s="7">
-        <v>3</v>
-      </c>
-      <c r="J139" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>23</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D149" t="s">
         <v>525</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E149" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
         <v>527</v>
       </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="I149" s="7">
+        <v>3</v>
+      </c>
+      <c r="J149" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
         <v>528</v>
       </c>
-      <c r="I140" s="7">
-        <v>3</v>
-      </c>
-      <c r="J140" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>23</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="D150" t="s">
         <v>529</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E150" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
         <v>531</v>
       </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="I150" s="7">
+        <v>3</v>
+      </c>
+      <c r="J150" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
         <v>532</v>
       </c>
-      <c r="I141" s="7">
-        <v>3</v>
-      </c>
-      <c r="J141" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>23</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D151" t="s">
         <v>533</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E151" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
         <v>535</v>
       </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="I151" s="7">
+        <v>3</v>
+      </c>
+      <c r="J151" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
         <v>536</v>
       </c>
-      <c r="I142" s="7">
-        <v>3</v>
-      </c>
-      <c r="J142" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>23</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D152" t="s">
         <v>537</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E152" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
         <v>539</v>
       </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="I152" s="7">
+        <v>3</v>
+      </c>
+      <c r="J152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
         <v>540</v>
       </c>
-      <c r="I143" s="7">
-        <v>3</v>
-      </c>
-      <c r="J143" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D153" t="s">
         <v>541</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E153" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
         <v>543</v>
       </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="I153" s="7">
+        <v>3</v>
+      </c>
+      <c r="J153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
         <v>544</v>
       </c>
-      <c r="I144" s="7">
-        <v>3</v>
-      </c>
-      <c r="J144" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D154" t="s">
         <v>545</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E154" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
         <v>547</v>
       </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="I154" s="7">
+        <v>3</v>
+      </c>
+      <c r="J154" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
         <v>548</v>
       </c>
-      <c r="I145" s="7">
-        <v>3</v>
-      </c>
-      <c r="J145" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>23</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D155" t="s">
         <v>549</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E155" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
         <v>551</v>
       </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="I155" s="7">
+        <v>3</v>
+      </c>
+      <c r="J155" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
         <v>552</v>
       </c>
-      <c r="I146" s="7">
-        <v>3</v>
-      </c>
-      <c r="J146" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D156" t="s">
         <v>553</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E156" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
         <v>555</v>
       </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="I156" s="7">
+        <v>3</v>
+      </c>
+      <c r="J156" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
         <v>556</v>
       </c>
-      <c r="I147" s="7">
-        <v>3</v>
-      </c>
-      <c r="J147" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="D157" t="s">
         <v>557</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E157" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
         <v>559</v>
       </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="I157" s="7">
+        <v>3</v>
+      </c>
+      <c r="J157" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
         <v>560</v>
       </c>
-      <c r="I148" s="7">
-        <v>3</v>
-      </c>
-      <c r="J148" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>23</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="D158" t="s">
         <v>561</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E158" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
         <v>563</v>
       </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="I158" s="7">
+        <v>3</v>
+      </c>
+      <c r="J158" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="s">
         <v>564</v>
       </c>
-      <c r="I149" s="7">
-        <v>3</v>
-      </c>
-      <c r="J149" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D159" t="s">
         <v>565</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E159" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
         <v>567</v>
       </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="I159" s="7">
+        <v>3</v>
+      </c>
+      <c r="J159" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
         <v>568</v>
       </c>
-      <c r="I150" s="7">
-        <v>3</v>
-      </c>
-      <c r="J150" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>23</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="D160" t="s">
         <v>569</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E160" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
         <v>571</v>
       </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="I160" s="7">
+        <v>3</v>
+      </c>
+      <c r="J160" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
         <v>572</v>
       </c>
-      <c r="I151" s="7">
-        <v>3</v>
-      </c>
-      <c r="J151" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="D161" t="s">
         <v>573</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E161" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
         <v>575</v>
       </c>
-      <c r="G152" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="I161" s="7">
+        <v>3</v>
+      </c>
+      <c r="J161" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="s">
         <v>576</v>
       </c>
-      <c r="I152" s="7">
-        <v>3</v>
-      </c>
-      <c r="J152" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>23</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D162" t="s">
         <v>577</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E162" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
         <v>579</v>
       </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="I162" s="7">
+        <v>3</v>
+      </c>
+      <c r="J162" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="s">
         <v>580</v>
       </c>
-      <c r="I153" s="7">
-        <v>3</v>
-      </c>
-      <c r="J153" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>23</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D163" t="s">
         <v>581</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E163" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
         <v>583</v>
       </c>
-      <c r="G154" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="I163" s="7">
+        <v>3</v>
+      </c>
+      <c r="J163" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="s">
         <v>584</v>
       </c>
-      <c r="I154" s="7">
-        <v>3</v>
-      </c>
-      <c r="J154" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>23</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="D164" t="s">
         <v>585</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E164" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
         <v>587</v>
       </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155" t="s">
-        <v>588</v>
-      </c>
-      <c r="I155" s="7">
-        <v>3</v>
-      </c>
-      <c r="J155" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>23</v>
-      </c>
-      <c r="C156" t="s">
-        <v>589</v>
-      </c>
-      <c r="D156" t="s">
-        <v>590</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156" t="s">
-        <v>592</v>
-      </c>
-      <c r="I156" s="7">
-        <v>3</v>
-      </c>
-      <c r="J156" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>23</v>
-      </c>
-      <c r="C157" t="s">
-        <v>593</v>
-      </c>
-      <c r="D157" t="s">
-        <v>594</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="G157" t="b">
-        <v>0</v>
-      </c>
-      <c r="H157" t="s">
-        <v>596</v>
-      </c>
-      <c r="I157" s="7">
-        <v>3</v>
-      </c>
-      <c r="J157" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>23</v>
-      </c>
-      <c r="C158" t="s">
-        <v>597</v>
-      </c>
-      <c r="D158" t="s">
-        <v>598</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" t="s">
-        <v>600</v>
-      </c>
-      <c r="I158" s="7">
-        <v>3</v>
-      </c>
-      <c r="J158" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>23</v>
-      </c>
-      <c r="C159" t="s">
-        <v>601</v>
-      </c>
-      <c r="D159" t="s">
-        <v>602</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="I164" s="7">
+        <v>3</v>
+      </c>
+      <c r="J164" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D165" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E165" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="I159" s="7">
-        <v>3</v>
-      </c>
-      <c r="J159" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>23</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="I165" s="7">
+        <v>3</v>
+      </c>
+      <c r="J165" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D166" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="D160" t="s">
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I166" s="7">
+        <v>3</v>
+      </c>
+      <c r="J166" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D167" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E167" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>608</v>
-      </c>
-      <c r="I160" s="7">
-        <v>3</v>
-      </c>
-      <c r="J160" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>23</v>
-      </c>
-      <c r="C161" t="s">
-        <v>609</v>
-      </c>
-      <c r="D161" t="s">
-        <v>610</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="G161" t="b">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="I161" s="7">
-        <v>3</v>
-      </c>
-      <c r="J161" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D162" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="I162" s="7">
-        <v>3</v>
-      </c>
-      <c r="J162" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D163" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I163" s="7">
-        <v>3</v>
-      </c>
-      <c r="J163" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D164" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="I164" s="7">
-        <v>3</v>
-      </c>
-      <c r="J164" s="7" t="b">
+      <c r="I167" s="7">
+        <v>3</v>
+      </c>
+      <c r="J167" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247817E-D1A6-4B6E-9005-17F4BDFBC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD8D763-D108-443E-ADB5-6A19B0B95B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="650">
   <si>
     <t>##var</t>
   </si>
@@ -2130,6 +2119,18 @@
   </si>
   <si>
     <t>是否仅自己可见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_BaseDie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_BaseDie</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2541,25 +2542,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z167"/>
+  <dimension ref="A1:Z168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2604,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2678,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2709,7 +2710,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2754,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2949,1910 +2950,1912 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6</v>
+      </c>
+      <c r="J13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="7">
-        <v>3</v>
-      </c>
-      <c r="J15" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="7">
-        <v>3</v>
-      </c>
-      <c r="J17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="I18" s="7">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="7">
-        <v>3</v>
-      </c>
-      <c r="J18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="7">
-        <v>3</v>
-      </c>
-      <c r="J19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="I20" s="7">
+        <v>3</v>
+      </c>
+      <c r="J20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7">
-        <v>3</v>
-      </c>
-      <c r="J20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="I21" s="7">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>66</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="7">
-        <v>3</v>
-      </c>
-      <c r="J21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="I22" s="7">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="7">
-        <v>3</v>
-      </c>
-      <c r="J22" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="I23" s="7">
+        <v>3</v>
+      </c>
+      <c r="J23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="7">
-        <v>3</v>
-      </c>
-      <c r="J23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="I24" s="7">
+        <v>3</v>
+      </c>
+      <c r="J24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>77</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>78</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="7">
-        <v>3</v>
-      </c>
-      <c r="J24" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="I25" s="7">
+        <v>3</v>
+      </c>
+      <c r="J25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>82</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="7">
-        <v>3</v>
-      </c>
-      <c r="J25" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="J26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>85</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>86</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="7">
-        <v>3</v>
-      </c>
-      <c r="J26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="I27" s="7">
+        <v>3</v>
+      </c>
+      <c r="J27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="7">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+      <c r="J28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>94</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="7">
-        <v>3</v>
-      </c>
-      <c r="J28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="I29" s="7">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>97</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="7">
-        <v>3</v>
-      </c>
-      <c r="J29" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="I30" s="7">
+        <v>3</v>
+      </c>
+      <c r="J30" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="7">
-        <v>3</v>
-      </c>
-      <c r="J30" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+      <c r="J31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>106</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="7">
-        <v>3</v>
-      </c>
-      <c r="J31" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="I32" s="7">
+        <v>3</v>
+      </c>
+      <c r="J32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>109</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>110</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="7">
-        <v>3</v>
-      </c>
-      <c r="J32" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="I33" s="7">
+        <v>3</v>
+      </c>
+      <c r="J33" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>112</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>114</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="7">
-        <v>3</v>
-      </c>
-      <c r="J33" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="I34" s="7">
+        <v>3</v>
+      </c>
+      <c r="J34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>117</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>118</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="7">
-        <v>3</v>
-      </c>
-      <c r="J34" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="I35" s="7">
+        <v>3</v>
+      </c>
+      <c r="J35" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>122</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="7">
-        <v>3</v>
-      </c>
-      <c r="J35" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="I36" s="7">
+        <v>3</v>
+      </c>
+      <c r="J36" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>126</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>127</v>
       </c>
-      <c r="I36" s="7">
-        <v>3</v>
-      </c>
-      <c r="J36" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="I37" s="7">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
         <v>128</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>130</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="7">
-        <v>3</v>
-      </c>
-      <c r="J37" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="I38" s="7">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>134</v>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>135</v>
       </c>
-      <c r="I38" s="7">
-        <v>3</v>
-      </c>
-      <c r="J38" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="I39" s="7">
+        <v>3</v>
+      </c>
+      <c r="J39" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>139</v>
       </c>
-      <c r="I39" s="7">
-        <v>3</v>
-      </c>
-      <c r="J39" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="I40" s="7">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
         <v>140</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>141</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>142</v>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>143</v>
       </c>
-      <c r="I40" s="7">
-        <v>3</v>
-      </c>
-      <c r="J40" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="I41" s="7">
+        <v>3</v>
+      </c>
+      <c r="J41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>145</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>146</v>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="7">
-        <v>3</v>
-      </c>
-      <c r="J41" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="I42" s="7">
+        <v>3</v>
+      </c>
+      <c r="J42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>149</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>150</v>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="7">
-        <v>3</v>
-      </c>
-      <c r="J42" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="I43" s="7">
+        <v>3</v>
+      </c>
+      <c r="J43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
         <v>152</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>153</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>155</v>
       </c>
-      <c r="I43" s="7">
-        <v>3</v>
-      </c>
-      <c r="J43" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="I44" s="7">
+        <v>3</v>
+      </c>
+      <c r="J44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
         <v>156</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>157</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>158</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>159</v>
       </c>
-      <c r="I44" s="7">
-        <v>3</v>
-      </c>
-      <c r="J44" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="I45" s="7">
+        <v>3</v>
+      </c>
+      <c r="J45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
         <v>160</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>161</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>162</v>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>163</v>
       </c>
-      <c r="I45" s="7">
-        <v>3</v>
-      </c>
-      <c r="J45" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="I46" s="7">
+        <v>3</v>
+      </c>
+      <c r="J46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
         <v>164</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>165</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>166</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="7">
-        <v>3</v>
-      </c>
-      <c r="J46" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="I47" s="7">
+        <v>3</v>
+      </c>
+      <c r="J47" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
         <v>168</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>169</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>170</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="7">
-        <v>3</v>
-      </c>
-      <c r="J47" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="I48" s="7">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
         <v>172</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>173</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>174</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>175</v>
       </c>
-      <c r="I48" s="7">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="I49" s="7">
+        <v>3</v>
+      </c>
+      <c r="J49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
         <v>176</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>177</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>178</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="7">
-        <v>3</v>
-      </c>
-      <c r="J49" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="I50" s="7">
+        <v>3</v>
+      </c>
+      <c r="J50" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
         <v>180</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>181</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>182</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
         <v>183</v>
       </c>
-      <c r="I50" s="7">
-        <v>3</v>
-      </c>
-      <c r="J50" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="I51" s="7">
+        <v>3</v>
+      </c>
+      <c r="J51" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
         <v>184</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>185</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>186</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>187</v>
       </c>
-      <c r="I51" s="7">
-        <v>3</v>
-      </c>
-      <c r="J51" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="I52" s="7">
+        <v>3</v>
+      </c>
+      <c r="J52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
         <v>188</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>189</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>190</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>191</v>
       </c>
-      <c r="I52" s="7">
-        <v>3</v>
-      </c>
-      <c r="J52" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="I53" s="7">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
         <v>192</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>193</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>194</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
         <v>195</v>
       </c>
-      <c r="I53" s="7">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="I54" s="7">
+        <v>3</v>
+      </c>
+      <c r="J54" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
         <v>196</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>197</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>198</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
         <v>199</v>
       </c>
-      <c r="I54" s="7">
-        <v>3</v>
-      </c>
-      <c r="J54" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="I55" s="7">
+        <v>3</v>
+      </c>
+      <c r="J55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
         <v>200</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>201</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>202</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>203</v>
       </c>
-      <c r="I55" s="7">
-        <v>3</v>
-      </c>
-      <c r="J55" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="I56" s="7">
+        <v>3</v>
+      </c>
+      <c r="J56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
         <v>204</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>205</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>206</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>207</v>
       </c>
-      <c r="I56" s="7">
-        <v>3</v>
-      </c>
-      <c r="J56" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="I57" s="7">
+        <v>3</v>
+      </c>
+      <c r="J57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
         <v>208</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>209</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>210</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
         <v>211</v>
       </c>
-      <c r="I57" s="7">
-        <v>3</v>
-      </c>
-      <c r="J57" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="I58" s="7">
+        <v>3</v>
+      </c>
+      <c r="J58" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
         <v>212</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>213</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>214</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>215</v>
       </c>
-      <c r="I58" s="7">
-        <v>3</v>
-      </c>
-      <c r="J58" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="I59" s="7">
+        <v>3</v>
+      </c>
+      <c r="J59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
         <v>216</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>217</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>218</v>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
         <v>219</v>
       </c>
-      <c r="I59" s="7">
-        <v>3</v>
-      </c>
-      <c r="J59" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="I60" s="7">
+        <v>3</v>
+      </c>
+      <c r="J60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
         <v>220</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>221</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>222</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
         <v>223</v>
       </c>
-      <c r="I60" s="7">
-        <v>3</v>
-      </c>
-      <c r="J60" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="I61" s="7">
+        <v>3</v>
+      </c>
+      <c r="J61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
         <v>224</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>225</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>226</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>227</v>
       </c>
-      <c r="I61" s="7">
-        <v>3</v>
-      </c>
-      <c r="J61" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="I62" s="7">
+        <v>3</v>
+      </c>
+      <c r="J62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
         <v>616</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>617</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>634</v>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
         <v>618</v>
       </c>
-      <c r="I62" s="7">
-        <v>3</v>
-      </c>
-      <c r="J62" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="I63" s="7">
+        <v>3</v>
+      </c>
+      <c r="J63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
         <v>619</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>620</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>635</v>
       </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>621</v>
       </c>
-      <c r="I63" s="7">
-        <v>3</v>
-      </c>
-      <c r="J63" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="I64" s="7">
+        <v>3</v>
+      </c>
+      <c r="J64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
         <v>622</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>623</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>636</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>624</v>
       </c>
-      <c r="I64" s="7">
-        <v>3</v>
-      </c>
-      <c r="J64" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="I65" s="7">
+        <v>3</v>
+      </c>
+      <c r="J65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
         <v>228</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>229</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>230</v>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
         <v>231</v>
       </c>
-      <c r="I65" s="7">
-        <v>3</v>
-      </c>
-      <c r="J65" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="I66" s="7">
+        <v>3</v>
+      </c>
+      <c r="J66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
         <v>232</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>233</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>234</v>
       </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
         <v>235</v>
       </c>
-      <c r="I66" s="7">
-        <v>3</v>
-      </c>
-      <c r="J66" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="I67" s="7">
+        <v>3</v>
+      </c>
+      <c r="J67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
         <v>236</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>237</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>238</v>
       </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>239</v>
       </c>
-      <c r="I67" s="7">
-        <v>3</v>
-      </c>
-      <c r="J67" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="I68" s="7">
+        <v>3</v>
+      </c>
+      <c r="J68" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
         <v>240</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>241</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>242</v>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
         <v>243</v>
       </c>
-      <c r="I68" s="7">
-        <v>3</v>
-      </c>
-      <c r="J68" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="I69" s="7">
+        <v>3</v>
+      </c>
+      <c r="J69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
         <v>244</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>245</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>246</v>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
         <v>247</v>
       </c>
-      <c r="I69" s="7">
-        <v>3</v>
-      </c>
-      <c r="J69" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="I70" s="7">
+        <v>3</v>
+      </c>
+      <c r="J70" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
         <v>248</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>249</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>250</v>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
         <v>251</v>
       </c>
-      <c r="I70" s="7">
-        <v>3</v>
-      </c>
-      <c r="J70" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="I71" s="7">
+        <v>3</v>
+      </c>
+      <c r="J71" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
         <v>252</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>253</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>254</v>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
         <v>255</v>
       </c>
-      <c r="I71" s="7">
-        <v>3</v>
-      </c>
-      <c r="J71" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="I72" s="7">
+        <v>3</v>
+      </c>
+      <c r="J72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
         <v>256</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>257</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>258</v>
       </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
         <v>259</v>
       </c>
-      <c r="I72" s="7">
-        <v>3</v>
-      </c>
-      <c r="J72" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="I73" s="7">
+        <v>3</v>
+      </c>
+      <c r="J73" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
         <v>260</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>261</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>262</v>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
         <v>263</v>
       </c>
-      <c r="I73" s="7">
-        <v>3</v>
-      </c>
-      <c r="J73" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="I74" s="7">
+        <v>3</v>
+      </c>
+      <c r="J74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
         <v>264</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>265</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>266</v>
       </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
         <v>267</v>
       </c>
-      <c r="I74" s="7">
-        <v>3</v>
-      </c>
-      <c r="J74" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="I75" s="7">
+        <v>3</v>
+      </c>
+      <c r="J75" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
         <v>268</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>269</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>270</v>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
         <v>271</v>
       </c>
-      <c r="I75" s="7">
-        <v>3</v>
-      </c>
-      <c r="J75" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="I76" s="7">
+        <v>3</v>
+      </c>
+      <c r="J76" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
         <v>272</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>273</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>274</v>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
         <v>275</v>
       </c>
-      <c r="I76" s="7">
-        <v>3</v>
-      </c>
-      <c r="J76" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="I77" s="7">
+        <v>3</v>
+      </c>
+      <c r="J77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
         <v>276</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>277</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>278</v>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
         <v>279</v>
       </c>
-      <c r="I77" s="7">
-        <v>3</v>
-      </c>
-      <c r="J77" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="I78" s="7">
+        <v>3</v>
+      </c>
+      <c r="J78" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
         <v>280</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>281</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>282</v>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
         <v>283</v>
       </c>
-      <c r="I78" s="7">
-        <v>3</v>
-      </c>
-      <c r="J78" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="I79" s="7">
+        <v>3</v>
+      </c>
+      <c r="J79" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
         <v>284</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>285</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>286</v>
       </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="I79" s="7">
-        <v>3</v>
-      </c>
-      <c r="J79" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="I80" s="7">
+        <v>3</v>
+      </c>
+      <c r="J80" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
         <v>288</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>289</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>290</v>
       </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
         <v>291</v>
       </c>
-      <c r="I80" s="7">
-        <v>3</v>
-      </c>
-      <c r="J80" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="I81" s="7">
+        <v>3</v>
+      </c>
+      <c r="J81" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
         <v>292</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>293</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>294</v>
       </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
         <v>295</v>
       </c>
-      <c r="I81" s="7">
-        <v>3</v>
-      </c>
-      <c r="J81" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="I82" s="7">
+        <v>3</v>
+      </c>
+      <c r="J82" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
         <v>296</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>297</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>298</v>
       </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
         <v>299</v>
       </c>
-      <c r="I82" s="7">
-        <v>3</v>
-      </c>
-      <c r="J82" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="I83" s="7">
+        <v>3</v>
+      </c>
+      <c r="J83" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
         <v>300</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>301</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>302</v>
       </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
         <v>303</v>
       </c>
-      <c r="I83" s="7">
-        <v>3</v>
-      </c>
-      <c r="J83" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="I84" s="7">
+        <v>3</v>
+      </c>
+      <c r="J84" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
         <v>304</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>305</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>306</v>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
         <v>307</v>
       </c>
-      <c r="I84" s="7">
-        <v>3</v>
-      </c>
-      <c r="J84" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="I85" s="7">
+        <v>3</v>
+      </c>
+      <c r="J85" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
         <v>308</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>309</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>310</v>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
         <v>311</v>
       </c>
-      <c r="I85" s="7">
-        <v>3</v>
-      </c>
-      <c r="J85" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D86" s="7" t="s">
+      <c r="I86" s="7">
+        <v>3</v>
+      </c>
+      <c r="J86" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D87" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5" t="s">
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J86" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D87" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="I87" s="7">
         <v>0.5</v>
@@ -4861,18 +4864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D88" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I88" s="7">
         <v>0.5</v>
@@ -4881,18 +4884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D89" s="7" t="s">
-        <v>640</v>
+        <v>597</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="I89" s="7">
         <v>0.5</v>
@@ -4901,18 +4904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D90" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I90" s="7">
         <v>0.5</v>
@@ -4921,18 +4924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D91" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I91" s="7">
         <v>0.5</v>
@@ -4941,674 +4944,668 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D92" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J92" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
         <v>312</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>313</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
         <v>315</v>
       </c>
-      <c r="I93" s="7">
-        <v>3</v>
-      </c>
-      <c r="J93" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="I94" s="7">
+        <v>3</v>
+      </c>
+      <c r="J94" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
         <v>316</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>317</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
         <v>319</v>
       </c>
-      <c r="I94" s="7">
-        <v>3</v>
-      </c>
-      <c r="J94" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="I95" s="7">
+        <v>3</v>
+      </c>
+      <c r="J95" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
         <v>320</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
         <v>323</v>
       </c>
-      <c r="I95" s="7">
-        <v>3</v>
-      </c>
-      <c r="J95" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="I96" s="7">
+        <v>3</v>
+      </c>
+      <c r="J96" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
         <v>324</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>325</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
         <v>327</v>
       </c>
-      <c r="I96" s="7">
-        <v>3</v>
-      </c>
-      <c r="J96" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="I97" s="7">
+        <v>3</v>
+      </c>
+      <c r="J97" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
         <v>328</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>329</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
         <v>331</v>
       </c>
-      <c r="I97" s="7">
-        <v>3</v>
-      </c>
-      <c r="J97" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="I98" s="7">
+        <v>3</v>
+      </c>
+      <c r="J98" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
         <v>332</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>333</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E99" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
         <v>335</v>
       </c>
-      <c r="I98" s="7">
-        <v>3</v>
-      </c>
-      <c r="J98" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="I99" s="7">
+        <v>3</v>
+      </c>
+      <c r="J99" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
         <v>336</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>337</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
         <v>339</v>
       </c>
-      <c r="I99" s="7">
-        <v>3</v>
-      </c>
-      <c r="J99" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="I100" s="7">
+        <v>3</v>
+      </c>
+      <c r="J100" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
         <v>340</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>341</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
         <v>343</v>
       </c>
-      <c r="I100" s="7">
-        <v>3</v>
-      </c>
-      <c r="J100" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="I101" s="7">
+        <v>3</v>
+      </c>
+      <c r="J101" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
         <v>344</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>345</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E102" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
         <v>347</v>
       </c>
-      <c r="I101" s="7">
-        <v>3</v>
-      </c>
-      <c r="J101" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="I102" s="7">
+        <v>3</v>
+      </c>
+      <c r="J102" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
         <v>348</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>349</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
         <v>351</v>
       </c>
-      <c r="I102" s="7">
-        <v>3</v>
-      </c>
-      <c r="J102" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="I103" s="7">
+        <v>3</v>
+      </c>
+      <c r="J103" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
         <v>352</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>353</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
         <v>355</v>
       </c>
-      <c r="I103" s="7">
-        <v>3</v>
-      </c>
-      <c r="J103" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="I104" s="7">
+        <v>3</v>
+      </c>
+      <c r="J104" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
         <v>356</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>357</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
         <v>359</v>
       </c>
-      <c r="I104" s="7">
-        <v>3</v>
-      </c>
-      <c r="J104" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="I105" s="7">
+        <v>3</v>
+      </c>
+      <c r="J105" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
         <v>360</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>361</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>362</v>
       </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
         <v>363</v>
       </c>
-      <c r="I105" s="7">
-        <v>3</v>
-      </c>
-      <c r="J105" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="I106" s="7">
+        <v>3</v>
+      </c>
+      <c r="J106" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
         <v>364</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>365</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>366</v>
       </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
         <v>367</v>
       </c>
-      <c r="I106" s="7">
-        <v>3</v>
-      </c>
-      <c r="J106" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="I107" s="7">
+        <v>3</v>
+      </c>
+      <c r="J107" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
         <v>368</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>369</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>370</v>
       </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
         <v>371</v>
       </c>
-      <c r="I107" s="7">
-        <v>3</v>
-      </c>
-      <c r="J107" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="I108" s="7">
+        <v>3</v>
+      </c>
+      <c r="J108" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
         <v>372</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>373</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
         <v>375</v>
       </c>
-      <c r="I108" s="7">
-        <v>3</v>
-      </c>
-      <c r="J108" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="I109" s="7">
+        <v>3</v>
+      </c>
+      <c r="J109" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
         <v>376</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>377</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
         <v>379</v>
       </c>
-      <c r="I109" s="7">
-        <v>3</v>
-      </c>
-      <c r="J109" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="I110" s="7">
+        <v>3</v>
+      </c>
+      <c r="J110" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
         <v>380</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>381</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
         <v>383</v>
       </c>
-      <c r="I110" s="7">
-        <v>3</v>
-      </c>
-      <c r="J110" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="I111" s="7">
+        <v>3</v>
+      </c>
+      <c r="J111" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
         <v>384</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>385</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>386</v>
       </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
         <v>387</v>
       </c>
-      <c r="I111" s="7">
-        <v>3</v>
-      </c>
-      <c r="J111" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="I112" s="7">
+        <v>3</v>
+      </c>
+      <c r="J112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
         <v>388</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>389</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>390</v>
       </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
         <v>391</v>
       </c>
-      <c r="I112" s="7">
-        <v>3</v>
-      </c>
-      <c r="J112" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="I113" s="7">
+        <v>3</v>
+      </c>
+      <c r="J113" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
         <v>392</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>393</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>394</v>
       </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
         <v>395</v>
       </c>
-      <c r="I113" s="7">
-        <v>3</v>
-      </c>
-      <c r="J113" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="I114" s="7">
+        <v>3</v>
+      </c>
+      <c r="J114" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
         <v>396</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>397</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
         <v>399</v>
       </c>
-      <c r="I114" s="7">
-        <v>3</v>
-      </c>
-      <c r="J114" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="I115" s="7">
+        <v>3</v>
+      </c>
+      <c r="J115" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
         <v>400</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>401</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
         <v>403</v>
       </c>
-      <c r="I115" s="7">
-        <v>3</v>
-      </c>
-      <c r="J115" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="I116" s="7">
+        <v>3</v>
+      </c>
+      <c r="J116" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
         <v>404</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>405</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
         <v>407</v>
       </c>
-      <c r="I116" s="7">
-        <v>3</v>
-      </c>
-      <c r="J116" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="I117" s="7">
+        <v>3</v>
+      </c>
+      <c r="J117" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
         <v>408</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>409</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
         <v>411</v>
-      </c>
-      <c r="I117" s="7">
-        <v>1</v>
-      </c>
-      <c r="J117" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" t="s">
-        <v>412</v>
-      </c>
-      <c r="D118" t="s">
-        <v>413</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>415</v>
       </c>
       <c r="I118" s="7">
         <v>1</v>
@@ -5617,24 +5614,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D119" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -5643,1233 +5640,1259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>22</v>
       </c>
       <c r="C120" t="s">
+        <v>416</v>
+      </c>
+      <c r="D120" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>419</v>
+      </c>
+      <c r="I120" s="7">
+        <v>1</v>
+      </c>
+      <c r="J120" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
         <v>420</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>421</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
         <v>423</v>
       </c>
-      <c r="I120" s="7">
-        <v>3</v>
-      </c>
-      <c r="J120" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="I121" s="7">
+        <v>3</v>
+      </c>
+      <c r="J121" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
         <v>424</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>425</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E122" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
         <v>427</v>
       </c>
-      <c r="I121" s="7">
-        <v>3</v>
-      </c>
-      <c r="J121" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="I122" s="7">
+        <v>3</v>
+      </c>
+      <c r="J122" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
         <v>428</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>429</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
         <v>431</v>
       </c>
-      <c r="I122" s="7">
-        <v>3</v>
-      </c>
-      <c r="J122" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="I123" s="7">
+        <v>3</v>
+      </c>
+      <c r="J123" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
         <v>432</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>433</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
         <v>435</v>
       </c>
-      <c r="I123" s="7">
-        <v>3</v>
-      </c>
-      <c r="J123" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="I124" s="7">
+        <v>3</v>
+      </c>
+      <c r="J124" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
         <v>436</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>437</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
         <v>439</v>
       </c>
-      <c r="I124" s="7">
-        <v>3</v>
-      </c>
-      <c r="J124" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="I125" s="7">
+        <v>3</v>
+      </c>
+      <c r="J125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
         <v>440</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>441</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
         <v>443</v>
       </c>
-      <c r="I125" s="7">
-        <v>3</v>
-      </c>
-      <c r="J125" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="I126" s="7">
+        <v>3</v>
+      </c>
+      <c r="J126" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
         <v>444</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>445</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
         <v>447</v>
       </c>
-      <c r="I126" s="7">
-        <v>3</v>
-      </c>
-      <c r="J126" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="I127" s="7">
+        <v>3</v>
+      </c>
+      <c r="J127" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
         <v>448</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>449</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
         <v>451</v>
       </c>
-      <c r="I127" s="7">
-        <v>3</v>
-      </c>
-      <c r="J127" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="I128" s="7">
+        <v>3</v>
+      </c>
+      <c r="J128" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
         <v>452</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>453</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
         <v>455</v>
       </c>
-      <c r="I128" s="7">
-        <v>3</v>
-      </c>
-      <c r="J128" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="I129" s="7">
+        <v>3</v>
+      </c>
+      <c r="J129" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
         <v>456</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>457</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="G129" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
         <v>459</v>
       </c>
-      <c r="I129" s="7">
-        <v>3</v>
-      </c>
-      <c r="J129" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="I130" s="7">
+        <v>3</v>
+      </c>
+      <c r="J130" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
         <v>460</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>461</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
         <v>463</v>
       </c>
-      <c r="I130" s="7">
-        <v>3</v>
-      </c>
-      <c r="J130" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="I131" s="7">
+        <v>3</v>
+      </c>
+      <c r="J131" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
         <v>464</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>465</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E132" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
         <v>467</v>
       </c>
-      <c r="I131" s="7">
-        <v>3</v>
-      </c>
-      <c r="J131" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="I132" s="7">
+        <v>3</v>
+      </c>
+      <c r="J132" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
         <v>468</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>469</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E133" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
         <v>471</v>
       </c>
-      <c r="I132" s="7">
-        <v>3</v>
-      </c>
-      <c r="J132" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="I133" s="7">
+        <v>3</v>
+      </c>
+      <c r="J133" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
         <v>472</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>473</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
         <v>475</v>
       </c>
-      <c r="I133" s="7">
-        <v>3</v>
-      </c>
-      <c r="J133" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="I134" s="7">
+        <v>3</v>
+      </c>
+      <c r="J134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
         <v>476</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>477</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
         <v>479</v>
       </c>
-      <c r="I134" s="7">
-        <v>3</v>
-      </c>
-      <c r="J134" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="I135" s="7">
+        <v>3</v>
+      </c>
+      <c r="J135" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
         <v>480</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>481</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
         <v>483</v>
       </c>
-      <c r="I135" s="7">
-        <v>3</v>
-      </c>
-      <c r="J135" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="I136" s="7">
+        <v>3</v>
+      </c>
+      <c r="J136" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
         <v>484</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>485</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E137" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
         <v>487</v>
       </c>
-      <c r="I136" s="7">
-        <v>3</v>
-      </c>
-      <c r="J136" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="I137" s="7">
+        <v>3</v>
+      </c>
+      <c r="J137" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
         <v>488</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D138" t="s">
         <v>489</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E138" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
         <v>491</v>
       </c>
-      <c r="I137" s="7">
-        <v>3</v>
-      </c>
-      <c r="J137" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="I138" s="7">
+        <v>3</v>
+      </c>
+      <c r="J138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
         <v>492</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D139" t="s">
         <v>493</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
         <v>495</v>
       </c>
-      <c r="I138" s="7">
-        <v>3</v>
-      </c>
-      <c r="J138" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="I139" s="7">
+        <v>3</v>
+      </c>
+      <c r="J139" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
         <v>496</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>497</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
         <v>499</v>
       </c>
-      <c r="I139" s="7">
-        <v>3</v>
-      </c>
-      <c r="J139" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="I140" s="7">
+        <v>3</v>
+      </c>
+      <c r="J140" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
         <v>500</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>501</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
         <v>503</v>
       </c>
-      <c r="I140" s="7">
-        <v>3</v>
-      </c>
-      <c r="J140" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="I141" s="7">
+        <v>3</v>
+      </c>
+      <c r="J141" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
         <v>625</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
         <v>627</v>
       </c>
-      <c r="I141" s="7">
-        <v>3</v>
-      </c>
-      <c r="J141" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="I142" s="7">
+        <v>3</v>
+      </c>
+      <c r="J142" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
         <v>628</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>629</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E143" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
         <v>630</v>
       </c>
-      <c r="I142" s="7">
-        <v>3</v>
-      </c>
-      <c r="J142" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="I143" s="7">
+        <v>3</v>
+      </c>
+      <c r="J143" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
         <v>631</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D144" t="s">
         <v>632</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
         <v>633</v>
       </c>
-      <c r="I143" s="7">
-        <v>3</v>
-      </c>
-      <c r="J143" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="I144" s="7">
+        <v>3</v>
+      </c>
+      <c r="J144" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
         <v>504</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D145" t="s">
         <v>505</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E145" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
         <v>507</v>
       </c>
-      <c r="I144" s="7">
-        <v>3</v>
-      </c>
-      <c r="J144" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="I145" s="7">
+        <v>3</v>
+      </c>
+      <c r="J145" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
         <v>508</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>509</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E146" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
         <v>511</v>
       </c>
-      <c r="I145" s="7">
-        <v>3</v>
-      </c>
-      <c r="J145" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="I146" s="7">
+        <v>3</v>
+      </c>
+      <c r="J146" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
         <v>512</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>513</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
         <v>515</v>
       </c>
-      <c r="I146" s="7">
-        <v>3</v>
-      </c>
-      <c r="J146" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="I147" s="7">
+        <v>3</v>
+      </c>
+      <c r="J147" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
         <v>516</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>517</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E148" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
         <v>519</v>
       </c>
-      <c r="I147" s="7">
-        <v>3</v>
-      </c>
-      <c r="J147" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="I148" s="7">
+        <v>3</v>
+      </c>
+      <c r="J148" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
         <v>520</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>521</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
         <v>523</v>
       </c>
-      <c r="I148" s="7">
-        <v>3</v>
-      </c>
-      <c r="J148" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="I149" s="7">
+        <v>3</v>
+      </c>
+      <c r="J149" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
         <v>524</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>525</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E150" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
         <v>527</v>
       </c>
-      <c r="I149" s="7">
-        <v>3</v>
-      </c>
-      <c r="J149" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="I150" s="7">
+        <v>3</v>
+      </c>
+      <c r="J150" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
         <v>528</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>529</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
         <v>531</v>
       </c>
-      <c r="I150" s="7">
-        <v>3</v>
-      </c>
-      <c r="J150" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>22</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="I151" s="7">
+        <v>3</v>
+      </c>
+      <c r="J151" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
         <v>532</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>533</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E152" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
         <v>535</v>
       </c>
-      <c r="I151" s="7">
-        <v>3</v>
-      </c>
-      <c r="J151" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="I152" s="7">
+        <v>3</v>
+      </c>
+      <c r="J152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
         <v>536</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>537</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E153" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="G152" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
         <v>539</v>
       </c>
-      <c r="I152" s="7">
-        <v>3</v>
-      </c>
-      <c r="J152" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="I153" s="7">
+        <v>3</v>
+      </c>
+      <c r="J153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
         <v>540</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>541</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E154" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
         <v>543</v>
       </c>
-      <c r="I153" s="7">
-        <v>3</v>
-      </c>
-      <c r="J153" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="I154" s="7">
+        <v>3</v>
+      </c>
+      <c r="J154" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
         <v>544</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>545</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E155" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="G154" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
         <v>547</v>
       </c>
-      <c r="I154" s="7">
-        <v>3</v>
-      </c>
-      <c r="J154" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="I155" s="7">
+        <v>3</v>
+      </c>
+      <c r="J155" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
         <v>548</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>549</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E156" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
         <v>551</v>
       </c>
-      <c r="I155" s="7">
-        <v>3</v>
-      </c>
-      <c r="J155" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="I156" s="7">
+        <v>3</v>
+      </c>
+      <c r="J156" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
         <v>552</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>553</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="G156" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
         <v>555</v>
       </c>
-      <c r="I156" s="7">
-        <v>3</v>
-      </c>
-      <c r="J156" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>22</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="I157" s="7">
+        <v>3</v>
+      </c>
+      <c r="J157" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
         <v>556</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>557</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="G157" t="b">
-        <v>0</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
         <v>559</v>
       </c>
-      <c r="I157" s="7">
-        <v>3</v>
-      </c>
-      <c r="J157" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>22</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="I158" s="7">
+        <v>3</v>
+      </c>
+      <c r="J158" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="s">
         <v>560</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>561</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
         <v>563</v>
       </c>
-      <c r="I158" s="7">
-        <v>3</v>
-      </c>
-      <c r="J158" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="I159" s="7">
+        <v>3</v>
+      </c>
+      <c r="J159" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
         <v>564</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>565</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E160" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="G159" t="b">
-        <v>0</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
         <v>567</v>
       </c>
-      <c r="I159" s="7">
-        <v>3</v>
-      </c>
-      <c r="J159" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="I160" s="7">
+        <v>3</v>
+      </c>
+      <c r="J160" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
         <v>568</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>569</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E161" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="G160" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
         <v>571</v>
       </c>
-      <c r="I160" s="7">
-        <v>3</v>
-      </c>
-      <c r="J160" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="I161" s="7">
+        <v>3</v>
+      </c>
+      <c r="J161" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="s">
         <v>572</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>573</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G161" t="b">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
         <v>575</v>
       </c>
-      <c r="I161" s="7">
-        <v>3</v>
-      </c>
-      <c r="J161" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="I162" s="7">
+        <v>3</v>
+      </c>
+      <c r="J162" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="s">
         <v>576</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>577</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E163" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="G162" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
         <v>579</v>
       </c>
-      <c r="I162" s="7">
-        <v>3</v>
-      </c>
-      <c r="J162" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>22</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="I163" s="7">
+        <v>3</v>
+      </c>
+      <c r="J163" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="s">
         <v>580</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>581</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E164" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
         <v>583</v>
       </c>
-      <c r="I163" s="7">
-        <v>3</v>
-      </c>
-      <c r="J163" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="I164" s="7">
+        <v>3</v>
+      </c>
+      <c r="J164" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="s">
         <v>584</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>585</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E165" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
-      <c r="H164" t="s">
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
         <v>587</v>
       </c>
-      <c r="I164" s="7">
-        <v>3</v>
-      </c>
-      <c r="J164" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D165" s="7" t="s">
+      <c r="I165" s="7">
+        <v>3</v>
+      </c>
+      <c r="J165" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D166" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" s="5" t="s">
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="I165" s="7">
-        <v>3</v>
-      </c>
-      <c r="J165" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D166" s="7" t="s">
+      <c r="I166" s="7">
+        <v>3</v>
+      </c>
+      <c r="J166" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D167" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E167" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" s="5" t="s">
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="I166" s="7">
-        <v>3</v>
-      </c>
-      <c r="J166" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D167" s="7" t="s">
+      <c r="I167" s="7">
+        <v>3</v>
+      </c>
+      <c r="J167" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D168" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="G167" t="b">
-        <v>0</v>
-      </c>
-      <c r="H167" s="5" t="s">
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="I167" s="7">
-        <v>3</v>
-      </c>
-      <c r="J167" s="7" t="b">
+      <c r="I168" s="7">
+        <v>3</v>
+      </c>
+      <c r="J168" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD8D763-D108-443E-ADB5-6A19B0B95B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5681E9CF-1BB7-4631-9BD1-B78649FBB4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2542,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:Z169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D14" sqref="D14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2972,50 +2972,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3</v>
-      </c>
-      <c r="J15" s="7" t="b">
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
@@ -3029,19 +3013,19 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
         <v>3</v>
@@ -3055,19 +3039,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
         <v>3</v>
@@ -3081,19 +3065,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I19" s="7">
         <v>3</v>
@@ -3107,19 +3091,19 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7">
         <v>3</v>
@@ -3133,19 +3117,19 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I21" s="7">
         <v>3</v>
@@ -3159,19 +3143,19 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I22" s="7">
         <v>3</v>
@@ -3185,19 +3169,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I23" s="7">
         <v>3</v>
@@ -3211,19 +3195,19 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I24" s="7">
         <v>3</v>
@@ -3237,19 +3221,19 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7">
         <v>3</v>
@@ -3263,19 +3247,19 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I26" s="7">
         <v>3</v>
@@ -3289,19 +3273,19 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I27" s="7">
         <v>3</v>
@@ -3315,19 +3299,19 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I28" s="7">
         <v>3</v>
@@ -3341,19 +3325,19 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I29" s="7">
         <v>3</v>
@@ -3367,19 +3351,19 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I30" s="7">
         <v>3</v>
@@ -3393,19 +3377,19 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I31" s="7">
         <v>3</v>
@@ -3419,19 +3403,19 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I32" s="7">
         <v>3</v>
@@ -3445,19 +3429,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I33" s="7">
         <v>3</v>
@@ -3471,19 +3455,19 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I34" s="7">
         <v>3</v>
@@ -3497,19 +3481,19 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I35" s="7">
         <v>3</v>
@@ -3523,19 +3507,19 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I36" s="7">
         <v>3</v>
@@ -3549,19 +3533,19 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I37" s="7">
         <v>3</v>
@@ -3575,19 +3559,19 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I38" s="7">
         <v>3</v>
@@ -3601,19 +3585,19 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I39" s="7">
         <v>3</v>
@@ -3627,19 +3611,19 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I40" s="7">
         <v>3</v>
@@ -3653,19 +3637,19 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I41" s="7">
         <v>3</v>
@@ -3679,19 +3663,19 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I42" s="7">
         <v>3</v>
@@ -3705,19 +3689,19 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I43" s="7">
         <v>3</v>
@@ -3731,19 +3715,19 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I44" s="7">
         <v>3</v>
@@ -3757,19 +3741,19 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I45" s="7">
         <v>3</v>
@@ -3783,19 +3767,19 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I46" s="7">
         <v>3</v>
@@ -3809,19 +3793,19 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I47" s="7">
         <v>3</v>
@@ -3835,19 +3819,19 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I48" s="7">
         <v>3</v>
@@ -3861,19 +3845,19 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I49" s="7">
         <v>3</v>
@@ -3887,19 +3871,19 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I50" s="7">
         <v>3</v>
@@ -3913,19 +3897,19 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I51" s="7">
         <v>3</v>
@@ -3939,19 +3923,19 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I52" s="7">
         <v>3</v>
@@ -3965,19 +3949,19 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I53" s="7">
         <v>3</v>
@@ -3991,19 +3975,19 @@
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I54" s="7">
         <v>3</v>
@@ -4017,19 +4001,19 @@
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I55" s="7">
         <v>3</v>
@@ -4043,19 +4027,19 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I56" s="7">
         <v>3</v>
@@ -4069,19 +4053,19 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I57" s="7">
         <v>3</v>
@@ -4095,19 +4079,19 @@
         <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I58" s="7">
         <v>3</v>
@@ -4121,19 +4105,19 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I59" s="7">
         <v>3</v>
@@ -4147,19 +4131,19 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I60" s="7">
         <v>3</v>
@@ -4173,19 +4157,19 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I61" s="7">
         <v>3</v>
@@ -4199,19 +4183,19 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I62" s="7">
         <v>3</v>
@@ -4225,19 +4209,19 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>616</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="E63" t="s">
-        <v>634</v>
+        <v>226</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>618</v>
+        <v>227</v>
       </c>
       <c r="I63" s="7">
         <v>3</v>
@@ -4251,19 +4235,19 @@
         <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D64" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I64" s="7">
         <v>3</v>
@@ -4277,19 +4261,19 @@
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D65" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E65" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I65" s="7">
         <v>3</v>
@@ -4303,19 +4287,19 @@
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>622</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>623</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>636</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>231</v>
+        <v>624</v>
       </c>
       <c r="I66" s="7">
         <v>3</v>
@@ -4329,19 +4313,19 @@
         <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I67" s="7">
         <v>3</v>
@@ -4355,19 +4339,19 @@
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I68" s="7">
         <v>3</v>
@@ -4381,19 +4365,19 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I69" s="7">
         <v>3</v>
@@ -4407,19 +4391,19 @@
         <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I70" s="7">
         <v>3</v>
@@ -4433,19 +4417,19 @@
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I71" s="7">
         <v>3</v>
@@ -4459,19 +4443,19 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I72" s="7">
         <v>3</v>
@@ -4485,19 +4469,19 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I73" s="7">
         <v>3</v>
@@ -4511,19 +4495,19 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E74" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I74" s="7">
         <v>3</v>
@@ -4537,19 +4521,19 @@
         <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E75" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I75" s="7">
         <v>3</v>
@@ -4563,19 +4547,19 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E76" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I76" s="7">
         <v>3</v>
@@ -4589,19 +4573,19 @@
         <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I77" s="7">
         <v>3</v>
@@ -4615,19 +4599,19 @@
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I78" s="7">
         <v>3</v>
@@ -4641,19 +4625,19 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I79" s="7">
         <v>3</v>
@@ -4667,19 +4651,19 @@
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I80" s="7">
         <v>3</v>
@@ -4693,19 +4677,19 @@
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I81" s="7">
         <v>3</v>
@@ -4719,19 +4703,19 @@
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I82" s="7">
         <v>3</v>
@@ -4745,19 +4729,19 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I83" s="7">
         <v>3</v>
@@ -4771,19 +4755,19 @@
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I84" s="7">
         <v>3</v>
@@ -4797,19 +4781,19 @@
         <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E85" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I85" s="7">
         <v>3</v>
@@ -4823,42 +4807,48 @@
         <v>22</v>
       </c>
       <c r="C86" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" t="s">
+        <v>306</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>307</v>
+      </c>
+      <c r="I86" s="7">
+        <v>3</v>
+      </c>
+      <c r="J86" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
         <v>308</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>309</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>310</v>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
         <v>311</v>
       </c>
-      <c r="I86" s="7">
-        <v>3</v>
-      </c>
-      <c r="J86" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D87" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>601</v>
-      </c>
       <c r="I87" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J87" s="7" t="b">
         <v>0</v>
@@ -4866,16 +4856,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D88" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I88" s="7">
         <v>0.5</v>
@@ -4886,16 +4876,16 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D89" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I89" s="7">
         <v>0.5</v>
@@ -4906,16 +4896,16 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D90" s="7" t="s">
-        <v>640</v>
+        <v>597</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="I90" s="7">
         <v>0.5</v>
@@ -4926,16 +4916,16 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D91" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I91" s="7">
         <v>0.5</v>
@@ -4946,16 +4936,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D92" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I92" s="7">
         <v>0.5</v>
@@ -4964,29 +4954,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
-        <v>312</v>
-      </c>
-      <c r="D94" t="s">
-        <v>313</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
-        <v>315</v>
-      </c>
-      <c r="I94" s="7">
-        <v>3</v>
-      </c>
-      <c r="J94" s="7" t="b">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D93" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4995,19 +4979,19 @@
         <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D95" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I95" s="7">
         <v>3</v>
@@ -5021,19 +5005,19 @@
         <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I96" s="7">
         <v>3</v>
@@ -5047,19 +5031,19 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I97" s="7">
         <v>3</v>
@@ -5073,19 +5057,19 @@
         <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I98" s="7">
         <v>3</v>
@@ -5099,19 +5083,19 @@
         <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D99" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I99" s="7">
         <v>3</v>
@@ -5125,19 +5109,19 @@
         <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I100" s="7">
         <v>3</v>
@@ -5151,19 +5135,19 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I101" s="7">
         <v>3</v>
@@ -5177,19 +5161,19 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D102" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I102" s="7">
         <v>3</v>
@@ -5203,19 +5187,19 @@
         <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I103" s="7">
         <v>3</v>
@@ -5229,19 +5213,19 @@
         <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I104" s="7">
         <v>3</v>
@@ -5255,19 +5239,19 @@
         <v>22</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D105" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I105" s="7">
         <v>3</v>
@@ -5281,19 +5265,19 @@
         <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s">
-        <v>361</v>
-      </c>
-      <c r="E106" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I106" s="7">
         <v>3</v>
@@ -5307,19 +5291,19 @@
         <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I107" s="7">
         <v>3</v>
@@ -5333,19 +5317,19 @@
         <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E108" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I108" s="7">
         <v>3</v>
@@ -5359,19 +5343,19 @@
         <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D109" t="s">
-        <v>373</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+      <c r="E109" t="s">
+        <v>370</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I109" s="7">
         <v>3</v>
@@ -5385,19 +5369,19 @@
         <v>22</v>
       </c>
       <c r="C110" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D110" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I110" s="7">
         <v>3</v>
@@ -5411,19 +5395,19 @@
         <v>22</v>
       </c>
       <c r="C111" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I111" s="7">
         <v>3</v>
@@ -5437,19 +5421,19 @@
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D112" t="s">
-        <v>385</v>
-      </c>
-      <c r="E112" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I112" s="7">
         <v>3</v>
@@ -5463,19 +5447,19 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E113" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I113" s="7">
         <v>3</v>
@@ -5489,19 +5473,19 @@
         <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D114" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E114" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I114" s="7">
         <v>3</v>
@@ -5515,19 +5499,19 @@
         <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D115" t="s">
-        <v>397</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="E115" t="s">
+        <v>394</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I115" s="7">
         <v>3</v>
@@ -5541,19 +5525,19 @@
         <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D116" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I116" s="7">
         <v>3</v>
@@ -5567,19 +5551,19 @@
         <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D117" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I117" s="7">
         <v>3</v>
@@ -5593,22 +5577,22 @@
         <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D118" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I118" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" s="7" t="b">
         <v>0</v>
@@ -5619,19 +5603,19 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D119" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -5645,19 +5629,19 @@
         <v>22</v>
       </c>
       <c r="C120" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D120" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
@@ -5671,22 +5655,22 @@
         <v>22</v>
       </c>
       <c r="C121" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D121" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I121" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" s="7" t="b">
         <v>0</v>
@@ -5697,19 +5681,19 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D122" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I122" s="7">
         <v>3</v>
@@ -5723,19 +5707,19 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D123" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I123" s="7">
         <v>3</v>
@@ -5749,19 +5733,19 @@
         <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D124" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I124" s="7">
         <v>3</v>
@@ -5775,19 +5759,19 @@
         <v>22</v>
       </c>
       <c r="C125" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D125" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I125" s="7">
         <v>3</v>
@@ -5801,19 +5785,19 @@
         <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D126" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I126" s="7">
         <v>3</v>
@@ -5827,19 +5811,19 @@
         <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D127" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I127" s="7">
         <v>3</v>
@@ -5853,19 +5837,19 @@
         <v>22</v>
       </c>
       <c r="C128" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D128" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I128" s="7">
         <v>3</v>
@@ -5879,19 +5863,19 @@
         <v>22</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D129" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I129" s="7">
         <v>3</v>
@@ -5905,19 +5889,19 @@
         <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D130" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I130" s="7">
         <v>3</v>
@@ -5931,19 +5915,19 @@
         <v>22</v>
       </c>
       <c r="C131" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D131" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I131" s="7">
         <v>3</v>
@@ -5957,19 +5941,19 @@
         <v>22</v>
       </c>
       <c r="C132" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D132" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I132" s="7">
         <v>3</v>
@@ -5983,19 +5967,19 @@
         <v>22</v>
       </c>
       <c r="C133" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D133" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I133" s="7">
         <v>3</v>
@@ -6009,19 +5993,19 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I134" s="7">
         <v>3</v>
@@ -6035,19 +6019,19 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D135" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I135" s="7">
         <v>3</v>
@@ -6061,19 +6045,19 @@
         <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D136" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I136" s="7">
         <v>3</v>
@@ -6087,19 +6071,19 @@
         <v>22</v>
       </c>
       <c r="C137" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D137" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I137" s="7">
         <v>3</v>
@@ -6113,19 +6097,19 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D138" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I138" s="7">
         <v>3</v>
@@ -6139,19 +6123,19 @@
         <v>22</v>
       </c>
       <c r="C139" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D139" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I139" s="7">
         <v>3</v>
@@ -6165,19 +6149,19 @@
         <v>22</v>
       </c>
       <c r="C140" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D140" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I140" s="7">
         <v>3</v>
@@ -6191,19 +6175,19 @@
         <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D141" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I141" s="7">
         <v>3</v>
@@ -6217,19 +6201,19 @@
         <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>625</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>626</v>
+        <v>500</v>
+      </c>
+      <c r="D142" t="s">
+        <v>501</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>613</v>
+        <v>502</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>627</v>
+        <v>503</v>
       </c>
       <c r="I142" s="7">
         <v>3</v>
@@ -6243,19 +6227,19 @@
         <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>628</v>
-      </c>
-      <c r="D143" t="s">
-        <v>629</v>
+        <v>625</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>626</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G143" t="b">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I143" s="7">
         <v>3</v>
@@ -6269,19 +6253,19 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D144" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I144" s="7">
         <v>3</v>
@@ -6295,19 +6279,19 @@
         <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>504</v>
+        <v>631</v>
       </c>
       <c r="D145" t="s">
-        <v>505</v>
+        <v>632</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>506</v>
+        <v>615</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>507</v>
+        <v>633</v>
       </c>
       <c r="I145" s="7">
         <v>3</v>
@@ -6321,19 +6305,19 @@
         <v>22</v>
       </c>
       <c r="C146" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D146" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G146" t="b">
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I146" s="7">
         <v>3</v>
@@ -6347,19 +6331,19 @@
         <v>22</v>
       </c>
       <c r="C147" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D147" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I147" s="7">
         <v>3</v>
@@ -6373,19 +6357,19 @@
         <v>22</v>
       </c>
       <c r="C148" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D148" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I148" s="7">
         <v>3</v>
@@ -6399,19 +6383,19 @@
         <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D149" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I149" s="7">
         <v>3</v>
@@ -6425,19 +6409,19 @@
         <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D150" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I150" s="7">
         <v>3</v>
@@ -6451,19 +6435,19 @@
         <v>22</v>
       </c>
       <c r="C151" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D151" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I151" s="7">
         <v>3</v>
@@ -6477,19 +6461,19 @@
         <v>22</v>
       </c>
       <c r="C152" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D152" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I152" s="7">
         <v>3</v>
@@ -6503,19 +6487,19 @@
         <v>22</v>
       </c>
       <c r="C153" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D153" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I153" s="7">
         <v>3</v>
@@ -6529,19 +6513,19 @@
         <v>22</v>
       </c>
       <c r="C154" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D154" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I154" s="7">
         <v>3</v>
@@ -6555,19 +6539,19 @@
         <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D155" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I155" s="7">
         <v>3</v>
@@ -6581,19 +6565,19 @@
         <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D156" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I156" s="7">
         <v>3</v>
@@ -6607,19 +6591,19 @@
         <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D157" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I157" s="7">
         <v>3</v>
@@ -6633,19 +6617,19 @@
         <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D158" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G158" t="b">
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I158" s="7">
         <v>3</v>
@@ -6659,19 +6643,19 @@
         <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D159" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I159" s="7">
         <v>3</v>
@@ -6685,19 +6669,19 @@
         <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D160" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I160" s="7">
         <v>3</v>
@@ -6711,19 +6695,19 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D161" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I161" s="7">
         <v>3</v>
@@ -6737,19 +6721,19 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D162" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I162" s="7">
         <v>3</v>
@@ -6763,19 +6747,19 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D163" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G163" t="b">
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I163" s="7">
         <v>3</v>
@@ -6789,19 +6773,19 @@
         <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D164" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I164" s="7">
         <v>3</v>
@@ -6815,39 +6799,45 @@
         <v>22</v>
       </c>
       <c r="C165" t="s">
+        <v>580</v>
+      </c>
+      <c r="D165" t="s">
+        <v>581</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>583</v>
+      </c>
+      <c r="I165" s="7">
+        <v>3</v>
+      </c>
+      <c r="J165" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
         <v>584</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>585</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E166" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
         <v>587</v>
-      </c>
-      <c r="I165" s="7">
-        <v>3</v>
-      </c>
-      <c r="J165" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D166" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="I166" s="7">
         <v>3</v>
@@ -6858,16 +6848,16 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D167" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I167" s="7">
         <v>3</v>
@@ -6878,21 +6868,41 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D168" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I168" s="7">
+        <v>3</v>
+      </c>
+      <c r="J168" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D169" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E169" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="G168" t="b">
-        <v>0</v>
-      </c>
-      <c r="H168" s="5" t="s">
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="I168" s="7">
-        <v>3</v>
-      </c>
-      <c r="J168" s="7" t="b">
+      <c r="I169" s="7">
+        <v>3</v>
+      </c>
+      <c r="J169" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5681E9CF-1BB7-4631-9BD1-B78649FBB4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF7008D-2B48-4F7A-A818-84000D259239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="668">
   <si>
     <t>##var</t>
   </si>
@@ -2132,6 +2146,66 @@
   <si>
     <t>PlayAudio_BaseDie</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_BreakArmor_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹发射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_IceBind_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡发射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_TimeBarrier_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界发射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_BreakArmor_Hit</t>
+  </si>
+  <si>
+    <t>破甲弹命中</t>
+  </si>
+  <si>
+    <t>ResAudio_IceBind_Hit</t>
+  </si>
+  <si>
+    <t>冰霜漩涡命中</t>
+  </si>
+  <si>
+    <t>ResAudio_TimeBarrier_Hit</t>
+  </si>
+  <si>
+    <t>时空结界命中</t>
+  </si>
+  <si>
+    <t>PlayAudio_BreakArmor_Fire</t>
+  </si>
+  <si>
+    <t>PlayAudio_IceBind_Fire</t>
+  </si>
+  <si>
+    <t>PlayAudio_TimeBarrier_Fire</t>
+  </si>
+  <si>
+    <t>PlayAudio_BreakArmor_Hit</t>
+  </si>
+  <si>
+    <t>PlayAudio_IceBind_Hit</t>
+  </si>
+  <si>
+    <t>PlayAudio_TimeBarrier_Hit</t>
   </si>
 </sst>
 </file>
@@ -2544,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6911,4 +6985,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A8694-FDD2-4E20-95E0-C72A4D08D013}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF7008D-2B48-4F7A-A818-84000D259239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D6BAE-CB31-4200-8DAF-772E7FFB1AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2618,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6991,7 +6991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A8694-FDD2-4E20-95E0-C72A4D08D013}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAudio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D6BAE-CB31-4200-8DAF-772E7FFB1AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8261B0-FAB5-4F45-AC88-F63A32910E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="672">
   <si>
     <t>##var</t>
   </si>
@@ -2206,6 +2204,21 @@
   </si>
   <si>
     <t>PlayAudio_TimeBarrier_Hit</t>
+  </si>
+  <si>
+    <t>VibrationType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vibrationType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>振动类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -2616,25 +2629,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z169"/>
+  <dimension ref="A1:AA169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2653,15 +2666,17 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -2677,8 +2692,9 @@
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA1"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2707,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2"/>
+      <c r="K2" s="3"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -2707,8 +2723,9 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2727,15 +2744,17 @@
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -2751,8 +2770,9 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2787,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4"/>
+      <c r="K4" s="4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -2783,8 +2803,9 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2803,15 +2824,17 @@
         <v>646</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -2827,8 +2850,9 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -2846,17 +2870,20 @@
       <c r="G6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
-      <c r="J6" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -2874,17 +2901,20 @@
       <c r="G7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2902,17 +2932,20 @@
       <c r="G8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2930,17 +2963,20 @@
       <c r="G9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="7">
-        <v>3</v>
-      </c>
-      <c r="J9" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -2958,17 +2994,20 @@
       <c r="G10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>-1</v>
       </c>
-      <c r="J10" s="7" t="b">
+      <c r="K10" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2986,17 +3025,20 @@
       <c r="G11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>-1</v>
       </c>
-      <c r="J11" s="7" t="b">
+      <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -3014,17 +3056,20 @@
       <c r="G12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I12" t="s">
         <v>594</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
         <v>649</v>
@@ -3037,26 +3082,30 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>6</v>
       </c>
-      <c r="J13" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="7"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -3072,17 +3121,20 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="7">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3098,17 +3150,20 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="7">
-        <v>3</v>
-      </c>
-      <c r="J17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+      <c r="K17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -3124,17 +3179,20 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I18" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="7">
-        <v>3</v>
-      </c>
-      <c r="J18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="7">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3150,17 +3208,20 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I19" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="7">
-        <v>3</v>
-      </c>
-      <c r="J19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="7">
+        <v>3</v>
+      </c>
+      <c r="K19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3176,17 +3237,20 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="7">
-        <v>3</v>
-      </c>
-      <c r="J20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="7">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3202,17 +3266,20 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I21" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="7">
-        <v>3</v>
-      </c>
-      <c r="J21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="7">
+        <v>3</v>
+      </c>
+      <c r="K21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -3228,17 +3295,20 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I22" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="7">
-        <v>3</v>
-      </c>
-      <c r="J22" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="7">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -3254,17 +3324,20 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I23" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="7">
-        <v>3</v>
-      </c>
-      <c r="J23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3280,17 +3353,20 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I24" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="7">
-        <v>3</v>
-      </c>
-      <c r="J24" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -3306,17 +3382,20 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I25" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="7">
-        <v>3</v>
-      </c>
-      <c r="J25" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="7">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -3332,17 +3411,20 @@
       <c r="G26" t="b">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I26" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="7">
-        <v>3</v>
-      </c>
-      <c r="J26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -3358,17 +3440,20 @@
       <c r="G27" t="b">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I27" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="7">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+      <c r="K27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -3384,17 +3469,20 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I28" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="7">
-        <v>3</v>
-      </c>
-      <c r="J28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -3410,17 +3498,20 @@
       <c r="G29" t="b">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I29" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="7">
-        <v>3</v>
-      </c>
-      <c r="J29" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="7">
+        <v>3</v>
+      </c>
+      <c r="K29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -3436,17 +3527,20 @@
       <c r="G30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I30" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="7">
-        <v>3</v>
-      </c>
-      <c r="J30" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="7">
+        <v>3</v>
+      </c>
+      <c r="K30" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
@@ -3462,17 +3556,20 @@
       <c r="G31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I31" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="7">
-        <v>3</v>
-      </c>
-      <c r="J31" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="7">
+        <v>3</v>
+      </c>
+      <c r="K31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -3488,17 +3585,20 @@
       <c r="G32" t="b">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I32" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="7">
-        <v>3</v>
-      </c>
-      <c r="J32" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -3514,17 +3614,20 @@
       <c r="G33" t="b">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I33" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="7">
-        <v>3</v>
-      </c>
-      <c r="J33" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="7">
+        <v>3</v>
+      </c>
+      <c r="K33" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -3540,17 +3643,20 @@
       <c r="G34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I34" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="7">
-        <v>3</v>
-      </c>
-      <c r="J34" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="7">
+        <v>3</v>
+      </c>
+      <c r="K34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>22</v>
       </c>
@@ -3566,17 +3672,20 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I35" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="7">
-        <v>3</v>
-      </c>
-      <c r="J35" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="7">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>22</v>
       </c>
@@ -3592,17 +3701,20 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I36" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="7">
-        <v>3</v>
-      </c>
-      <c r="J36" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="7">
+        <v>3</v>
+      </c>
+      <c r="K36" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -3618,17 +3730,20 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I37" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="7">
-        <v>3</v>
-      </c>
-      <c r="J37" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="7">
+        <v>3</v>
+      </c>
+      <c r="K37" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>22</v>
       </c>
@@ -3644,17 +3759,20 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I38" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="7">
-        <v>3</v>
-      </c>
-      <c r="J38" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="7">
+        <v>3</v>
+      </c>
+      <c r="K38" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -3670,17 +3788,20 @@
       <c r="G39" t="b">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I39" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="7">
-        <v>3</v>
-      </c>
-      <c r="J39" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="7">
+        <v>3</v>
+      </c>
+      <c r="K39" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>22</v>
       </c>
@@ -3696,17 +3817,20 @@
       <c r="G40" t="b">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I40" t="s">
         <v>135</v>
       </c>
-      <c r="I40" s="7">
-        <v>3</v>
-      </c>
-      <c r="J40" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="7">
+        <v>3</v>
+      </c>
+      <c r="K40" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>22</v>
       </c>
@@ -3722,17 +3846,20 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I41" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="7">
-        <v>3</v>
-      </c>
-      <c r="J41" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="7">
+        <v>3</v>
+      </c>
+      <c r="K41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>22</v>
       </c>
@@ -3748,17 +3875,20 @@
       <c r="G42" t="b">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I42" t="s">
         <v>143</v>
       </c>
-      <c r="I42" s="7">
-        <v>3</v>
-      </c>
-      <c r="J42" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="7">
+        <v>3</v>
+      </c>
+      <c r="K42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -3774,17 +3904,20 @@
       <c r="G43" t="b">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I43" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="7">
-        <v>3</v>
-      </c>
-      <c r="J43" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="7">
+        <v>3</v>
+      </c>
+      <c r="K43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>22</v>
       </c>
@@ -3800,17 +3933,20 @@
       <c r="G44" t="b">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I44" t="s">
         <v>151</v>
       </c>
-      <c r="I44" s="7">
-        <v>3</v>
-      </c>
-      <c r="J44" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="7">
+        <v>3</v>
+      </c>
+      <c r="K44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -3826,17 +3962,20 @@
       <c r="G45" t="b">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I45" t="s">
         <v>155</v>
       </c>
-      <c r="I45" s="7">
-        <v>3</v>
-      </c>
-      <c r="J45" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="7">
+        <v>3</v>
+      </c>
+      <c r="K45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -3852,17 +3991,20 @@
       <c r="G46" t="b">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I46" t="s">
         <v>159</v>
       </c>
-      <c r="I46" s="7">
-        <v>3</v>
-      </c>
-      <c r="J46" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="7">
+        <v>3</v>
+      </c>
+      <c r="K46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -3878,17 +4020,20 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I47" t="s">
         <v>163</v>
       </c>
-      <c r="I47" s="7">
-        <v>3</v>
-      </c>
-      <c r="J47" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="7">
+        <v>3</v>
+      </c>
+      <c r="K47" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>22</v>
       </c>
@@ -3904,17 +4049,20 @@
       <c r="G48" t="b">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I48" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="7">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="7">
+        <v>3</v>
+      </c>
+      <c r="K48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -3930,17 +4078,20 @@
       <c r="G49" t="b">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I49" t="s">
         <v>171</v>
       </c>
-      <c r="I49" s="7">
-        <v>3</v>
-      </c>
-      <c r="J49" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="7">
+        <v>3</v>
+      </c>
+      <c r="K49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -3956,17 +4107,20 @@
       <c r="G50" t="b">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I50" t="s">
         <v>175</v>
       </c>
-      <c r="I50" s="7">
-        <v>3</v>
-      </c>
-      <c r="J50" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="7">
+        <v>3</v>
+      </c>
+      <c r="K50" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -3982,17 +4136,20 @@
       <c r="G51" t="b">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I51" t="s">
         <v>179</v>
       </c>
-      <c r="I51" s="7">
-        <v>3</v>
-      </c>
-      <c r="J51" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="7">
+        <v>3</v>
+      </c>
+      <c r="K51" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -4008,17 +4165,20 @@
       <c r="G52" t="b">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I52" t="s">
         <v>183</v>
       </c>
-      <c r="I52" s="7">
-        <v>3</v>
-      </c>
-      <c r="J52" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="7">
+        <v>3</v>
+      </c>
+      <c r="K52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>22</v>
       </c>
@@ -4034,17 +4194,20 @@
       <c r="G53" t="b">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I53" t="s">
         <v>187</v>
       </c>
-      <c r="I53" s="7">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="7">
+        <v>3</v>
+      </c>
+      <c r="K53" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>22</v>
       </c>
@@ -4060,17 +4223,20 @@
       <c r="G54" t="b">
         <v>0</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I54" t="s">
         <v>191</v>
       </c>
-      <c r="I54" s="7">
-        <v>3</v>
-      </c>
-      <c r="J54" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="7">
+        <v>3</v>
+      </c>
+      <c r="K54" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>22</v>
       </c>
@@ -4086,17 +4252,20 @@
       <c r="G55" t="b">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I55" t="s">
         <v>195</v>
       </c>
-      <c r="I55" s="7">
-        <v>3</v>
-      </c>
-      <c r="J55" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="7">
+        <v>3</v>
+      </c>
+      <c r="K55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>22</v>
       </c>
@@ -4112,17 +4281,20 @@
       <c r="G56" t="b">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I56" t="s">
         <v>199</v>
       </c>
-      <c r="I56" s="7">
-        <v>3</v>
-      </c>
-      <c r="J56" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="7">
+        <v>3</v>
+      </c>
+      <c r="K56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>22</v>
       </c>
@@ -4138,17 +4310,20 @@
       <c r="G57" t="b">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I57" t="s">
         <v>203</v>
       </c>
-      <c r="I57" s="7">
-        <v>3</v>
-      </c>
-      <c r="J57" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="7">
+        <v>3</v>
+      </c>
+      <c r="K57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -4164,17 +4339,20 @@
       <c r="G58" t="b">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I58" t="s">
         <v>207</v>
       </c>
-      <c r="I58" s="7">
-        <v>3</v>
-      </c>
-      <c r="J58" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="7">
+        <v>3</v>
+      </c>
+      <c r="K58" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>22</v>
       </c>
@@ -4190,17 +4368,20 @@
       <c r="G59" t="b">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I59" t="s">
         <v>211</v>
       </c>
-      <c r="I59" s="7">
-        <v>3</v>
-      </c>
-      <c r="J59" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="7">
+        <v>3</v>
+      </c>
+      <c r="K59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>22</v>
       </c>
@@ -4216,17 +4397,20 @@
       <c r="G60" t="b">
         <v>0</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I60" t="s">
         <v>215</v>
       </c>
-      <c r="I60" s="7">
-        <v>3</v>
-      </c>
-      <c r="J60" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="7">
+        <v>3</v>
+      </c>
+      <c r="K60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>22</v>
       </c>
@@ -4242,17 +4426,20 @@
       <c r="G61" t="b">
         <v>0</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I61" t="s">
         <v>219</v>
       </c>
-      <c r="I61" s="7">
-        <v>3</v>
-      </c>
-      <c r="J61" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="7">
+        <v>3</v>
+      </c>
+      <c r="K61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>22</v>
       </c>
@@ -4268,17 +4455,20 @@
       <c r="G62" t="b">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I62" t="s">
         <v>223</v>
       </c>
-      <c r="I62" s="7">
-        <v>3</v>
-      </c>
-      <c r="J62" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="7">
+        <v>3</v>
+      </c>
+      <c r="K62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -4294,17 +4484,20 @@
       <c r="G63" t="b">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I63" t="s">
         <v>227</v>
       </c>
-      <c r="I63" s="7">
-        <v>3</v>
-      </c>
-      <c r="J63" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="7">
+        <v>3</v>
+      </c>
+      <c r="K63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>22</v>
       </c>
@@ -4320,17 +4513,20 @@
       <c r="G64" t="b">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I64" t="s">
         <v>618</v>
       </c>
-      <c r="I64" s="7">
-        <v>3</v>
-      </c>
-      <c r="J64" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="7">
+        <v>3</v>
+      </c>
+      <c r="K64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>22</v>
       </c>
@@ -4346,17 +4542,20 @@
       <c r="G65" t="b">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I65" t="s">
         <v>621</v>
       </c>
-      <c r="I65" s="7">
-        <v>3</v>
-      </c>
-      <c r="J65" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="7">
+        <v>3</v>
+      </c>
+      <c r="K65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>22</v>
       </c>
@@ -4372,17 +4571,20 @@
       <c r="G66" t="b">
         <v>0</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I66" t="s">
         <v>624</v>
       </c>
-      <c r="I66" s="7">
-        <v>3</v>
-      </c>
-      <c r="J66" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="7">
+        <v>3</v>
+      </c>
+      <c r="K66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>22</v>
       </c>
@@ -4398,17 +4600,20 @@
       <c r="G67" t="b">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I67" t="s">
         <v>231</v>
       </c>
-      <c r="I67" s="7">
-        <v>3</v>
-      </c>
-      <c r="J67" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="7">
+        <v>3</v>
+      </c>
+      <c r="K67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>22</v>
       </c>
@@ -4424,17 +4629,20 @@
       <c r="G68" t="b">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I68" t="s">
         <v>235</v>
       </c>
-      <c r="I68" s="7">
-        <v>3</v>
-      </c>
-      <c r="J68" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="7">
+        <v>3</v>
+      </c>
+      <c r="K68" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>22</v>
       </c>
@@ -4450,17 +4658,20 @@
       <c r="G69" t="b">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I69" t="s">
         <v>239</v>
       </c>
-      <c r="I69" s="7">
-        <v>3</v>
-      </c>
-      <c r="J69" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="7">
+        <v>3</v>
+      </c>
+      <c r="K69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>22</v>
       </c>
@@ -4476,17 +4687,20 @@
       <c r="G70" t="b">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I70" t="s">
         <v>243</v>
       </c>
-      <c r="I70" s="7">
-        <v>3</v>
-      </c>
-      <c r="J70" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="7">
+        <v>3</v>
+      </c>
+      <c r="K70" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>22</v>
       </c>
@@ -4502,17 +4716,20 @@
       <c r="G71" t="b">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I71" t="s">
         <v>247</v>
       </c>
-      <c r="I71" s="7">
-        <v>3</v>
-      </c>
-      <c r="J71" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J71" s="7">
+        <v>3</v>
+      </c>
+      <c r="K71" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>22</v>
       </c>
@@ -4528,17 +4745,20 @@
       <c r="G72" t="b">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I72" t="s">
         <v>251</v>
       </c>
-      <c r="I72" s="7">
-        <v>3</v>
-      </c>
-      <c r="J72" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J72" s="7">
+        <v>3</v>
+      </c>
+      <c r="K72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -4554,17 +4774,20 @@
       <c r="G73" t="b">
         <v>0</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I73" t="s">
         <v>255</v>
       </c>
-      <c r="I73" s="7">
-        <v>3</v>
-      </c>
-      <c r="J73" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J73" s="7">
+        <v>3</v>
+      </c>
+      <c r="K73" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>22</v>
       </c>
@@ -4580,17 +4803,20 @@
       <c r="G74" t="b">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I74" t="s">
         <v>259</v>
       </c>
-      <c r="I74" s="7">
-        <v>3</v>
-      </c>
-      <c r="J74" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J74" s="7">
+        <v>3</v>
+      </c>
+      <c r="K74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>22</v>
       </c>
@@ -4606,17 +4832,20 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I75" t="s">
         <v>263</v>
       </c>
-      <c r="I75" s="7">
-        <v>3</v>
-      </c>
-      <c r="J75" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J75" s="7">
+        <v>3</v>
+      </c>
+      <c r="K75" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>22</v>
       </c>
@@ -4632,17 +4861,20 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I76" t="s">
         <v>267</v>
       </c>
-      <c r="I76" s="7">
-        <v>3</v>
-      </c>
-      <c r="J76" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J76" s="7">
+        <v>3</v>
+      </c>
+      <c r="K76" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>22</v>
       </c>
@@ -4658,17 +4890,20 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I77" t="s">
         <v>271</v>
       </c>
-      <c r="I77" s="7">
-        <v>3</v>
-      </c>
-      <c r="J77" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J77" s="7">
+        <v>3</v>
+      </c>
+      <c r="K77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>22</v>
       </c>
@@ -4684,17 +4919,20 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I78" t="s">
         <v>275</v>
       </c>
-      <c r="I78" s="7">
-        <v>3</v>
-      </c>
-      <c r="J78" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J78" s="7">
+        <v>3</v>
+      </c>
+      <c r="K78" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -4710,17 +4948,20 @@
       <c r="G79" t="b">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I79" t="s">
         <v>279</v>
       </c>
-      <c r="I79" s="7">
-        <v>3</v>
-      </c>
-      <c r="J79" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J79" s="7">
+        <v>3</v>
+      </c>
+      <c r="K79" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>22</v>
       </c>
@@ -4736,17 +4977,20 @@
       <c r="G80" t="b">
         <v>0</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I80" t="s">
         <v>283</v>
       </c>
-      <c r="I80" s="7">
-        <v>3</v>
-      </c>
-      <c r="J80" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J80" s="7">
+        <v>3</v>
+      </c>
+      <c r="K80" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>22</v>
       </c>
@@ -4762,17 +5006,20 @@
       <c r="G81" t="b">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I81" t="s">
         <v>287</v>
       </c>
-      <c r="I81" s="7">
-        <v>3</v>
-      </c>
-      <c r="J81" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J81" s="7">
+        <v>3</v>
+      </c>
+      <c r="K81" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>22</v>
       </c>
@@ -4788,17 +5035,20 @@
       <c r="G82" t="b">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I82" t="s">
         <v>291</v>
       </c>
-      <c r="I82" s="7">
-        <v>3</v>
-      </c>
-      <c r="J82" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J82" s="7">
+        <v>3</v>
+      </c>
+      <c r="K82" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>22</v>
       </c>
@@ -4814,17 +5064,20 @@
       <c r="G83" t="b">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I83" t="s">
         <v>295</v>
       </c>
-      <c r="I83" s="7">
-        <v>3</v>
-      </c>
-      <c r="J83" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J83" s="7">
+        <v>3</v>
+      </c>
+      <c r="K83" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -4840,17 +5093,20 @@
       <c r="G84" t="b">
         <v>0</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I84" t="s">
         <v>299</v>
       </c>
-      <c r="I84" s="7">
-        <v>3</v>
-      </c>
-      <c r="J84" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J84" s="7">
+        <v>3</v>
+      </c>
+      <c r="K84" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>22</v>
       </c>
@@ -4866,17 +5122,20 @@
       <c r="G85" t="b">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I85" t="s">
         <v>303</v>
       </c>
-      <c r="I85" s="7">
-        <v>3</v>
-      </c>
-      <c r="J85" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="7">
+        <v>3</v>
+      </c>
+      <c r="K85" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>22</v>
       </c>
@@ -4892,17 +5151,20 @@
       <c r="G86" t="b">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I86" t="s">
         <v>307</v>
       </c>
-      <c r="I86" s="7">
-        <v>3</v>
-      </c>
-      <c r="J86" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J86" s="7">
+        <v>3</v>
+      </c>
+      <c r="K86" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>22</v>
       </c>
@@ -4918,17 +5180,20 @@
       <c r="G87" t="b">
         <v>0</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I87" t="s">
         <v>311</v>
       </c>
-      <c r="I87" s="7">
-        <v>3</v>
-      </c>
-      <c r="J87" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="7">
+        <v>3</v>
+      </c>
+      <c r="K87" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D88" s="7" t="s">
         <v>595</v>
       </c>
@@ -4939,16 +5204,19 @@
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I88" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="I88" s="7">
+      <c r="J88" s="7">
         <v>0.5</v>
       </c>
-      <c r="J88" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K88" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D89" s="7" t="s">
         <v>596</v>
       </c>
@@ -4959,16 +5227,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="I89" s="7">
+      <c r="J89" s="7">
         <v>0.5</v>
       </c>
-      <c r="J89" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D90" s="7" t="s">
         <v>597</v>
       </c>
@@ -4979,16 +5250,19 @@
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="I90" s="7">
+      <c r="J90" s="7">
         <v>0.5</v>
       </c>
-      <c r="J90" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K90" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D91" s="7" t="s">
         <v>640</v>
       </c>
@@ -4999,16 +5273,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="I91" s="7">
+      <c r="J91" s="7">
         <v>0.5</v>
       </c>
-      <c r="J91" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K91" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D92" s="7" t="s">
         <v>642</v>
       </c>
@@ -5019,16 +5296,19 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="I92" s="7">
+      <c r="J92" s="7">
         <v>0.5</v>
       </c>
-      <c r="J92" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K92" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D93" s="7" t="s">
         <v>644</v>
       </c>
@@ -5039,16 +5319,19 @@
         <v>0</v>
       </c>
       <c r="H93" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="I93" s="7">
+      <c r="J93" s="7">
         <v>0.5</v>
       </c>
-      <c r="J93" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K93" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>22</v>
       </c>
@@ -5064,17 +5347,20 @@
       <c r="G95" t="b">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I95" t="s">
         <v>315</v>
       </c>
-      <c r="I95" s="7">
-        <v>3</v>
-      </c>
-      <c r="J95" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J95" s="7">
+        <v>3</v>
+      </c>
+      <c r="K95" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>22</v>
       </c>
@@ -5090,17 +5376,20 @@
       <c r="G96" t="b">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I96" t="s">
         <v>319</v>
       </c>
-      <c r="I96" s="7">
-        <v>3</v>
-      </c>
-      <c r="J96" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J96" s="7">
+        <v>3</v>
+      </c>
+      <c r="K96" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>22</v>
       </c>
@@ -5116,17 +5405,20 @@
       <c r="G97" t="b">
         <v>0</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I97" t="s">
         <v>323</v>
       </c>
-      <c r="I97" s="7">
-        <v>3</v>
-      </c>
-      <c r="J97" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J97" s="7">
+        <v>3</v>
+      </c>
+      <c r="K97" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>22</v>
       </c>
@@ -5142,17 +5434,20 @@
       <c r="G98" t="b">
         <v>0</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I98" t="s">
         <v>327</v>
       </c>
-      <c r="I98" s="7">
-        <v>3</v>
-      </c>
-      <c r="J98" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="7">
+        <v>3</v>
+      </c>
+      <c r="K98" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>22</v>
       </c>
@@ -5168,17 +5463,20 @@
       <c r="G99" t="b">
         <v>0</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I99" t="s">
         <v>331</v>
       </c>
-      <c r="I99" s="7">
-        <v>3</v>
-      </c>
-      <c r="J99" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J99" s="7">
+        <v>3</v>
+      </c>
+      <c r="K99" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>22</v>
       </c>
@@ -5194,17 +5492,20 @@
       <c r="G100" t="b">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I100" t="s">
         <v>335</v>
       </c>
-      <c r="I100" s="7">
-        <v>3</v>
-      </c>
-      <c r="J100" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J100" s="7">
+        <v>3</v>
+      </c>
+      <c r="K100" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>22</v>
       </c>
@@ -5220,17 +5521,20 @@
       <c r="G101" t="b">
         <v>0</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I101" t="s">
         <v>339</v>
       </c>
-      <c r="I101" s="7">
-        <v>3</v>
-      </c>
-      <c r="J101" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J101" s="7">
+        <v>3</v>
+      </c>
+      <c r="K101" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>22</v>
       </c>
@@ -5246,17 +5550,20 @@
       <c r="G102" t="b">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I102" t="s">
         <v>343</v>
       </c>
-      <c r="I102" s="7">
-        <v>3</v>
-      </c>
-      <c r="J102" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J102" s="7">
+        <v>3</v>
+      </c>
+      <c r="K102" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
@@ -5272,17 +5579,20 @@
       <c r="G103" t="b">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I103" t="s">
         <v>347</v>
       </c>
-      <c r="I103" s="7">
-        <v>3</v>
-      </c>
-      <c r="J103" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J103" s="7">
+        <v>3</v>
+      </c>
+      <c r="K103" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>22</v>
       </c>
@@ -5298,17 +5608,20 @@
       <c r="G104" t="b">
         <v>0</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I104" t="s">
         <v>351</v>
       </c>
-      <c r="I104" s="7">
-        <v>3</v>
-      </c>
-      <c r="J104" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="7">
+        <v>3</v>
+      </c>
+      <c r="K104" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>22</v>
       </c>
@@ -5324,17 +5637,20 @@
       <c r="G105" t="b">
         <v>0</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I105" t="s">
         <v>355</v>
       </c>
-      <c r="I105" s="7">
-        <v>3</v>
-      </c>
-      <c r="J105" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="7">
+        <v>3</v>
+      </c>
+      <c r="K105" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>22</v>
       </c>
@@ -5350,17 +5666,20 @@
       <c r="G106" t="b">
         <v>0</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I106" t="s">
         <v>359</v>
       </c>
-      <c r="I106" s="7">
-        <v>3</v>
-      </c>
-      <c r="J106" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J106" s="7">
+        <v>3</v>
+      </c>
+      <c r="K106" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>22</v>
       </c>
@@ -5376,17 +5695,20 @@
       <c r="G107" t="b">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I107" t="s">
         <v>363</v>
       </c>
-      <c r="I107" s="7">
-        <v>3</v>
-      </c>
-      <c r="J107" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J107" s="7">
+        <v>3</v>
+      </c>
+      <c r="K107" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>22</v>
       </c>
@@ -5402,17 +5724,20 @@
       <c r="G108" t="b">
         <v>0</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I108" t="s">
         <v>367</v>
       </c>
-      <c r="I108" s="7">
-        <v>3</v>
-      </c>
-      <c r="J108" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J108" s="7">
+        <v>3</v>
+      </c>
+      <c r="K108" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>22</v>
       </c>
@@ -5428,17 +5753,20 @@
       <c r="G109" t="b">
         <v>0</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I109" t="s">
         <v>371</v>
       </c>
-      <c r="I109" s="7">
-        <v>3</v>
-      </c>
-      <c r="J109" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J109" s="7">
+        <v>3</v>
+      </c>
+      <c r="K109" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>22</v>
       </c>
@@ -5454,17 +5782,20 @@
       <c r="G110" t="b">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I110" t="s">
         <v>375</v>
       </c>
-      <c r="I110" s="7">
-        <v>3</v>
-      </c>
-      <c r="J110" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J110" s="7">
+        <v>3</v>
+      </c>
+      <c r="K110" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>22</v>
       </c>
@@ -5480,17 +5811,20 @@
       <c r="G111" t="b">
         <v>0</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I111" t="s">
         <v>379</v>
       </c>
-      <c r="I111" s="7">
-        <v>3</v>
-      </c>
-      <c r="J111" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J111" s="7">
+        <v>3</v>
+      </c>
+      <c r="K111" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5506,17 +5840,20 @@
       <c r="G112" t="b">
         <v>0</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I112" t="s">
         <v>383</v>
       </c>
-      <c r="I112" s="7">
-        <v>3</v>
-      </c>
-      <c r="J112" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J112" s="7">
+        <v>3</v>
+      </c>
+      <c r="K112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>22</v>
       </c>
@@ -5532,17 +5869,20 @@
       <c r="G113" t="b">
         <v>0</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I113" t="s">
         <v>387</v>
       </c>
-      <c r="I113" s="7">
-        <v>3</v>
-      </c>
-      <c r="J113" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="7">
+        <v>3</v>
+      </c>
+      <c r="K113" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -5558,17 +5898,20 @@
       <c r="G114" t="b">
         <v>0</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I114" t="s">
         <v>391</v>
       </c>
-      <c r="I114" s="7">
-        <v>3</v>
-      </c>
-      <c r="J114" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="7">
+        <v>3</v>
+      </c>
+      <c r="K114" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>22</v>
       </c>
@@ -5584,17 +5927,20 @@
       <c r="G115" t="b">
         <v>0</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I115" t="s">
         <v>395</v>
       </c>
-      <c r="I115" s="7">
-        <v>3</v>
-      </c>
-      <c r="J115" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J115" s="7">
+        <v>3</v>
+      </c>
+      <c r="K115" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>22</v>
       </c>
@@ -5610,17 +5956,20 @@
       <c r="G116" t="b">
         <v>0</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I116" t="s">
         <v>399</v>
       </c>
-      <c r="I116" s="7">
-        <v>3</v>
-      </c>
-      <c r="J116" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J116" s="7">
+        <v>3</v>
+      </c>
+      <c r="K116" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>22</v>
       </c>
@@ -5636,17 +5985,20 @@
       <c r="G117" t="b">
         <v>0</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I117" t="s">
         <v>403</v>
       </c>
-      <c r="I117" s="7">
-        <v>3</v>
-      </c>
-      <c r="J117" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="7">
+        <v>3</v>
+      </c>
+      <c r="K117" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>22</v>
       </c>
@@ -5662,17 +6014,20 @@
       <c r="G118" t="b">
         <v>0</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I118" t="s">
         <v>407</v>
       </c>
-      <c r="I118" s="7">
-        <v>3</v>
-      </c>
-      <c r="J118" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J118" s="7">
+        <v>3</v>
+      </c>
+      <c r="K118" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>22</v>
       </c>
@@ -5688,17 +6043,20 @@
       <c r="G119" t="b">
         <v>0</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I119" t="s">
         <v>411</v>
       </c>
-      <c r="I119" s="7">
+      <c r="J119" s="7">
         <v>1</v>
       </c>
-      <c r="J119" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K119" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>22</v>
       </c>
@@ -5714,17 +6072,20 @@
       <c r="G120" t="b">
         <v>0</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I120" t="s">
         <v>415</v>
       </c>
-      <c r="I120" s="7">
+      <c r="J120" s="7">
         <v>1</v>
       </c>
-      <c r="J120" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K120" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>22</v>
       </c>
@@ -5740,17 +6101,20 @@
       <c r="G121" t="b">
         <v>0</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I121" t="s">
         <v>419</v>
       </c>
-      <c r="I121" s="7">
+      <c r="J121" s="7">
         <v>1</v>
       </c>
-      <c r="J121" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K121" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>22</v>
       </c>
@@ -5766,17 +6130,20 @@
       <c r="G122" t="b">
         <v>0</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I122" t="s">
         <v>423</v>
       </c>
-      <c r="I122" s="7">
-        <v>3</v>
-      </c>
-      <c r="J122" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J122" s="7">
+        <v>3</v>
+      </c>
+      <c r="K122" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>22</v>
       </c>
@@ -5792,17 +6159,20 @@
       <c r="G123" t="b">
         <v>0</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I123" t="s">
         <v>427</v>
       </c>
-      <c r="I123" s="7">
-        <v>3</v>
-      </c>
-      <c r="J123" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J123" s="7">
+        <v>3</v>
+      </c>
+      <c r="K123" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>22</v>
       </c>
@@ -5818,17 +6188,20 @@
       <c r="G124" t="b">
         <v>0</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I124" t="s">
         <v>431</v>
       </c>
-      <c r="I124" s="7">
-        <v>3</v>
-      </c>
-      <c r="J124" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J124" s="7">
+        <v>3</v>
+      </c>
+      <c r="K124" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>22</v>
       </c>
@@ -5844,17 +6217,20 @@
       <c r="G125" t="b">
         <v>0</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I125" t="s">
         <v>435</v>
       </c>
-      <c r="I125" s="7">
-        <v>3</v>
-      </c>
-      <c r="J125" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J125" s="7">
+        <v>3</v>
+      </c>
+      <c r="K125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>22</v>
       </c>
@@ -5870,17 +6246,20 @@
       <c r="G126" t="b">
         <v>0</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I126" t="s">
         <v>439</v>
       </c>
-      <c r="I126" s="7">
-        <v>3</v>
-      </c>
-      <c r="J126" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J126" s="7">
+        <v>3</v>
+      </c>
+      <c r="K126" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>22</v>
       </c>
@@ -5896,17 +6275,20 @@
       <c r="G127" t="b">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I127" t="s">
         <v>443</v>
       </c>
-      <c r="I127" s="7">
-        <v>3</v>
-      </c>
-      <c r="J127" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J127" s="7">
+        <v>3</v>
+      </c>
+      <c r="K127" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>22</v>
       </c>
@@ -5922,17 +6304,20 @@
       <c r="G128" t="b">
         <v>0</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I128" t="s">
         <v>447</v>
       </c>
-      <c r="I128" s="7">
-        <v>3</v>
-      </c>
-      <c r="J128" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J128" s="7">
+        <v>3</v>
+      </c>
+      <c r="K128" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>22</v>
       </c>
@@ -5948,17 +6333,20 @@
       <c r="G129" t="b">
         <v>0</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I129" t="s">
         <v>451</v>
       </c>
-      <c r="I129" s="7">
-        <v>3</v>
-      </c>
-      <c r="J129" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="7">
+        <v>3</v>
+      </c>
+      <c r="K129" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>22</v>
       </c>
@@ -5974,17 +6362,20 @@
       <c r="G130" t="b">
         <v>0</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I130" t="s">
         <v>455</v>
       </c>
-      <c r="I130" s="7">
-        <v>3</v>
-      </c>
-      <c r="J130" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J130" s="7">
+        <v>3</v>
+      </c>
+      <c r="K130" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>22</v>
       </c>
@@ -6000,17 +6391,20 @@
       <c r="G131" t="b">
         <v>0</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I131" t="s">
         <v>459</v>
       </c>
-      <c r="I131" s="7">
-        <v>3</v>
-      </c>
-      <c r="J131" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J131" s="7">
+        <v>3</v>
+      </c>
+      <c r="K131" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>22</v>
       </c>
@@ -6026,17 +6420,20 @@
       <c r="G132" t="b">
         <v>0</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I132" t="s">
         <v>463</v>
       </c>
-      <c r="I132" s="7">
-        <v>3</v>
-      </c>
-      <c r="J132" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J132" s="7">
+        <v>3</v>
+      </c>
+      <c r="K132" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>22</v>
       </c>
@@ -6052,17 +6449,20 @@
       <c r="G133" t="b">
         <v>0</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I133" t="s">
         <v>467</v>
       </c>
-      <c r="I133" s="7">
-        <v>3</v>
-      </c>
-      <c r="J133" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J133" s="7">
+        <v>3</v>
+      </c>
+      <c r="K133" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>22</v>
       </c>
@@ -6078,17 +6478,20 @@
       <c r="G134" t="b">
         <v>0</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I134" t="s">
         <v>471</v>
       </c>
-      <c r="I134" s="7">
-        <v>3</v>
-      </c>
-      <c r="J134" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J134" s="7">
+        <v>3</v>
+      </c>
+      <c r="K134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>22</v>
       </c>
@@ -6104,17 +6507,20 @@
       <c r="G135" t="b">
         <v>0</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I135" t="s">
         <v>475</v>
       </c>
-      <c r="I135" s="7">
-        <v>3</v>
-      </c>
-      <c r="J135" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J135" s="7">
+        <v>3</v>
+      </c>
+      <c r="K135" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>22</v>
       </c>
@@ -6130,17 +6536,20 @@
       <c r="G136" t="b">
         <v>0</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I136" t="s">
         <v>479</v>
       </c>
-      <c r="I136" s="7">
-        <v>3</v>
-      </c>
-      <c r="J136" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J136" s="7">
+        <v>3</v>
+      </c>
+      <c r="K136" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>22</v>
       </c>
@@ -6156,17 +6565,20 @@
       <c r="G137" t="b">
         <v>0</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I137" t="s">
         <v>483</v>
       </c>
-      <c r="I137" s="7">
-        <v>3</v>
-      </c>
-      <c r="J137" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J137" s="7">
+        <v>3</v>
+      </c>
+      <c r="K137" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>22</v>
       </c>
@@ -6182,17 +6594,20 @@
       <c r="G138" t="b">
         <v>0</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I138" t="s">
         <v>487</v>
       </c>
-      <c r="I138" s="7">
-        <v>3</v>
-      </c>
-      <c r="J138" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J138" s="7">
+        <v>3</v>
+      </c>
+      <c r="K138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>22</v>
       </c>
@@ -6208,17 +6623,20 @@
       <c r="G139" t="b">
         <v>0</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I139" t="s">
         <v>491</v>
       </c>
-      <c r="I139" s="7">
-        <v>3</v>
-      </c>
-      <c r="J139" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J139" s="7">
+        <v>3</v>
+      </c>
+      <c r="K139" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>22</v>
       </c>
@@ -6234,17 +6652,20 @@
       <c r="G140" t="b">
         <v>0</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I140" t="s">
         <v>495</v>
       </c>
-      <c r="I140" s="7">
-        <v>3</v>
-      </c>
-      <c r="J140" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="7">
+        <v>3</v>
+      </c>
+      <c r="K140" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>22</v>
       </c>
@@ -6260,17 +6681,20 @@
       <c r="G141" t="b">
         <v>0</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I141" t="s">
         <v>499</v>
       </c>
-      <c r="I141" s="7">
-        <v>3</v>
-      </c>
-      <c r="J141" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J141" s="7">
+        <v>3</v>
+      </c>
+      <c r="K141" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>22</v>
       </c>
@@ -6286,17 +6710,20 @@
       <c r="G142" t="b">
         <v>0</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I142" t="s">
         <v>503</v>
       </c>
-      <c r="I142" s="7">
-        <v>3</v>
-      </c>
-      <c r="J142" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J142" s="7">
+        <v>3</v>
+      </c>
+      <c r="K142" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>22</v>
       </c>
@@ -6312,17 +6739,20 @@
       <c r="G143" t="b">
         <v>0</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I143" t="s">
         <v>627</v>
       </c>
-      <c r="I143" s="7">
-        <v>3</v>
-      </c>
-      <c r="J143" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J143" s="7">
+        <v>3</v>
+      </c>
+      <c r="K143" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>22</v>
       </c>
@@ -6338,17 +6768,20 @@
       <c r="G144" t="b">
         <v>0</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I144" t="s">
         <v>630</v>
       </c>
-      <c r="I144" s="7">
-        <v>3</v>
-      </c>
-      <c r="J144" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J144" s="7">
+        <v>3</v>
+      </c>
+      <c r="K144" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>22</v>
       </c>
@@ -6364,17 +6797,20 @@
       <c r="G145" t="b">
         <v>0</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I145" t="s">
         <v>633</v>
       </c>
-      <c r="I145" s="7">
-        <v>3</v>
-      </c>
-      <c r="J145" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J145" s="7">
+        <v>3</v>
+      </c>
+      <c r="K145" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>22</v>
       </c>
@@ -6390,17 +6826,20 @@
       <c r="G146" t="b">
         <v>0</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I146" t="s">
         <v>507</v>
       </c>
-      <c r="I146" s="7">
-        <v>3</v>
-      </c>
-      <c r="J146" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J146" s="7">
+        <v>3</v>
+      </c>
+      <c r="K146" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>22</v>
       </c>
@@ -6416,17 +6855,20 @@
       <c r="G147" t="b">
         <v>0</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I147" t="s">
         <v>511</v>
       </c>
-      <c r="I147" s="7">
-        <v>3</v>
-      </c>
-      <c r="J147" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J147" s="7">
+        <v>3</v>
+      </c>
+      <c r="K147" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>22</v>
       </c>
@@ -6442,17 +6884,20 @@
       <c r="G148" t="b">
         <v>0</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I148" t="s">
         <v>515</v>
       </c>
-      <c r="I148" s="7">
-        <v>3</v>
-      </c>
-      <c r="J148" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J148" s="7">
+        <v>3</v>
+      </c>
+      <c r="K148" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>22</v>
       </c>
@@ -6468,17 +6913,20 @@
       <c r="G149" t="b">
         <v>0</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I149" t="s">
         <v>519</v>
       </c>
-      <c r="I149" s="7">
-        <v>3</v>
-      </c>
-      <c r="J149" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J149" s="7">
+        <v>3</v>
+      </c>
+      <c r="K149" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>22</v>
       </c>
@@ -6494,17 +6942,20 @@
       <c r="G150" t="b">
         <v>0</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I150" t="s">
         <v>523</v>
       </c>
-      <c r="I150" s="7">
-        <v>3</v>
-      </c>
-      <c r="J150" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J150" s="7">
+        <v>3</v>
+      </c>
+      <c r="K150" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>22</v>
       </c>
@@ -6520,17 +6971,20 @@
       <c r="G151" t="b">
         <v>0</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I151" t="s">
         <v>527</v>
       </c>
-      <c r="I151" s="7">
-        <v>3</v>
-      </c>
-      <c r="J151" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J151" s="7">
+        <v>3</v>
+      </c>
+      <c r="K151" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>22</v>
       </c>
@@ -6546,17 +7000,20 @@
       <c r="G152" t="b">
         <v>0</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I152" t="s">
         <v>531</v>
       </c>
-      <c r="I152" s="7">
-        <v>3</v>
-      </c>
-      <c r="J152" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J152" s="7">
+        <v>3</v>
+      </c>
+      <c r="K152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>22</v>
       </c>
@@ -6572,17 +7029,20 @@
       <c r="G153" t="b">
         <v>0</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I153" t="s">
         <v>535</v>
       </c>
-      <c r="I153" s="7">
-        <v>3</v>
-      </c>
-      <c r="J153" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J153" s="7">
+        <v>3</v>
+      </c>
+      <c r="K153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>22</v>
       </c>
@@ -6598,17 +7058,20 @@
       <c r="G154" t="b">
         <v>0</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I154" t="s">
         <v>539</v>
       </c>
-      <c r="I154" s="7">
-        <v>3</v>
-      </c>
-      <c r="J154" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J154" s="7">
+        <v>3</v>
+      </c>
+      <c r="K154" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>22</v>
       </c>
@@ -6624,17 +7087,20 @@
       <c r="G155" t="b">
         <v>0</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I155" t="s">
         <v>543</v>
       </c>
-      <c r="I155" s="7">
-        <v>3</v>
-      </c>
-      <c r="J155" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J155" s="7">
+        <v>3</v>
+      </c>
+      <c r="K155" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>22</v>
       </c>
@@ -6650,17 +7116,20 @@
       <c r="G156" t="b">
         <v>0</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I156" t="s">
         <v>547</v>
       </c>
-      <c r="I156" s="7">
-        <v>3</v>
-      </c>
-      <c r="J156" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J156" s="7">
+        <v>3</v>
+      </c>
+      <c r="K156" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>22</v>
       </c>
@@ -6676,17 +7145,20 @@
       <c r="G157" t="b">
         <v>0</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I157" t="s">
         <v>551</v>
       </c>
-      <c r="I157" s="7">
-        <v>3</v>
-      </c>
-      <c r="J157" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J157" s="7">
+        <v>3</v>
+      </c>
+      <c r="K157" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>22</v>
       </c>
@@ -6702,17 +7174,20 @@
       <c r="G158" t="b">
         <v>0</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I158" t="s">
         <v>555</v>
       </c>
-      <c r="I158" s="7">
-        <v>3</v>
-      </c>
-      <c r="J158" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J158" s="7">
+        <v>3</v>
+      </c>
+      <c r="K158" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>22</v>
       </c>
@@ -6728,17 +7203,20 @@
       <c r="G159" t="b">
         <v>0</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I159" t="s">
         <v>559</v>
       </c>
-      <c r="I159" s="7">
-        <v>3</v>
-      </c>
-      <c r="J159" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J159" s="7">
+        <v>3</v>
+      </c>
+      <c r="K159" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>22</v>
       </c>
@@ -6754,17 +7232,20 @@
       <c r="G160" t="b">
         <v>0</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I160" t="s">
         <v>563</v>
       </c>
-      <c r="I160" s="7">
-        <v>3</v>
-      </c>
-      <c r="J160" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J160" s="7">
+        <v>3</v>
+      </c>
+      <c r="K160" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>22</v>
       </c>
@@ -6780,17 +7261,20 @@
       <c r="G161" t="b">
         <v>0</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I161" t="s">
         <v>567</v>
       </c>
-      <c r="I161" s="7">
-        <v>3</v>
-      </c>
-      <c r="J161" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J161" s="7">
+        <v>3</v>
+      </c>
+      <c r="K161" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>22</v>
       </c>
@@ -6806,17 +7290,20 @@
       <c r="G162" t="b">
         <v>0</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I162" t="s">
         <v>571</v>
       </c>
-      <c r="I162" s="7">
-        <v>3</v>
-      </c>
-      <c r="J162" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J162" s="7">
+        <v>3</v>
+      </c>
+      <c r="K162" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>22</v>
       </c>
@@ -6832,17 +7319,20 @@
       <c r="G163" t="b">
         <v>0</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I163" t="s">
         <v>575</v>
       </c>
-      <c r="I163" s="7">
-        <v>3</v>
-      </c>
-      <c r="J163" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J163" s="7">
+        <v>3</v>
+      </c>
+      <c r="K163" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>22</v>
       </c>
@@ -6858,17 +7348,20 @@
       <c r="G164" t="b">
         <v>0</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I164" t="s">
         <v>579</v>
       </c>
-      <c r="I164" s="7">
-        <v>3</v>
-      </c>
-      <c r="J164" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J164" s="7">
+        <v>3</v>
+      </c>
+      <c r="K164" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>22</v>
       </c>
@@ -6884,17 +7377,20 @@
       <c r="G165" t="b">
         <v>0</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I165" t="s">
         <v>583</v>
       </c>
-      <c r="I165" s="7">
-        <v>3</v>
-      </c>
-      <c r="J165" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J165" s="7">
+        <v>3</v>
+      </c>
+      <c r="K165" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>22</v>
       </c>
@@ -6910,17 +7406,20 @@
       <c r="G166" t="b">
         <v>0</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I166" t="s">
         <v>587</v>
       </c>
-      <c r="I166" s="7">
-        <v>3</v>
-      </c>
-      <c r="J166" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J166" s="7">
+        <v>3</v>
+      </c>
+      <c r="K166" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D167" s="7" t="s">
         <v>607</v>
       </c>
@@ -6931,16 +7430,19 @@
         <v>0</v>
       </c>
       <c r="H167" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I167" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="I167" s="7">
-        <v>3</v>
-      </c>
-      <c r="J167" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J167" s="7">
+        <v>3</v>
+      </c>
+      <c r="K167" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="s">
         <v>608</v>
       </c>
@@ -6951,16 +7453,19 @@
         <v>0</v>
       </c>
       <c r="H168" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I168" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="I168" s="7">
-        <v>3</v>
-      </c>
-      <c r="J168" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J168" s="7">
+        <v>3</v>
+      </c>
+      <c r="K168" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="s">
         <v>609</v>
       </c>
@@ -6971,12 +7476,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I169" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="I169" s="7">
-        <v>3</v>
-      </c>
-      <c r="J169" s="7" t="b">
+      <c r="J169" s="7">
+        <v>3</v>
+      </c>
+      <c r="K169" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6989,25 +7497,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A8694-FDD2-4E20-95E0-C72A4D08D013}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7024,16 +7533,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7044,8 +7556,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -7062,16 +7575,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -7084,8 +7600,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -7102,16 +7619,19 @@
         <v>646</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>662</v>
       </c>
@@ -7122,16 +7642,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="G7" s="7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>663</v>
       </c>
@@ -7142,16 +7665,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="G8" s="7">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>664</v>
       </c>
@@ -7162,16 +7688,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="G9" s="7">
-        <v>3</v>
-      </c>
-      <c r="H9" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>665</v>
       </c>
@@ -7182,16 +7711,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>666</v>
       </c>
@@ -7202,16 +7734,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>667</v>
       </c>
@@ -7222,12 +7757,15 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="b">
+      <c r="I13" s="7" t="b">
         <v>0</v>
       </c>
     </row>
